--- a/apps/lcac/LC Input Sheet.xlsx
+++ b/apps/lcac/LC Input Sheet.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://api.box.com/wopi/files/1806084417043/WOPIServiceId_TP_BOX_2/WOPIUserId_-/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\muham\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="58" documentId="8_{1E0AFC88-7816-4CFC-814D-48378ED47E57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{91CBF667-5DEF-4606-91BD-61CCE5BA10D4}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3F5DB93D-F62E-4419-BB41-A52E59903882}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{97D6AEB7-8C9F-4C65-9F84-0606D60EF083}"/>
   </bookViews>
@@ -4041,6 +4041,58 @@
     <xf numFmtId="44" fontId="18" fillId="11" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="2" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="35" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="36" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="2" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="8" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="8" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="8" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="8" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="9" fillId="8" borderId="41" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="9" fillId="8" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="9" fillId="8" borderId="47" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4232,58 +4284,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="10" fillId="2" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="35" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="2" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="36" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="10" fillId="2" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="8" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="8" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="8" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="8" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="9" fillId="8" borderId="41" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="9" fillId="8" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="9" fillId="8" borderId="47" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -5186,38 +5186,38 @@
   </cols>
   <sheetData>
     <row r="12" spans="4:17" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D12" s="215" t="s">
+      <c r="D12" s="239" t="s">
         <v>211</v>
       </c>
-      <c r="E12" s="215"/>
-      <c r="F12" s="215"/>
-      <c r="G12" s="215"/>
-      <c r="H12" s="215"/>
-      <c r="I12" s="215"/>
-      <c r="J12" s="215"/>
-      <c r="K12" s="215"/>
-      <c r="L12" s="215"/>
-      <c r="M12" s="215"/>
-      <c r="N12" s="215"/>
-      <c r="O12" s="215"/>
-      <c r="P12" s="215"/>
-      <c r="Q12" s="215"/>
+      <c r="E12" s="239"/>
+      <c r="F12" s="239"/>
+      <c r="G12" s="239"/>
+      <c r="H12" s="239"/>
+      <c r="I12" s="239"/>
+      <c r="J12" s="239"/>
+      <c r="K12" s="239"/>
+      <c r="L12" s="239"/>
+      <c r="M12" s="239"/>
+      <c r="N12" s="239"/>
+      <c r="O12" s="239"/>
+      <c r="P12" s="239"/>
+      <c r="Q12" s="239"/>
     </row>
     <row r="13" spans="4:17" ht="52.9" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D13" s="215"/>
-      <c r="E13" s="215"/>
-      <c r="F13" s="215"/>
-      <c r="G13" s="215"/>
-      <c r="H13" s="215"/>
-      <c r="I13" s="215"/>
-      <c r="J13" s="215"/>
-      <c r="K13" s="215"/>
-      <c r="L13" s="215"/>
-      <c r="M13" s="215"/>
-      <c r="N13" s="215"/>
-      <c r="O13" s="215"/>
-      <c r="P13" s="215"/>
-      <c r="Q13" s="215"/>
+      <c r="D13" s="239"/>
+      <c r="E13" s="239"/>
+      <c r="F13" s="239"/>
+      <c r="G13" s="239"/>
+      <c r="H13" s="239"/>
+      <c r="I13" s="239"/>
+      <c r="J13" s="239"/>
+      <c r="K13" s="239"/>
+      <c r="L13" s="239"/>
+      <c r="M13" s="239"/>
+      <c r="N13" s="239"/>
+      <c r="O13" s="239"/>
+      <c r="P13" s="239"/>
+      <c r="Q13" s="239"/>
     </row>
     <row r="14" spans="4:17" ht="14.65" customHeight="1" x14ac:dyDescent="0.7">
       <c r="D14" s="29"/>
@@ -5241,11 +5241,11 @@
       <c r="F15" s="29"/>
       <c r="G15" s="29"/>
       <c r="H15" s="29"/>
-      <c r="I15" s="217" t="s">
+      <c r="I15" s="241" t="s">
         <v>212</v>
       </c>
-      <c r="J15" s="217"/>
-      <c r="K15" s="217"/>
+      <c r="J15" s="241"/>
+      <c r="K15" s="241"/>
       <c r="L15" s="29"/>
       <c r="M15" s="29"/>
       <c r="N15" s="29"/>
@@ -5259,9 +5259,9 @@
       <c r="F16" s="29"/>
       <c r="G16" s="29"/>
       <c r="H16" s="29"/>
-      <c r="I16" s="217"/>
-      <c r="J16" s="217"/>
-      <c r="K16" s="217"/>
+      <c r="I16" s="241"/>
+      <c r="J16" s="241"/>
+      <c r="K16" s="241"/>
       <c r="L16" s="29"/>
       <c r="M16" s="29"/>
       <c r="N16" s="29"/>
@@ -5275,9 +5275,9 @@
       <c r="F17" s="29"/>
       <c r="G17" s="29"/>
       <c r="H17" s="29"/>
-      <c r="I17" s="217"/>
-      <c r="J17" s="217"/>
-      <c r="K17" s="217"/>
+      <c r="I17" s="241"/>
+      <c r="J17" s="241"/>
+      <c r="K17" s="241"/>
       <c r="L17" s="29"/>
       <c r="M17" s="29"/>
       <c r="N17" s="29"/>
@@ -5286,46 +5286,46 @@
       <c r="Q17" s="29"/>
     </row>
     <row r="19" spans="4:17" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="I19" s="218" t="s">
+      <c r="I19" s="242" t="s">
         <v>213</v>
       </c>
-      <c r="J19" s="218"/>
-      <c r="K19" s="218"/>
+      <c r="J19" s="242"/>
+      <c r="K19" s="242"/>
     </row>
     <row r="23" spans="4:17" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="K23" s="37"/>
     </row>
     <row r="24" spans="4:17" x14ac:dyDescent="0.35">
-      <c r="D24" s="216"/>
-      <c r="E24" s="216"/>
-      <c r="F24" s="216"/>
-      <c r="G24" s="216"/>
-      <c r="H24" s="216"/>
-      <c r="I24" s="216"/>
-      <c r="J24" s="216"/>
-      <c r="K24" s="216"/>
-      <c r="L24" s="216"/>
-      <c r="M24" s="216"/>
-      <c r="N24" s="216"/>
-      <c r="O24" s="216"/>
-      <c r="P24" s="216"/>
-      <c r="Q24" s="216"/>
+      <c r="D24" s="240"/>
+      <c r="E24" s="240"/>
+      <c r="F24" s="240"/>
+      <c r="G24" s="240"/>
+      <c r="H24" s="240"/>
+      <c r="I24" s="240"/>
+      <c r="J24" s="240"/>
+      <c r="K24" s="240"/>
+      <c r="L24" s="240"/>
+      <c r="M24" s="240"/>
+      <c r="N24" s="240"/>
+      <c r="O24" s="240"/>
+      <c r="P24" s="240"/>
+      <c r="Q24" s="240"/>
     </row>
     <row r="25" spans="4:17" x14ac:dyDescent="0.35">
-      <c r="D25" s="216"/>
-      <c r="E25" s="216"/>
-      <c r="F25" s="216"/>
-      <c r="G25" s="216"/>
-      <c r="H25" s="216"/>
-      <c r="I25" s="216"/>
-      <c r="J25" s="216"/>
-      <c r="K25" s="216"/>
-      <c r="L25" s="216"/>
-      <c r="M25" s="216"/>
-      <c r="N25" s="216"/>
-      <c r="O25" s="216"/>
-      <c r="P25" s="216"/>
-      <c r="Q25" s="216"/>
+      <c r="D25" s="240"/>
+      <c r="E25" s="240"/>
+      <c r="F25" s="240"/>
+      <c r="G25" s="240"/>
+      <c r="H25" s="240"/>
+      <c r="I25" s="240"/>
+      <c r="J25" s="240"/>
+      <c r="K25" s="240"/>
+      <c r="L25" s="240"/>
+      <c r="M25" s="240"/>
+      <c r="N25" s="240"/>
+      <c r="O25" s="240"/>
+      <c r="P25" s="240"/>
+      <c r="Q25" s="240"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -5399,96 +5399,96 @@
     </row>
     <row r="6" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="7" spans="1:31" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E7" s="220" t="s">
+      <c r="E7" s="244" t="s">
         <v>217</v>
       </c>
-      <c r="F7" s="221"/>
-      <c r="G7" s="221"/>
-      <c r="H7" s="221"/>
-      <c r="I7" s="221"/>
-      <c r="J7" s="221"/>
-      <c r="K7" s="221"/>
-      <c r="L7" s="221"/>
-      <c r="M7" s="221"/>
-      <c r="N7" s="221"/>
-      <c r="O7" s="221"/>
-      <c r="P7" s="221"/>
-      <c r="Q7" s="221"/>
-      <c r="R7" s="221"/>
-      <c r="S7" s="221"/>
-      <c r="T7" s="221"/>
-      <c r="U7" s="222"/>
+      <c r="F7" s="245"/>
+      <c r="G7" s="245"/>
+      <c r="H7" s="245"/>
+      <c r="I7" s="245"/>
+      <c r="J7" s="245"/>
+      <c r="K7" s="245"/>
+      <c r="L7" s="245"/>
+      <c r="M7" s="245"/>
+      <c r="N7" s="245"/>
+      <c r="O7" s="245"/>
+      <c r="P7" s="245"/>
+      <c r="Q7" s="245"/>
+      <c r="R7" s="245"/>
+      <c r="S7" s="245"/>
+      <c r="T7" s="245"/>
+      <c r="U7" s="246"/>
     </row>
     <row r="8" spans="1:31" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E8" s="223"/>
-      <c r="F8" s="224"/>
-      <c r="G8" s="224"/>
-      <c r="H8" s="224"/>
-      <c r="I8" s="224"/>
-      <c r="J8" s="224"/>
-      <c r="K8" s="224"/>
-      <c r="L8" s="224"/>
-      <c r="M8" s="224"/>
-      <c r="N8" s="224"/>
-      <c r="O8" s="224"/>
-      <c r="P8" s="224"/>
-      <c r="Q8" s="224"/>
-      <c r="R8" s="224"/>
-      <c r="S8" s="224"/>
-      <c r="T8" s="224"/>
-      <c r="U8" s="225"/>
+      <c r="E8" s="247"/>
+      <c r="F8" s="248"/>
+      <c r="G8" s="248"/>
+      <c r="H8" s="248"/>
+      <c r="I8" s="248"/>
+      <c r="J8" s="248"/>
+      <c r="K8" s="248"/>
+      <c r="L8" s="248"/>
+      <c r="M8" s="248"/>
+      <c r="N8" s="248"/>
+      <c r="O8" s="248"/>
+      <c r="P8" s="248"/>
+      <c r="Q8" s="248"/>
+      <c r="R8" s="248"/>
+      <c r="S8" s="248"/>
+      <c r="T8" s="248"/>
+      <c r="U8" s="249"/>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="E9" s="226" t="s">
+      <c r="E9" s="250" t="s">
         <v>131</v>
       </c>
-      <c r="F9" s="226" t="s">
+      <c r="F9" s="250" t="s">
         <v>132</v>
       </c>
-      <c r="G9" s="228"/>
-      <c r="H9" s="229"/>
-      <c r="I9" s="226" t="s">
+      <c r="G9" s="252"/>
+      <c r="H9" s="253"/>
+      <c r="I9" s="250" t="s">
         <v>133</v>
       </c>
-      <c r="J9" s="228"/>
-      <c r="K9" s="229"/>
-      <c r="L9" s="226" t="s">
+      <c r="J9" s="252"/>
+      <c r="K9" s="253"/>
+      <c r="L9" s="250" t="s">
         <v>134</v>
       </c>
-      <c r="M9" s="229"/>
-      <c r="N9" s="226" t="s">
+      <c r="M9" s="253"/>
+      <c r="N9" s="250" t="s">
         <v>135</v>
       </c>
-      <c r="O9" s="229"/>
-      <c r="P9" s="226" t="s">
+      <c r="O9" s="253"/>
+      <c r="P9" s="250" t="s">
         <v>2</v>
       </c>
-      <c r="Q9" s="228"/>
-      <c r="R9" s="228"/>
-      <c r="S9" s="229"/>
-      <c r="T9" s="226" t="s">
+      <c r="Q9" s="252"/>
+      <c r="R9" s="252"/>
+      <c r="S9" s="253"/>
+      <c r="T9" s="250" t="s">
         <v>232</v>
       </c>
-      <c r="U9" s="229"/>
+      <c r="U9" s="253"/>
     </row>
     <row r="10" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E10" s="227"/>
-      <c r="F10" s="227"/>
-      <c r="G10" s="230"/>
-      <c r="H10" s="231"/>
-      <c r="I10" s="227"/>
-      <c r="J10" s="230"/>
-      <c r="K10" s="231"/>
-      <c r="L10" s="227"/>
-      <c r="M10" s="231"/>
-      <c r="N10" s="227"/>
-      <c r="O10" s="231"/>
-      <c r="P10" s="227"/>
-      <c r="Q10" s="230"/>
-      <c r="R10" s="230"/>
-      <c r="S10" s="231"/>
-      <c r="T10" s="232"/>
-      <c r="U10" s="233"/>
+      <c r="E10" s="251"/>
+      <c r="F10" s="251"/>
+      <c r="G10" s="254"/>
+      <c r="H10" s="255"/>
+      <c r="I10" s="251"/>
+      <c r="J10" s="254"/>
+      <c r="K10" s="255"/>
+      <c r="L10" s="251"/>
+      <c r="M10" s="255"/>
+      <c r="N10" s="251"/>
+      <c r="O10" s="255"/>
+      <c r="P10" s="251"/>
+      <c r="Q10" s="254"/>
+      <c r="R10" s="254"/>
+      <c r="S10" s="255"/>
+      <c r="T10" s="256"/>
+      <c r="U10" s="257"/>
     </row>
     <row r="11" spans="1:31" ht="108" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D11" s="192" t="s">
@@ -5721,7 +5721,7 @@
       </c>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="B14" s="219"/>
+      <c r="B14" s="243"/>
       <c r="C14" s="49"/>
       <c r="D14" s="149">
         <f>IF(E14&lt;&gt;"",1,"")</f>
@@ -5817,7 +5817,7 @@
       </c>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="B15" s="219"/>
+      <c r="B15" s="243"/>
       <c r="C15" s="49"/>
       <c r="D15" s="146">
         <f t="shared" ref="D15:D33" si="11">IF(E15&lt;&gt;"",D14+1,"")</f>
@@ -5913,7 +5913,7 @@
       </c>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="B16" s="219"/>
+      <c r="B16" s="243"/>
       <c r="C16" s="49"/>
       <c r="D16" s="146">
         <f t="shared" si="11"/>
@@ -6011,7 +6011,7 @@
       </c>
     </row>
     <row r="17" spans="2:31" x14ac:dyDescent="0.35">
-      <c r="B17" s="219"/>
+      <c r="B17" s="243"/>
       <c r="C17" s="49"/>
       <c r="D17" s="146">
         <f t="shared" si="11"/>
@@ -6111,7 +6111,7 @@
       </c>
     </row>
     <row r="18" spans="2:31" x14ac:dyDescent="0.35">
-      <c r="B18" s="219"/>
+      <c r="B18" s="243"/>
       <c r="C18" s="49"/>
       <c r="D18" s="146">
         <f t="shared" si="11"/>
@@ -6211,7 +6211,7 @@
       </c>
     </row>
     <row r="19" spans="2:31" x14ac:dyDescent="0.35">
-      <c r="B19" s="219"/>
+      <c r="B19" s="243"/>
       <c r="C19" s="49"/>
       <c r="D19" s="146">
         <f t="shared" si="11"/>
@@ -6308,7 +6308,7 @@
       </c>
     </row>
     <row r="20" spans="2:31" x14ac:dyDescent="0.35">
-      <c r="B20" s="219"/>
+      <c r="B20" s="243"/>
       <c r="C20" s="49"/>
       <c r="D20" s="146" t="str">
         <f t="shared" si="11"/>
@@ -6323,26 +6323,14 @@
       <c r="K20" s="126"/>
       <c r="L20" s="125"/>
       <c r="M20" s="120"/>
-      <c r="N20" s="130"/>
+      <c r="N20" s="119"/>
       <c r="O20" s="120"/>
       <c r="P20" s="119"/>
       <c r="Q20" s="114"/>
-      <c r="R20" s="116" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="S20" s="132" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="T20" s="135" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="U20" s="136" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
+      <c r="R20" s="116"/>
+      <c r="S20" s="132"/>
+      <c r="T20" s="135"/>
+      <c r="U20" s="136"/>
       <c r="V20" s="140" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -6385,7 +6373,7 @@
       </c>
     </row>
     <row r="21" spans="2:31" x14ac:dyDescent="0.35">
-      <c r="B21" s="219"/>
+      <c r="B21" s="243"/>
       <c r="C21" s="49"/>
       <c r="D21" s="146" t="str">
         <f t="shared" si="11"/>
@@ -6400,7 +6388,7 @@
       <c r="K21" s="126"/>
       <c r="L21" s="125"/>
       <c r="M21" s="120"/>
-      <c r="N21" s="130"/>
+      <c r="N21" s="119"/>
       <c r="O21" s="120"/>
       <c r="P21" s="119"/>
       <c r="Q21" s="114"/>
@@ -6462,7 +6450,7 @@
       </c>
     </row>
     <row r="22" spans="2:31" x14ac:dyDescent="0.35">
-      <c r="B22" s="219"/>
+      <c r="B22" s="243"/>
       <c r="C22" s="49"/>
       <c r="D22" s="146" t="str">
         <f t="shared" si="11"/>
@@ -6477,7 +6465,7 @@
       <c r="K22" s="126"/>
       <c r="L22" s="125"/>
       <c r="M22" s="120"/>
-      <c r="N22" s="130"/>
+      <c r="N22" s="119"/>
       <c r="O22" s="120"/>
       <c r="P22" s="119"/>
       <c r="Q22" s="114"/>
@@ -6539,7 +6527,7 @@
       </c>
     </row>
     <row r="23" spans="2:31" x14ac:dyDescent="0.35">
-      <c r="B23" s="219"/>
+      <c r="B23" s="243"/>
       <c r="C23" s="49"/>
       <c r="D23" s="146" t="str">
         <f t="shared" si="11"/>
@@ -6554,7 +6542,7 @@
       <c r="K23" s="126"/>
       <c r="L23" s="125"/>
       <c r="M23" s="120"/>
-      <c r="N23" s="130"/>
+      <c r="N23" s="119"/>
       <c r="O23" s="120"/>
       <c r="P23" s="119"/>
       <c r="Q23" s="114"/>
@@ -6616,7 +6604,7 @@
       </c>
     </row>
     <row r="24" spans="2:31" x14ac:dyDescent="0.35">
-      <c r="B24" s="219"/>
+      <c r="B24" s="243"/>
       <c r="C24" s="49"/>
       <c r="D24" s="146" t="str">
         <f t="shared" si="11"/>
@@ -6631,7 +6619,7 @@
       <c r="K24" s="126"/>
       <c r="L24" s="125"/>
       <c r="M24" s="120"/>
-      <c r="N24" s="130"/>
+      <c r="N24" s="119"/>
       <c r="O24" s="120"/>
       <c r="P24" s="119"/>
       <c r="Q24" s="114"/>
@@ -6693,7 +6681,7 @@
       </c>
     </row>
     <row r="25" spans="2:31" x14ac:dyDescent="0.35">
-      <c r="B25" s="219"/>
+      <c r="B25" s="243"/>
       <c r="C25" s="49"/>
       <c r="D25" s="146" t="str">
         <f t="shared" si="11"/>
@@ -6708,7 +6696,7 @@
       <c r="K25" s="126"/>
       <c r="L25" s="125"/>
       <c r="M25" s="120"/>
-      <c r="N25" s="130"/>
+      <c r="N25" s="119"/>
       <c r="O25" s="120"/>
       <c r="P25" s="119"/>
       <c r="Q25" s="114"/>
@@ -6770,7 +6758,7 @@
       </c>
     </row>
     <row r="26" spans="2:31" x14ac:dyDescent="0.35">
-      <c r="B26" s="219"/>
+      <c r="B26" s="243"/>
       <c r="C26" s="49"/>
       <c r="D26" s="146" t="str">
         <f t="shared" si="11"/>
@@ -6785,7 +6773,7 @@
       <c r="K26" s="126"/>
       <c r="L26" s="125"/>
       <c r="M26" s="120"/>
-      <c r="N26" s="130"/>
+      <c r="N26" s="119"/>
       <c r="O26" s="120"/>
       <c r="P26" s="119"/>
       <c r="Q26" s="114"/>
@@ -6847,7 +6835,7 @@
       </c>
     </row>
     <row r="27" spans="2:31" x14ac:dyDescent="0.35">
-      <c r="B27" s="219"/>
+      <c r="B27" s="243"/>
       <c r="C27" s="49"/>
       <c r="D27" s="146" t="str">
         <f t="shared" si="11"/>
@@ -6862,7 +6850,7 @@
       <c r="K27" s="126"/>
       <c r="L27" s="125"/>
       <c r="M27" s="120"/>
-      <c r="N27" s="130"/>
+      <c r="N27" s="119"/>
       <c r="O27" s="120"/>
       <c r="P27" s="119"/>
       <c r="Q27" s="114"/>
@@ -6924,7 +6912,7 @@
       </c>
     </row>
     <row r="28" spans="2:31" x14ac:dyDescent="0.35">
-      <c r="B28" s="219"/>
+      <c r="B28" s="243"/>
       <c r="C28" s="49"/>
       <c r="D28" s="146" t="str">
         <f t="shared" si="11"/>
@@ -6939,7 +6927,7 @@
       <c r="K28" s="126"/>
       <c r="L28" s="125"/>
       <c r="M28" s="120"/>
-      <c r="N28" s="130"/>
+      <c r="N28" s="119"/>
       <c r="O28" s="120"/>
       <c r="P28" s="119"/>
       <c r="Q28" s="114"/>
@@ -7001,7 +6989,7 @@
       </c>
     </row>
     <row r="29" spans="2:31" x14ac:dyDescent="0.35">
-      <c r="B29" s="219"/>
+      <c r="B29" s="243"/>
       <c r="C29" s="49"/>
       <c r="D29" s="146" t="str">
         <f t="shared" si="11"/>
@@ -7016,7 +7004,7 @@
       <c r="K29" s="126"/>
       <c r="L29" s="125"/>
       <c r="M29" s="120"/>
-      <c r="N29" s="130"/>
+      <c r="N29" s="119"/>
       <c r="O29" s="120"/>
       <c r="P29" s="119"/>
       <c r="Q29" s="114"/>
@@ -7078,7 +7066,7 @@
       </c>
     </row>
     <row r="30" spans="2:31" x14ac:dyDescent="0.35">
-      <c r="B30" s="219"/>
+      <c r="B30" s="243"/>
       <c r="C30" s="49"/>
       <c r="D30" s="146" t="str">
         <f t="shared" si="11"/>
@@ -7093,7 +7081,7 @@
       <c r="K30" s="126"/>
       <c r="L30" s="125"/>
       <c r="M30" s="120"/>
-      <c r="N30" s="130"/>
+      <c r="N30" s="119"/>
       <c r="O30" s="120"/>
       <c r="P30" s="119"/>
       <c r="Q30" s="114"/>
@@ -7155,7 +7143,7 @@
       </c>
     </row>
     <row r="31" spans="2:31" x14ac:dyDescent="0.35">
-      <c r="B31" s="219"/>
+      <c r="B31" s="243"/>
       <c r="C31" s="49"/>
       <c r="D31" s="146" t="str">
         <f t="shared" si="11"/>
@@ -7170,7 +7158,7 @@
       <c r="K31" s="126"/>
       <c r="L31" s="125"/>
       <c r="M31" s="120"/>
-      <c r="N31" s="130"/>
+      <c r="N31" s="119"/>
       <c r="O31" s="120"/>
       <c r="P31" s="119"/>
       <c r="Q31" s="114"/>
@@ -7232,7 +7220,7 @@
       </c>
     </row>
     <row r="32" spans="2:31" x14ac:dyDescent="0.35">
-      <c r="B32" s="219"/>
+      <c r="B32" s="243"/>
       <c r="C32" s="49"/>
       <c r="D32" s="146" t="str">
         <f t="shared" si="11"/>
@@ -7247,7 +7235,7 @@
       <c r="K32" s="126"/>
       <c r="L32" s="125"/>
       <c r="M32" s="120"/>
-      <c r="N32" s="130"/>
+      <c r="N32" s="119"/>
       <c r="O32" s="120"/>
       <c r="P32" s="119"/>
       <c r="Q32" s="114"/>
@@ -7309,7 +7297,7 @@
       </c>
     </row>
     <row r="33" spans="2:31" x14ac:dyDescent="0.35">
-      <c r="B33" s="219"/>
+      <c r="B33" s="243"/>
       <c r="C33" s="49"/>
       <c r="D33" s="146" t="str">
         <f t="shared" si="11"/>
@@ -7324,7 +7312,7 @@
       <c r="K33" s="126"/>
       <c r="L33" s="125"/>
       <c r="M33" s="120"/>
-      <c r="N33" s="130"/>
+      <c r="N33" s="119"/>
       <c r="O33" s="120"/>
       <c r="P33" s="119"/>
       <c r="Q33" s="114"/>
@@ -7386,7 +7374,7 @@
       </c>
     </row>
     <row r="34" spans="2:31" x14ac:dyDescent="0.35">
-      <c r="B34" s="219"/>
+      <c r="B34" s="243"/>
       <c r="C34" s="49"/>
       <c r="D34" s="146"/>
       <c r="E34" s="144"/>
@@ -7398,7 +7386,7 @@
       <c r="K34" s="126"/>
       <c r="L34" s="125"/>
       <c r="M34" s="120"/>
-      <c r="N34" s="130"/>
+      <c r="N34" s="119"/>
       <c r="O34" s="120"/>
       <c r="P34" s="119"/>
       <c r="Q34" s="114"/>
@@ -7460,7 +7448,7 @@
       </c>
     </row>
     <row r="35" spans="2:31" x14ac:dyDescent="0.35">
-      <c r="B35" s="219"/>
+      <c r="B35" s="243"/>
       <c r="C35" s="49"/>
       <c r="D35" s="146" t="str">
         <f t="shared" ref="D35:D76" si="14">IF(E35&lt;&gt;"",D34+1,"")</f>
@@ -7475,7 +7463,7 @@
       <c r="K35" s="126"/>
       <c r="L35" s="125"/>
       <c r="M35" s="120"/>
-      <c r="N35" s="130"/>
+      <c r="N35" s="119"/>
       <c r="O35" s="120"/>
       <c r="P35" s="119"/>
       <c r="Q35" s="114"/>
@@ -7537,7 +7525,7 @@
       </c>
     </row>
     <row r="36" spans="2:31" x14ac:dyDescent="0.35">
-      <c r="B36" s="219"/>
+      <c r="B36" s="243"/>
       <c r="C36" s="49"/>
       <c r="D36" s="146" t="str">
         <f t="shared" si="14"/>
@@ -7552,7 +7540,7 @@
       <c r="K36" s="126"/>
       <c r="L36" s="125"/>
       <c r="M36" s="120"/>
-      <c r="N36" s="130"/>
+      <c r="N36" s="119"/>
       <c r="O36" s="120"/>
       <c r="P36" s="119"/>
       <c r="Q36" s="114"/>
@@ -7614,7 +7602,7 @@
       </c>
     </row>
     <row r="37" spans="2:31" x14ac:dyDescent="0.35">
-      <c r="B37" s="219"/>
+      <c r="B37" s="243"/>
       <c r="C37" s="49"/>
       <c r="D37" s="146" t="str">
         <f t="shared" si="14"/>
@@ -7629,7 +7617,7 @@
       <c r="K37" s="126"/>
       <c r="L37" s="125"/>
       <c r="M37" s="120"/>
-      <c r="N37" s="130"/>
+      <c r="N37" s="119"/>
       <c r="O37" s="120"/>
       <c r="P37" s="119"/>
       <c r="Q37" s="114"/>
@@ -7691,7 +7679,7 @@
       </c>
     </row>
     <row r="38" spans="2:31" x14ac:dyDescent="0.35">
-      <c r="B38" s="219"/>
+      <c r="B38" s="243"/>
       <c r="C38" s="49"/>
       <c r="D38" s="146" t="str">
         <f t="shared" si="14"/>
@@ -7706,7 +7694,7 @@
       <c r="K38" s="126"/>
       <c r="L38" s="125"/>
       <c r="M38" s="120"/>
-      <c r="N38" s="130"/>
+      <c r="N38" s="119"/>
       <c r="O38" s="120"/>
       <c r="P38" s="119"/>
       <c r="Q38" s="114"/>
@@ -7768,7 +7756,7 @@
       </c>
     </row>
     <row r="39" spans="2:31" x14ac:dyDescent="0.35">
-      <c r="B39" s="219"/>
+      <c r="B39" s="243"/>
       <c r="C39" s="49"/>
       <c r="D39" s="146" t="str">
         <f t="shared" si="14"/>
@@ -7783,7 +7771,7 @@
       <c r="K39" s="126"/>
       <c r="L39" s="125"/>
       <c r="M39" s="120"/>
-      <c r="N39" s="130"/>
+      <c r="N39" s="119"/>
       <c r="O39" s="120"/>
       <c r="P39" s="119"/>
       <c r="Q39" s="114"/>
@@ -7845,7 +7833,7 @@
       </c>
     </row>
     <row r="40" spans="2:31" x14ac:dyDescent="0.35">
-      <c r="B40" s="219"/>
+      <c r="B40" s="243"/>
       <c r="C40" s="49"/>
       <c r="D40" s="146" t="str">
         <f t="shared" si="14"/>
@@ -7860,7 +7848,7 @@
       <c r="K40" s="126"/>
       <c r="L40" s="125"/>
       <c r="M40" s="120"/>
-      <c r="N40" s="130"/>
+      <c r="N40" s="119"/>
       <c r="O40" s="120"/>
       <c r="P40" s="119"/>
       <c r="Q40" s="114"/>
@@ -7922,7 +7910,7 @@
       </c>
     </row>
     <row r="41" spans="2:31" x14ac:dyDescent="0.35">
-      <c r="B41" s="219"/>
+      <c r="B41" s="243"/>
       <c r="C41" s="49"/>
       <c r="D41" s="146" t="str">
         <f t="shared" si="14"/>
@@ -7937,7 +7925,7 @@
       <c r="K41" s="126"/>
       <c r="L41" s="125"/>
       <c r="M41" s="120"/>
-      <c r="N41" s="130"/>
+      <c r="N41" s="119"/>
       <c r="O41" s="120"/>
       <c r="P41" s="119"/>
       <c r="Q41" s="114"/>
@@ -7999,7 +7987,7 @@
       </c>
     </row>
     <row r="42" spans="2:31" x14ac:dyDescent="0.35">
-      <c r="B42" s="219"/>
+      <c r="B42" s="243"/>
       <c r="C42" s="49"/>
       <c r="D42" s="146" t="str">
         <f t="shared" si="14"/>
@@ -8014,7 +8002,7 @@
       <c r="K42" s="126"/>
       <c r="L42" s="125"/>
       <c r="M42" s="120"/>
-      <c r="N42" s="130"/>
+      <c r="N42" s="119"/>
       <c r="O42" s="120"/>
       <c r="P42" s="119"/>
       <c r="Q42" s="114"/>
@@ -8076,7 +8064,7 @@
       </c>
     </row>
     <row r="43" spans="2:31" x14ac:dyDescent="0.35">
-      <c r="B43" s="219"/>
+      <c r="B43" s="243"/>
       <c r="C43" s="49"/>
       <c r="D43" s="146" t="str">
         <f t="shared" si="14"/>
@@ -8091,7 +8079,7 @@
       <c r="K43" s="126"/>
       <c r="L43" s="125"/>
       <c r="M43" s="120"/>
-      <c r="N43" s="130"/>
+      <c r="N43" s="119"/>
       <c r="O43" s="120"/>
       <c r="P43" s="119"/>
       <c r="Q43" s="114"/>
@@ -8153,7 +8141,7 @@
       </c>
     </row>
     <row r="44" spans="2:31" x14ac:dyDescent="0.35">
-      <c r="B44" s="219"/>
+      <c r="B44" s="243"/>
       <c r="C44" s="49"/>
       <c r="D44" s="146" t="str">
         <f t="shared" si="14"/>
@@ -8168,7 +8156,7 @@
       <c r="K44" s="126"/>
       <c r="L44" s="125"/>
       <c r="M44" s="120"/>
-      <c r="N44" s="130"/>
+      <c r="N44" s="119"/>
       <c r="O44" s="120"/>
       <c r="P44" s="119"/>
       <c r="Q44" s="114"/>
@@ -8230,7 +8218,7 @@
       </c>
     </row>
     <row r="45" spans="2:31" x14ac:dyDescent="0.35">
-      <c r="B45" s="219"/>
+      <c r="B45" s="243"/>
       <c r="C45" s="49"/>
       <c r="D45" s="146" t="str">
         <f t="shared" si="14"/>
@@ -8245,7 +8233,7 @@
       <c r="K45" s="126"/>
       <c r="L45" s="125"/>
       <c r="M45" s="120"/>
-      <c r="N45" s="130"/>
+      <c r="N45" s="119"/>
       <c r="O45" s="120"/>
       <c r="P45" s="119"/>
       <c r="Q45" s="114"/>
@@ -8307,7 +8295,7 @@
       </c>
     </row>
     <row r="46" spans="2:31" x14ac:dyDescent="0.35">
-      <c r="B46" s="219"/>
+      <c r="B46" s="243"/>
       <c r="C46" s="49"/>
       <c r="D46" s="146" t="str">
         <f t="shared" si="14"/>
@@ -8322,7 +8310,7 @@
       <c r="K46" s="126"/>
       <c r="L46" s="125"/>
       <c r="M46" s="120"/>
-      <c r="N46" s="130"/>
+      <c r="N46" s="119"/>
       <c r="O46" s="120"/>
       <c r="P46" s="119"/>
       <c r="Q46" s="114"/>
@@ -8384,7 +8372,7 @@
       </c>
     </row>
     <row r="47" spans="2:31" x14ac:dyDescent="0.35">
-      <c r="B47" s="219"/>
+      <c r="B47" s="243"/>
       <c r="C47" s="49"/>
       <c r="D47" s="146" t="str">
         <f t="shared" si="14"/>
@@ -8399,7 +8387,7 @@
       <c r="K47" s="126"/>
       <c r="L47" s="125"/>
       <c r="M47" s="120"/>
-      <c r="N47" s="130"/>
+      <c r="N47" s="119"/>
       <c r="O47" s="120"/>
       <c r="P47" s="119"/>
       <c r="Q47" s="114"/>
@@ -8461,7 +8449,7 @@
       </c>
     </row>
     <row r="48" spans="2:31" x14ac:dyDescent="0.35">
-      <c r="B48" s="219"/>
+      <c r="B48" s="243"/>
       <c r="C48" s="49"/>
       <c r="D48" s="146" t="str">
         <f t="shared" si="14"/>
@@ -8476,7 +8464,7 @@
       <c r="K48" s="126"/>
       <c r="L48" s="125"/>
       <c r="M48" s="120"/>
-      <c r="N48" s="130"/>
+      <c r="N48" s="119"/>
       <c r="O48" s="120"/>
       <c r="P48" s="119"/>
       <c r="Q48" s="114"/>
@@ -8538,7 +8526,7 @@
       </c>
     </row>
     <row r="49" spans="2:31" x14ac:dyDescent="0.35">
-      <c r="B49" s="219"/>
+      <c r="B49" s="243"/>
       <c r="C49" s="49"/>
       <c r="D49" s="146" t="str">
         <f t="shared" si="14"/>
@@ -8553,7 +8541,7 @@
       <c r="K49" s="126"/>
       <c r="L49" s="125"/>
       <c r="M49" s="120"/>
-      <c r="N49" s="130"/>
+      <c r="N49" s="119"/>
       <c r="O49" s="120"/>
       <c r="P49" s="119"/>
       <c r="Q49" s="114"/>
@@ -8615,7 +8603,7 @@
       </c>
     </row>
     <row r="50" spans="2:31" x14ac:dyDescent="0.35">
-      <c r="B50" s="219"/>
+      <c r="B50" s="243"/>
       <c r="C50" s="49"/>
       <c r="D50" s="146" t="str">
         <f t="shared" si="14"/>
@@ -8630,7 +8618,7 @@
       <c r="K50" s="126"/>
       <c r="L50" s="125"/>
       <c r="M50" s="120"/>
-      <c r="N50" s="130"/>
+      <c r="N50" s="119"/>
       <c r="O50" s="120"/>
       <c r="P50" s="119"/>
       <c r="Q50" s="114"/>
@@ -8692,7 +8680,7 @@
       </c>
     </row>
     <row r="51" spans="2:31" x14ac:dyDescent="0.35">
-      <c r="B51" s="219"/>
+      <c r="B51" s="243"/>
       <c r="C51" s="49"/>
       <c r="D51" s="146" t="str">
         <f t="shared" si="14"/>
@@ -8707,7 +8695,7 @@
       <c r="K51" s="126"/>
       <c r="L51" s="125"/>
       <c r="M51" s="120"/>
-      <c r="N51" s="130"/>
+      <c r="N51" s="119"/>
       <c r="O51" s="120"/>
       <c r="P51" s="119"/>
       <c r="Q51" s="114"/>
@@ -8769,7 +8757,7 @@
       </c>
     </row>
     <row r="52" spans="2:31" x14ac:dyDescent="0.35">
-      <c r="B52" s="219"/>
+      <c r="B52" s="243"/>
       <c r="C52" s="49"/>
       <c r="D52" s="146" t="str">
         <f t="shared" si="14"/>
@@ -8784,7 +8772,7 @@
       <c r="K52" s="126"/>
       <c r="L52" s="125"/>
       <c r="M52" s="120"/>
-      <c r="N52" s="130"/>
+      <c r="N52" s="119"/>
       <c r="O52" s="120"/>
       <c r="P52" s="119"/>
       <c r="Q52" s="114"/>
@@ -8846,7 +8834,7 @@
       </c>
     </row>
     <row r="53" spans="2:31" x14ac:dyDescent="0.35">
-      <c r="B53" s="219"/>
+      <c r="B53" s="243"/>
       <c r="C53" s="49"/>
       <c r="D53" s="146" t="str">
         <f t="shared" si="14"/>
@@ -8861,7 +8849,7 @@
       <c r="K53" s="126"/>
       <c r="L53" s="125"/>
       <c r="M53" s="120"/>
-      <c r="N53" s="130"/>
+      <c r="N53" s="119"/>
       <c r="O53" s="120"/>
       <c r="P53" s="119"/>
       <c r="Q53" s="114"/>
@@ -8923,7 +8911,7 @@
       </c>
     </row>
     <row r="54" spans="2:31" x14ac:dyDescent="0.35">
-      <c r="B54" s="219"/>
+      <c r="B54" s="243"/>
       <c r="C54" s="49"/>
       <c r="D54" s="146" t="str">
         <f t="shared" si="14"/>
@@ -8938,7 +8926,7 @@
       <c r="K54" s="126"/>
       <c r="L54" s="125"/>
       <c r="M54" s="120"/>
-      <c r="N54" s="130"/>
+      <c r="N54" s="119"/>
       <c r="O54" s="120"/>
       <c r="P54" s="119"/>
       <c r="Q54" s="114"/>
@@ -9000,7 +8988,7 @@
       </c>
     </row>
     <row r="55" spans="2:31" x14ac:dyDescent="0.35">
-      <c r="B55" s="219"/>
+      <c r="B55" s="243"/>
       <c r="C55" s="49"/>
       <c r="D55" s="146" t="str">
         <f t="shared" si="14"/>
@@ -9015,7 +9003,7 @@
       <c r="K55" s="126"/>
       <c r="L55" s="125"/>
       <c r="M55" s="120"/>
-      <c r="N55" s="130"/>
+      <c r="N55" s="119"/>
       <c r="O55" s="120"/>
       <c r="P55" s="119"/>
       <c r="Q55" s="114"/>
@@ -9077,7 +9065,7 @@
       </c>
     </row>
     <row r="56" spans="2:31" x14ac:dyDescent="0.35">
-      <c r="B56" s="219"/>
+      <c r="B56" s="243"/>
       <c r="C56" s="49"/>
       <c r="D56" s="146" t="str">
         <f t="shared" si="14"/>
@@ -9092,7 +9080,7 @@
       <c r="K56" s="126"/>
       <c r="L56" s="125"/>
       <c r="M56" s="120"/>
-      <c r="N56" s="130"/>
+      <c r="N56" s="119"/>
       <c r="O56" s="120"/>
       <c r="P56" s="119"/>
       <c r="Q56" s="114"/>
@@ -9154,7 +9142,7 @@
       </c>
     </row>
     <row r="57" spans="2:31" x14ac:dyDescent="0.35">
-      <c r="B57" s="219"/>
+      <c r="B57" s="243"/>
       <c r="C57" s="49"/>
       <c r="D57" s="146" t="str">
         <f t="shared" si="14"/>
@@ -9169,7 +9157,7 @@
       <c r="K57" s="126"/>
       <c r="L57" s="125"/>
       <c r="M57" s="120"/>
-      <c r="N57" s="130"/>
+      <c r="N57" s="119"/>
       <c r="O57" s="120"/>
       <c r="P57" s="119"/>
       <c r="Q57" s="114"/>
@@ -9231,7 +9219,7 @@
       </c>
     </row>
     <row r="58" spans="2:31" x14ac:dyDescent="0.35">
-      <c r="B58" s="219"/>
+      <c r="B58" s="243"/>
       <c r="C58" s="49"/>
       <c r="D58" s="146" t="str">
         <f t="shared" si="14"/>
@@ -9246,7 +9234,7 @@
       <c r="K58" s="126"/>
       <c r="L58" s="125"/>
       <c r="M58" s="120"/>
-      <c r="N58" s="130"/>
+      <c r="N58" s="119"/>
       <c r="O58" s="120"/>
       <c r="P58" s="119"/>
       <c r="Q58" s="114"/>
@@ -9308,7 +9296,7 @@
       </c>
     </row>
     <row r="59" spans="2:31" x14ac:dyDescent="0.35">
-      <c r="B59" s="219"/>
+      <c r="B59" s="243"/>
       <c r="C59" s="49"/>
       <c r="D59" s="146" t="str">
         <f t="shared" si="14"/>
@@ -9323,7 +9311,7 @@
       <c r="K59" s="126"/>
       <c r="L59" s="125"/>
       <c r="M59" s="120"/>
-      <c r="N59" s="130"/>
+      <c r="N59" s="119"/>
       <c r="O59" s="120"/>
       <c r="P59" s="119"/>
       <c r="Q59" s="114"/>
@@ -9385,7 +9373,7 @@
       </c>
     </row>
     <row r="60" spans="2:31" x14ac:dyDescent="0.35">
-      <c r="B60" s="219"/>
+      <c r="B60" s="243"/>
       <c r="C60" s="49"/>
       <c r="D60" s="146" t="str">
         <f t="shared" si="14"/>
@@ -9400,7 +9388,7 @@
       <c r="K60" s="126"/>
       <c r="L60" s="125"/>
       <c r="M60" s="120"/>
-      <c r="N60" s="130"/>
+      <c r="N60" s="119"/>
       <c r="O60" s="120"/>
       <c r="P60" s="119"/>
       <c r="Q60" s="114"/>
@@ -9462,7 +9450,7 @@
       </c>
     </row>
     <row r="61" spans="2:31" x14ac:dyDescent="0.35">
-      <c r="B61" s="219"/>
+      <c r="B61" s="243"/>
       <c r="C61" s="49"/>
       <c r="D61" s="146" t="str">
         <f t="shared" si="14"/>
@@ -9477,7 +9465,7 @@
       <c r="K61" s="126"/>
       <c r="L61" s="125"/>
       <c r="M61" s="120"/>
-      <c r="N61" s="130"/>
+      <c r="N61" s="119"/>
       <c r="O61" s="120"/>
       <c r="P61" s="119"/>
       <c r="Q61" s="114"/>
@@ -9539,7 +9527,7 @@
       </c>
     </row>
     <row r="62" spans="2:31" x14ac:dyDescent="0.35">
-      <c r="B62" s="219"/>
+      <c r="B62" s="243"/>
       <c r="C62" s="49"/>
       <c r="D62" s="146" t="str">
         <f t="shared" si="14"/>
@@ -9554,7 +9542,7 @@
       <c r="K62" s="126"/>
       <c r="L62" s="125"/>
       <c r="M62" s="120"/>
-      <c r="N62" s="130"/>
+      <c r="N62" s="119"/>
       <c r="O62" s="120"/>
       <c r="P62" s="119"/>
       <c r="Q62" s="114"/>
@@ -9616,7 +9604,7 @@
       </c>
     </row>
     <row r="63" spans="2:31" x14ac:dyDescent="0.35">
-      <c r="B63" s="219"/>
+      <c r="B63" s="243"/>
       <c r="C63" s="49"/>
       <c r="D63" s="146" t="str">
         <f t="shared" si="14"/>
@@ -9631,7 +9619,7 @@
       <c r="K63" s="126"/>
       <c r="L63" s="125"/>
       <c r="M63" s="120"/>
-      <c r="N63" s="130"/>
+      <c r="N63" s="119"/>
       <c r="O63" s="120"/>
       <c r="P63" s="119"/>
       <c r="Q63" s="114"/>
@@ -9693,7 +9681,7 @@
       </c>
     </row>
     <row r="64" spans="2:31" x14ac:dyDescent="0.35">
-      <c r="B64" s="219"/>
+      <c r="B64" s="243"/>
       <c r="C64" s="49"/>
       <c r="D64" s="146" t="str">
         <f t="shared" si="14"/>
@@ -9708,7 +9696,7 @@
       <c r="K64" s="126"/>
       <c r="L64" s="125"/>
       <c r="M64" s="120"/>
-      <c r="N64" s="130"/>
+      <c r="N64" s="119"/>
       <c r="O64" s="120"/>
       <c r="P64" s="119"/>
       <c r="Q64" s="114"/>
@@ -9770,7 +9758,7 @@
       </c>
     </row>
     <row r="65" spans="2:31" x14ac:dyDescent="0.35">
-      <c r="B65" s="219"/>
+      <c r="B65" s="243"/>
       <c r="C65" s="49"/>
       <c r="D65" s="146" t="str">
         <f t="shared" si="14"/>
@@ -9785,7 +9773,7 @@
       <c r="K65" s="126"/>
       <c r="L65" s="125"/>
       <c r="M65" s="120"/>
-      <c r="N65" s="130"/>
+      <c r="N65" s="119"/>
       <c r="O65" s="120"/>
       <c r="P65" s="119"/>
       <c r="Q65" s="114"/>
@@ -9847,7 +9835,7 @@
       </c>
     </row>
     <row r="66" spans="2:31" x14ac:dyDescent="0.35">
-      <c r="B66" s="219"/>
+      <c r="B66" s="243"/>
       <c r="C66" s="49"/>
       <c r="D66" s="146" t="str">
         <f t="shared" si="14"/>
@@ -9862,7 +9850,7 @@
       <c r="K66" s="126"/>
       <c r="L66" s="125"/>
       <c r="M66" s="120"/>
-      <c r="N66" s="130"/>
+      <c r="N66" s="119"/>
       <c r="O66" s="120"/>
       <c r="P66" s="119"/>
       <c r="Q66" s="114"/>
@@ -9924,7 +9912,7 @@
       </c>
     </row>
     <row r="67" spans="2:31" x14ac:dyDescent="0.35">
-      <c r="B67" s="219"/>
+      <c r="B67" s="243"/>
       <c r="C67" s="49"/>
       <c r="D67" s="146" t="str">
         <f t="shared" si="14"/>
@@ -9939,7 +9927,7 @@
       <c r="K67" s="126"/>
       <c r="L67" s="125"/>
       <c r="M67" s="120"/>
-      <c r="N67" s="130"/>
+      <c r="N67" s="119"/>
       <c r="O67" s="120"/>
       <c r="P67" s="119"/>
       <c r="Q67" s="114"/>
@@ -10001,7 +9989,7 @@
       </c>
     </row>
     <row r="68" spans="2:31" x14ac:dyDescent="0.35">
-      <c r="B68" s="219"/>
+      <c r="B68" s="243"/>
       <c r="C68" s="49"/>
       <c r="D68" s="146" t="str">
         <f t="shared" si="14"/>
@@ -10016,7 +10004,7 @@
       <c r="K68" s="126"/>
       <c r="L68" s="125"/>
       <c r="M68" s="120"/>
-      <c r="N68" s="130"/>
+      <c r="N68" s="119"/>
       <c r="O68" s="120"/>
       <c r="P68" s="119"/>
       <c r="Q68" s="114"/>
@@ -10078,7 +10066,7 @@
       </c>
     </row>
     <row r="69" spans="2:31" x14ac:dyDescent="0.35">
-      <c r="B69" s="219"/>
+      <c r="B69" s="243"/>
       <c r="C69" s="49"/>
       <c r="D69" s="146" t="str">
         <f t="shared" si="14"/>
@@ -10093,7 +10081,7 @@
       <c r="K69" s="126"/>
       <c r="L69" s="125"/>
       <c r="M69" s="120"/>
-      <c r="N69" s="130"/>
+      <c r="N69" s="119"/>
       <c r="O69" s="120"/>
       <c r="P69" s="119"/>
       <c r="Q69" s="114"/>
@@ -10155,7 +10143,7 @@
       </c>
     </row>
     <row r="70" spans="2:31" x14ac:dyDescent="0.35">
-      <c r="B70" s="219"/>
+      <c r="B70" s="243"/>
       <c r="C70" s="49"/>
       <c r="D70" s="146" t="str">
         <f t="shared" si="14"/>
@@ -10170,7 +10158,7 @@
       <c r="K70" s="126"/>
       <c r="L70" s="125"/>
       <c r="M70" s="120"/>
-      <c r="N70" s="130"/>
+      <c r="N70" s="119"/>
       <c r="O70" s="120"/>
       <c r="P70" s="119"/>
       <c r="Q70" s="114"/>
@@ -10232,7 +10220,7 @@
       </c>
     </row>
     <row r="71" spans="2:31" x14ac:dyDescent="0.35">
-      <c r="B71" s="219"/>
+      <c r="B71" s="243"/>
       <c r="C71" s="49"/>
       <c r="D71" s="146" t="str">
         <f t="shared" si="14"/>
@@ -10247,7 +10235,7 @@
       <c r="K71" s="126"/>
       <c r="L71" s="125"/>
       <c r="M71" s="120"/>
-      <c r="N71" s="130"/>
+      <c r="N71" s="119"/>
       <c r="O71" s="120"/>
       <c r="P71" s="119"/>
       <c r="Q71" s="114"/>
@@ -10309,7 +10297,7 @@
       </c>
     </row>
     <row r="72" spans="2:31" x14ac:dyDescent="0.35">
-      <c r="B72" s="219"/>
+      <c r="B72" s="243"/>
       <c r="C72" s="49"/>
       <c r="D72" s="146" t="str">
         <f t="shared" si="14"/>
@@ -10324,7 +10312,7 @@
       <c r="K72" s="126"/>
       <c r="L72" s="125"/>
       <c r="M72" s="120"/>
-      <c r="N72" s="130"/>
+      <c r="N72" s="119"/>
       <c r="O72" s="120"/>
       <c r="P72" s="119"/>
       <c r="Q72" s="114"/>
@@ -10386,7 +10374,7 @@
       </c>
     </row>
     <row r="73" spans="2:31" x14ac:dyDescent="0.35">
-      <c r="B73" s="219"/>
+      <c r="B73" s="243"/>
       <c r="C73" s="49"/>
       <c r="D73" s="146" t="str">
         <f t="shared" si="14"/>
@@ -10401,7 +10389,7 @@
       <c r="K73" s="126"/>
       <c r="L73" s="125"/>
       <c r="M73" s="120"/>
-      <c r="N73" s="130"/>
+      <c r="N73" s="119"/>
       <c r="O73" s="120"/>
       <c r="P73" s="119"/>
       <c r="Q73" s="114"/>
@@ -10463,7 +10451,7 @@
       </c>
     </row>
     <row r="74" spans="2:31" x14ac:dyDescent="0.35">
-      <c r="B74" s="219"/>
+      <c r="B74" s="243"/>
       <c r="C74" s="49"/>
       <c r="D74" s="146" t="str">
         <f t="shared" si="14"/>
@@ -10478,7 +10466,7 @@
       <c r="K74" s="126"/>
       <c r="L74" s="125"/>
       <c r="M74" s="120"/>
-      <c r="N74" s="130"/>
+      <c r="N74" s="119"/>
       <c r="O74" s="120"/>
       <c r="P74" s="119"/>
       <c r="Q74" s="114"/>
@@ -10540,7 +10528,7 @@
       </c>
     </row>
     <row r="75" spans="2:31" x14ac:dyDescent="0.35">
-      <c r="B75" s="219"/>
+      <c r="B75" s="243"/>
       <c r="C75" s="49"/>
       <c r="D75" s="146" t="str">
         <f t="shared" si="14"/>
@@ -10555,7 +10543,7 @@
       <c r="K75" s="126"/>
       <c r="L75" s="125"/>
       <c r="M75" s="120"/>
-      <c r="N75" s="130"/>
+      <c r="N75" s="119"/>
       <c r="O75" s="120"/>
       <c r="P75" s="119"/>
       <c r="Q75" s="114"/>
@@ -10617,7 +10605,7 @@
       </c>
     </row>
     <row r="76" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B76" s="219"/>
+      <c r="B76" s="243"/>
       <c r="C76" s="49"/>
       <c r="D76" s="147" t="str">
         <f t="shared" si="14"/>
@@ -10632,7 +10620,7 @@
       <c r="K76" s="129"/>
       <c r="L76" s="127"/>
       <c r="M76" s="123"/>
-      <c r="N76" s="131"/>
+      <c r="N76" s="121"/>
       <c r="O76" s="123"/>
       <c r="P76" s="121"/>
       <c r="Q76" s="122"/>
@@ -10783,7 +10771,7 @@
   <sheetViews>
     <sheetView zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
       <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F7" sqref="F7:P7"/>
+      <selection pane="topRight" activeCell="E18" sqref="E18:W19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10821,28 +10809,28 @@
   <sheetData>
     <row r="1" spans="2:111" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:111" x14ac:dyDescent="0.35">
-      <c r="D2" s="236" t="s">
+      <c r="D2" s="260" t="s">
         <v>235</v>
       </c>
-      <c r="E2" s="237"/>
+      <c r="E2" s="261"/>
     </row>
     <row r="3" spans="2:111" x14ac:dyDescent="0.35">
-      <c r="D3" s="234" t="s">
+      <c r="D3" s="258" t="s">
         <v>234</v>
       </c>
-      <c r="E3" s="235"/>
+      <c r="E3" s="259"/>
     </row>
     <row r="4" spans="2:111" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D4" s="249" t="s">
+      <c r="D4" s="273" t="s">
         <v>216</v>
       </c>
-      <c r="E4" s="250"/>
+      <c r="E4" s="274"/>
     </row>
     <row r="5" spans="2:111" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D5" s="238" t="s">
+      <c r="D5" s="262" t="s">
         <v>236</v>
       </c>
-      <c r="E5" s="239"/>
+      <c r="E5" s="263"/>
     </row>
     <row r="6" spans="2:111" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D6" s="45"/>
@@ -10851,101 +10839,101 @@
     <row r="7" spans="2:111" ht="37" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D7" s="45"/>
       <c r="E7" s="46"/>
-      <c r="F7" s="268" t="s">
+      <c r="F7" s="292" t="s">
         <v>157</v>
       </c>
-      <c r="G7" s="269"/>
-      <c r="H7" s="269"/>
-      <c r="I7" s="269"/>
-      <c r="J7" s="269"/>
-      <c r="K7" s="269"/>
-      <c r="L7" s="269"/>
-      <c r="M7" s="269"/>
-      <c r="N7" s="269"/>
-      <c r="O7" s="269"/>
-      <c r="P7" s="270"/>
+      <c r="G7" s="293"/>
+      <c r="H7" s="293"/>
+      <c r="I7" s="293"/>
+      <c r="J7" s="293"/>
+      <c r="K7" s="293"/>
+      <c r="L7" s="293"/>
+      <c r="M7" s="293"/>
+      <c r="N7" s="293"/>
+      <c r="O7" s="293"/>
+      <c r="P7" s="294"/>
     </row>
     <row r="8" spans="2:111" ht="41" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D8" s="45"/>
       <c r="E8" s="46"/>
-      <c r="F8" s="268" t="s">
+      <c r="F8" s="292" t="s">
         <v>158</v>
       </c>
-      <c r="G8" s="270"/>
+      <c r="G8" s="294"/>
       <c r="H8" s="95" t="s">
         <v>111</v>
       </c>
-      <c r="I8" s="268" t="s">
+      <c r="I8" s="292" t="s">
         <v>159</v>
       </c>
-      <c r="J8" s="269"/>
-      <c r="K8" s="269"/>
-      <c r="L8" s="269"/>
-      <c r="M8" s="269"/>
-      <c r="N8" s="269"/>
-      <c r="O8" s="269"/>
-      <c r="P8" s="270"/>
+      <c r="J8" s="293"/>
+      <c r="K8" s="293"/>
+      <c r="L8" s="293"/>
+      <c r="M8" s="293"/>
+      <c r="N8" s="293"/>
+      <c r="O8" s="293"/>
+      <c r="P8" s="294"/>
     </row>
     <row r="9" spans="2:111" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D9" s="45"/>
       <c r="E9" s="46"/>
-      <c r="F9" s="268" t="s">
+      <c r="F9" s="292" t="s">
         <v>222</v>
       </c>
-      <c r="G9" s="270"/>
-      <c r="I9" s="220" t="s">
+      <c r="G9" s="294"/>
+      <c r="I9" s="244" t="s">
         <v>223</v>
       </c>
-      <c r="J9" s="221"/>
-      <c r="K9" s="221"/>
-      <c r="L9" s="221"/>
-      <c r="M9" s="221"/>
-      <c r="N9" s="221"/>
-      <c r="O9" s="221"/>
-      <c r="P9" s="222"/>
+      <c r="J9" s="245"/>
+      <c r="K9" s="245"/>
+      <c r="L9" s="245"/>
+      <c r="M9" s="245"/>
+      <c r="N9" s="245"/>
+      <c r="O9" s="245"/>
+      <c r="P9" s="246"/>
     </row>
     <row r="10" spans="2:111" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="F10" s="251" t="s">
+      <c r="F10" s="275" t="s">
         <v>161</v>
       </c>
-      <c r="G10" s="252"/>
+      <c r="G10" s="276"/>
       <c r="H10" s="37"/>
-      <c r="I10" s="259" t="s">
+      <c r="I10" s="283" t="s">
         <v>228</v>
       </c>
-      <c r="J10" s="260"/>
-      <c r="K10" s="260"/>
-      <c r="L10" s="261"/>
+      <c r="J10" s="284"/>
+      <c r="K10" s="284"/>
+      <c r="L10" s="285"/>
       <c r="M10" s="37"/>
       <c r="N10" s="37"/>
     </row>
     <row r="11" spans="2:111" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="242"/>
+      <c r="B11" s="266"/>
       <c r="C11" s="96"/>
-      <c r="F11" s="253" t="s">
+      <c r="F11" s="277" t="s">
         <v>219</v>
       </c>
-      <c r="G11" s="254"/>
+      <c r="G11" s="278"/>
       <c r="H11" s="37"/>
-      <c r="I11" s="247" t="s">
+      <c r="I11" s="271" t="s">
         <v>125</v>
       </c>
-      <c r="J11" s="255"/>
-      <c r="K11" s="248" t="s">
+      <c r="J11" s="279"/>
+      <c r="K11" s="272" t="s">
         <v>200</v>
       </c>
-      <c r="L11" s="255"/>
+      <c r="L11" s="279"/>
       <c r="M11" s="37"/>
-      <c r="N11" s="243" t="s">
+      <c r="N11" s="267" t="s">
         <v>230</v>
       </c>
-      <c r="O11" s="244"/>
+      <c r="O11" s="268"/>
       <c r="DG11" s="21" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="12" spans="2:111" ht="76.900000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="242"/>
+      <c r="B12" s="266"/>
       <c r="F12" s="86" t="s">
         <v>226</v>
       </c>
@@ -10953,14 +10941,14 @@
       <c r="H12" s="88" t="s">
         <v>173</v>
       </c>
-      <c r="I12" s="258" t="s">
+      <c r="I12" s="282" t="s">
         <v>4</v>
       </c>
-      <c r="J12" s="257"/>
-      <c r="K12" s="256" t="s">
+      <c r="J12" s="281"/>
+      <c r="K12" s="280" t="s">
         <v>215</v>
       </c>
-      <c r="L12" s="257"/>
+      <c r="L12" s="281"/>
       <c r="M12" s="37"/>
       <c r="N12" s="87" t="s">
         <v>194</v>
@@ -10974,7 +10962,7 @@
       </c>
     </row>
     <row r="13" spans="2:111" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="242"/>
+      <c r="B13" s="266"/>
       <c r="C13" s="96"/>
       <c r="F13" s="37"/>
       <c r="G13" s="37"/>
@@ -10995,7 +10983,7 @@
       </c>
     </row>
     <row r="14" spans="2:111" ht="79.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="242"/>
+      <c r="B14" s="266"/>
       <c r="C14" s="96"/>
       <c r="F14" s="91" t="s">
         <v>227</v>
@@ -11006,22 +10994,22 @@
       <c r="H14" s="90" t="s">
         <v>221</v>
       </c>
-      <c r="I14" s="247" t="s">
+      <c r="I14" s="271" t="s">
         <v>229</v>
       </c>
-      <c r="J14" s="248"/>
-      <c r="K14" s="245" t="s">
+      <c r="J14" s="272"/>
+      <c r="K14" s="269" t="s">
         <v>162</v>
       </c>
-      <c r="L14" s="246"/>
-      <c r="M14" s="240" t="str">
+      <c r="L14" s="270"/>
+      <c r="M14" s="264" t="str">
         <f>IF(K14=DG11,"","Forecast selection is incompatible with baseline years other than eGRID ones")</f>
         <v>Forecast selection is incompatible with baseline years other than eGRID ones</v>
       </c>
-      <c r="N14" s="241"/>
+      <c r="N14" s="265"/>
     </row>
     <row r="15" spans="2:111" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="242"/>
+      <c r="B15" s="266"/>
       <c r="C15" s="94"/>
       <c r="F15" s="37"/>
       <c r="G15" s="92"/>
@@ -11035,7 +11023,7 @@
       <c r="P15" s="37"/>
     </row>
     <row r="16" spans="2:111" ht="45.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="242"/>
+      <c r="B16" s="266"/>
       <c r="C16" s="94"/>
       <c r="F16" s="37"/>
       <c r="G16" s="92"/>
@@ -11054,7 +11042,7 @@
       <c r="AD16" s="203"/>
     </row>
     <row r="17" spans="2:45" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="242"/>
+      <c r="B17" s="266"/>
       <c r="C17" s="94"/>
       <c r="F17" s="37"/>
       <c r="G17" s="37"/>
@@ -11070,107 +11058,107 @@
       <c r="AD17" s="203"/>
     </row>
     <row r="18" spans="2:45" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E18" s="220" t="s">
+      <c r="E18" s="244" t="s">
         <v>218</v>
       </c>
-      <c r="F18" s="221"/>
-      <c r="G18" s="221"/>
-      <c r="H18" s="221"/>
-      <c r="I18" s="221"/>
-      <c r="J18" s="221"/>
-      <c r="K18" s="221"/>
-      <c r="L18" s="221"/>
-      <c r="M18" s="221"/>
-      <c r="N18" s="221"/>
-      <c r="O18" s="221"/>
-      <c r="P18" s="221"/>
-      <c r="Q18" s="221"/>
-      <c r="R18" s="221"/>
-      <c r="S18" s="221"/>
-      <c r="T18" s="221"/>
-      <c r="U18" s="221"/>
-      <c r="V18" s="221"/>
-      <c r="W18" s="222"/>
+      <c r="F18" s="245"/>
+      <c r="G18" s="245"/>
+      <c r="H18" s="245"/>
+      <c r="I18" s="245"/>
+      <c r="J18" s="245"/>
+      <c r="K18" s="245"/>
+      <c r="L18" s="245"/>
+      <c r="M18" s="245"/>
+      <c r="N18" s="245"/>
+      <c r="O18" s="245"/>
+      <c r="P18" s="245"/>
+      <c r="Q18" s="245"/>
+      <c r="R18" s="245"/>
+      <c r="S18" s="245"/>
+      <c r="T18" s="245"/>
+      <c r="U18" s="245"/>
+      <c r="V18" s="245"/>
+      <c r="W18" s="246"/>
       <c r="AE18" s="40"/>
     </row>
     <row r="19" spans="2:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E19" s="223"/>
-      <c r="F19" s="224"/>
-      <c r="G19" s="224"/>
-      <c r="H19" s="224"/>
-      <c r="I19" s="224"/>
-      <c r="J19" s="224"/>
-      <c r="K19" s="224"/>
-      <c r="L19" s="224"/>
-      <c r="M19" s="224"/>
-      <c r="N19" s="224"/>
-      <c r="O19" s="224"/>
-      <c r="P19" s="224"/>
-      <c r="Q19" s="224"/>
-      <c r="R19" s="224"/>
-      <c r="S19" s="224"/>
-      <c r="T19" s="224"/>
-      <c r="U19" s="224"/>
-      <c r="V19" s="224"/>
-      <c r="W19" s="225"/>
+      <c r="E19" s="247"/>
+      <c r="F19" s="248"/>
+      <c r="G19" s="248"/>
+      <c r="H19" s="248"/>
+      <c r="I19" s="248"/>
+      <c r="J19" s="248"/>
+      <c r="K19" s="248"/>
+      <c r="L19" s="248"/>
+      <c r="M19" s="248"/>
+      <c r="N19" s="248"/>
+      <c r="O19" s="248"/>
+      <c r="P19" s="248"/>
+      <c r="Q19" s="248"/>
+      <c r="R19" s="248"/>
+      <c r="S19" s="248"/>
+      <c r="T19" s="248"/>
+      <c r="U19" s="248"/>
+      <c r="V19" s="248"/>
+      <c r="W19" s="249"/>
       <c r="AE19" s="40"/>
     </row>
     <row r="20" spans="2:45" x14ac:dyDescent="0.35">
-      <c r="E20" s="226" t="s">
+      <c r="E20" s="250" t="s">
         <v>131</v>
       </c>
-      <c r="F20" s="229"/>
-      <c r="G20" s="226" t="s">
+      <c r="F20" s="253"/>
+      <c r="G20" s="250" t="s">
         <v>132</v>
       </c>
-      <c r="H20" s="228"/>
-      <c r="I20" s="229"/>
-      <c r="J20" s="226" t="s">
+      <c r="H20" s="252"/>
+      <c r="I20" s="253"/>
+      <c r="J20" s="250" t="s">
         <v>133</v>
       </c>
-      <c r="K20" s="228"/>
-      <c r="L20" s="229"/>
-      <c r="M20" s="226" t="s">
+      <c r="K20" s="252"/>
+      <c r="L20" s="253"/>
+      <c r="M20" s="250" t="s">
         <v>134</v>
       </c>
-      <c r="N20" s="229"/>
-      <c r="O20" s="226" t="s">
+      <c r="N20" s="253"/>
+      <c r="O20" s="250" t="s">
         <v>135</v>
       </c>
-      <c r="P20" s="229"/>
-      <c r="Q20" s="226" t="s">
+      <c r="P20" s="253"/>
+      <c r="Q20" s="250" t="s">
         <v>2</v>
       </c>
-      <c r="R20" s="228"/>
-      <c r="S20" s="228"/>
-      <c r="T20" s="229"/>
-      <c r="U20" s="262" t="s">
+      <c r="R20" s="252"/>
+      <c r="S20" s="252"/>
+      <c r="T20" s="253"/>
+      <c r="U20" s="286" t="s">
         <v>233</v>
       </c>
-      <c r="V20" s="263"/>
-      <c r="W20" s="264"/>
+      <c r="V20" s="287"/>
+      <c r="W20" s="288"/>
       <c r="AE20" s="41"/>
     </row>
     <row r="21" spans="2:45" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E21" s="227"/>
-      <c r="F21" s="231"/>
-      <c r="G21" s="227"/>
-      <c r="H21" s="230"/>
-      <c r="I21" s="231"/>
-      <c r="J21" s="227"/>
-      <c r="K21" s="230"/>
-      <c r="L21" s="231"/>
-      <c r="M21" s="227"/>
-      <c r="N21" s="231"/>
-      <c r="O21" s="227"/>
-      <c r="P21" s="231"/>
-      <c r="Q21" s="227"/>
-      <c r="R21" s="230"/>
-      <c r="S21" s="230"/>
-      <c r="T21" s="231"/>
-      <c r="U21" s="265"/>
-      <c r="V21" s="266"/>
-      <c r="W21" s="267"/>
+      <c r="E21" s="251"/>
+      <c r="F21" s="255"/>
+      <c r="G21" s="251"/>
+      <c r="H21" s="254"/>
+      <c r="I21" s="255"/>
+      <c r="J21" s="251"/>
+      <c r="K21" s="254"/>
+      <c r="L21" s="255"/>
+      <c r="M21" s="251"/>
+      <c r="N21" s="255"/>
+      <c r="O21" s="251"/>
+      <c r="P21" s="255"/>
+      <c r="Q21" s="251"/>
+      <c r="R21" s="254"/>
+      <c r="S21" s="254"/>
+      <c r="T21" s="255"/>
+      <c r="U21" s="289"/>
+      <c r="V21" s="290"/>
+      <c r="W21" s="291"/>
       <c r="AE21" s="41"/>
     </row>
     <row r="22" spans="2:45" ht="108" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -11285,7 +11273,7 @@
       <c r="AN22" s="62" t="s">
         <v>179</v>
       </c>
-      <c r="AO22" s="301" t="s">
+      <c r="AO22" s="237" t="s">
         <v>181</v>
       </c>
       <c r="AP22" s="186" t="s">
@@ -11458,36 +11446,36 @@
       <c r="AC24" s="108" t="s">
         <v>56</v>
       </c>
-      <c r="AD24" s="294" t="s">
+      <c r="AD24" s="230" t="s">
         <v>63</v>
       </c>
-      <c r="AE24" s="295" t="s">
+      <c r="AE24" s="231" t="s">
         <v>185</v>
       </c>
-      <c r="AF24" s="295" t="s">
+      <c r="AF24" s="231" t="s">
         <v>54</v>
       </c>
-      <c r="AG24" s="296" t="s">
+      <c r="AG24" s="232" t="s">
         <v>57</v>
       </c>
-      <c r="AH24" s="296" t="s">
+      <c r="AH24" s="232" t="s">
         <v>58</v>
       </c>
-      <c r="AI24" s="297" t="s">
+      <c r="AI24" s="233" t="s">
         <v>59</v>
       </c>
-      <c r="AJ24" s="297" t="s">
+      <c r="AJ24" s="233" t="s">
         <v>60</v>
       </c>
-      <c r="AK24" s="297" t="s">
+      <c r="AK24" s="233" t="s">
         <v>61</v>
       </c>
-      <c r="AL24" s="297"/>
-      <c r="AM24" s="297"/>
-      <c r="AN24" s="296" t="s">
+      <c r="AL24" s="233"/>
+      <c r="AM24" s="233"/>
+      <c r="AN24" s="232" t="s">
         <v>62</v>
       </c>
-      <c r="AO24" s="302" t="s">
+      <c r="AO24" s="238" t="s">
         <v>184</v>
       </c>
       <c r="AP24" s="72" t="s">
@@ -11504,7 +11492,7 @@
       </c>
     </row>
     <row r="25" spans="2:45" x14ac:dyDescent="0.35">
-      <c r="B25" s="219"/>
+      <c r="B25" s="243"/>
       <c r="C25" s="49"/>
       <c r="D25" s="149">
         <f>IF(E25&lt;&gt;"",1,"")</f>
@@ -11582,7 +11570,7 @@
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="W25" s="176">
-        <f t="shared" ref="W25:W31" si="0">IF(E25&lt;&gt;"",7.5%,"")</f>
+        <f t="shared" ref="W25:W29" si="0">IF(E25&lt;&gt;"",7.5%,"")</f>
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="X25" s="202">
@@ -11609,15 +11597,15 @@
         <f>IF(I25='Emission Factors'!$B$3,AB25,IF(I25='Emission Factors'!$B$4,'Emission Factors'!$C$4,IF(I25='Emission Factors'!$B$5,'Emission Factors'!$C$5,IF(I25='Emission Factors'!$B$6,'Emission Factors'!$C$6,IF(I25='Emission Factors'!$B$7,'Emission Factors'!$C$7,IF(I25='Emission Factors'!$B$8,'Emission Factors'!$C$8,IF(I25='Emission Factors'!$B$9,'Emission Factors'!$C$9,IF(I25='Emission Factors'!$B$10,'Emission Factors'!$C$10,IF(I25='Emission Factors'!$B$11,'Emission Factors'!$C$11,IF(I25='Emission Factors'!$B$12,'Emission Factors'!$C$12,IF(I25='Emission Factors'!$B$13,'Emission Factors'!$C$13,IF(I25='Emission Factors'!$B$14,'Emission Factors'!$C$14,0))))))))))))</f>
         <v>0</v>
       </c>
-      <c r="AD25" s="291">
+      <c r="AD25" s="227">
         <f t="shared" ref="AD25:AD56" si="1">IF(Q25&lt;&gt;"",AN25/AH25,"")</f>
         <v>-1705.0782422296106</v>
       </c>
-      <c r="AE25" s="292">
+      <c r="AE25" s="228">
         <f t="shared" ref="AE25:AE56" si="2">IF(OR(K25&lt;&gt;"",J25&lt;&gt;""),((IF(K25&lt;&gt;"",(K25*X25),0))+(IF(J25&lt;&gt;"",(J25*AB25),0))+(IF(L25&lt;&gt;"",(L25*Y25),0))-(IF(AND(G25&lt;&gt;"",I25&lt;&gt;""),(AC25*M25),0))),"")</f>
         <v>6.8087611940509687</v>
       </c>
-      <c r="AF25" s="293">
+      <c r="AF25" s="229">
         <f t="shared" ref="AF25:AF56" si="3">IF(AND($I$16&lt;&gt;"",AE25&lt;&gt;""),(AE25*$I$16),0)</f>
         <v>0</v>
       </c>
@@ -11650,10 +11638,10 @@
         <v>0</v>
       </c>
       <c r="AN25" s="158">
-        <f t="shared" ref="AN25:AN30" si="10">IF(Q25&lt;&gt;"",(Q25+(IF(R25&lt;&gt;"",R25*AH25,0))+(IF(N25&lt;&gt;"",N25*AM25,0))-((IF(O25&lt;&gt;"",O25*AI25,0))+(IF(P25&lt;&gt;"",P25*AJ25,0))+(IF(AF25&lt;&gt;"",AF25*AK25,0)))),"")</f>
+        <f t="shared" ref="AN25:AN29" si="10">IF(Q25&lt;&gt;"",(Q25+(IF(R25&lt;&gt;"",R25*AH25,0))+(IF(N25&lt;&gt;"",N25*AM25,0))-((IF(O25&lt;&gt;"",O25*AI25,0))+(IF(P25&lt;&gt;"",P25*AJ25,0))+(IF(AF25&lt;&gt;"",AF25*AK25,0)))),"")</f>
         <v>-13166.162220017428</v>
       </c>
-      <c r="AO25" s="298">
+      <c r="AO25" s="234">
         <f>IF(AND(AE25&lt;&gt;"",AE25&gt;0),AD25/AE25,"")</f>
         <v>-250.4241511244941</v>
       </c>
@@ -11661,7 +11649,7 @@
         <f>IF('Inputs for Conserved Energy'!AB14&lt;&gt;"",'Inputs for Conserved Energy'!AB14,(IF(OR(J25&lt;&gt;"",K25&lt;&gt;"",L25&lt;&gt;"",M25&lt;&gt;""),((J25*0.00341214)+K25+L25-IF(I25="Electricity",M25*0.00341214,M25)),"")))</f>
         <v>150.13416000000001</v>
       </c>
-      <c r="AQ25" s="298">
+      <c r="AQ25" s="234">
         <f>IF('Inputs for Conserved Energy'!AC14&lt;&gt;"",'Inputs for Conserved Energy'!AC14,IF(AND(AP25&lt;&gt;"",AP25&gt;0),AD25/AP25,""))</f>
         <v>-11.357030553403773</v>
       </c>
@@ -11675,10 +11663,10 @@
       </c>
     </row>
     <row r="26" spans="2:45" x14ac:dyDescent="0.35">
-      <c r="B26" s="219"/>
+      <c r="B26" s="243"/>
       <c r="C26" s="49"/>
       <c r="D26" s="146">
-        <f t="shared" ref="D26:D31" si="11">IF(E26&lt;&gt;"",D25+1,"")</f>
+        <f t="shared" ref="D26:D29" si="11">IF(E26&lt;&gt;"",D25+1,"")</f>
         <v>2</v>
       </c>
       <c r="E26" s="162" t="str">
@@ -11736,11 +11724,11 @@
         <f>IF('Inputs for Conserved Energy'!Q15&lt;&gt;"",'Inputs for Conserved Energy'!Q15,"")</f>
         <v>700</v>
       </c>
-      <c r="S26" s="279">
+      <c r="S26" s="215">
         <f>IF('Inputs for Conserved Energy'!R15&lt;&gt;"",'Inputs for Conserved Energy'!R15,(IF(E26&lt;&gt;"",0.05,"")))</f>
         <v>0.05</v>
       </c>
-      <c r="T26" s="281">
+      <c r="T26" s="217">
         <f>IF('Inputs for Conserved Energy'!S15&lt;&gt;"",'Inputs for Conserved Energy'!S15,(IF(E26&lt;&gt;"",10,"")))</f>
         <v>20</v>
       </c>
@@ -11748,7 +11736,7 @@
         <f>IF('Inputs for Conserved Energy'!T15&lt;&gt;"",'Inputs for Conserved Energy'!T15,(IF(E26&lt;&gt;"",0.035,"")))</f>
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="V26" s="280">
+      <c r="V26" s="216">
         <f>IF('Inputs for Conserved Energy'!U15&lt;&gt;"",'Inputs for Conserved Energy'!U15,(IF(E26&lt;&gt;"",0.035,"")))</f>
         <v>3.5000000000000003E-2</v>
       </c>
@@ -11780,15 +11768,15 @@
         <f>IF(I26='Emission Factors'!$B$3,AB26,IF(I26='Emission Factors'!$B$4,'Emission Factors'!$C$4,IF(I26='Emission Factors'!$B$5,'Emission Factors'!$C$5,IF(I26='Emission Factors'!$B$6,'Emission Factors'!$C$6,IF(I26='Emission Factors'!$B$7,'Emission Factors'!$C$7,IF(I26='Emission Factors'!$B$8,'Emission Factors'!$C$8,IF(I26='Emission Factors'!$B$9,'Emission Factors'!$C$9,IF(I26='Emission Factors'!$B$10,'Emission Factors'!$C$10,IF(I26='Emission Factors'!$B$11,'Emission Factors'!$C$11,IF(I26='Emission Factors'!$B$12,'Emission Factors'!$C$12,IF(I26='Emission Factors'!$B$13,'Emission Factors'!$C$13,IF(I26='Emission Factors'!$B$14,'Emission Factors'!$C$14,0))))))))))))</f>
         <v>0</v>
       </c>
-      <c r="AD26" s="287">
+      <c r="AD26" s="223">
         <f t="shared" si="1"/>
         <v>-20062.031565150846</v>
       </c>
-      <c r="AE26" s="285">
+      <c r="AE26" s="221">
         <f t="shared" si="2"/>
         <v>58.192743764172334</v>
       </c>
-      <c r="AF26" s="286">
+      <c r="AF26" s="222">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -11824,7 +11812,7 @@
         <f t="shared" si="10"/>
         <v>-250017.25726358657</v>
       </c>
-      <c r="AO26" s="299">
+      <c r="AO26" s="235">
         <f t="shared" ref="AO26:AO87" si="12">IF(AND(AE26&lt;&gt;"",AE26&gt;0),AD26/AE26,"")</f>
         <v>-344.75142891444972</v>
       </c>
@@ -11832,7 +11820,7 @@
         <f>IF('Inputs for Conserved Energy'!AB15&lt;&gt;"",'Inputs for Conserved Energy'!AB15,(IF(OR(J26&lt;&gt;"",K26&lt;&gt;"",L26&lt;&gt;"",M26&lt;&gt;""),((J26*0.00341214)+K26+L26-IF(I26="Electricity",M26*0.00341214,M26)),"")))</f>
         <v>1100</v>
       </c>
-      <c r="AQ26" s="299">
+      <c r="AQ26" s="235">
         <f>IF('Inputs for Conserved Energy'!AC15&lt;&gt;"",'Inputs for Conserved Energy'!AC15,IF(AND(AP26&lt;&gt;"",AP26&gt;0),AD26/AP26,""))</f>
         <v>-18.238210513773495</v>
       </c>
@@ -11846,7 +11834,7 @@
       </c>
     </row>
     <row r="27" spans="2:45" x14ac:dyDescent="0.35">
-      <c r="B27" s="219"/>
+      <c r="B27" s="243"/>
       <c r="C27" s="49"/>
       <c r="D27" s="146">
         <f t="shared" si="11"/>
@@ -11907,11 +11895,11 @@
         <f>IF('Inputs for Conserved Energy'!Q16&lt;&gt;"",'Inputs for Conserved Energy'!Q16,"")</f>
         <v>3200</v>
       </c>
-      <c r="S27" s="279">
+      <c r="S27" s="215">
         <f>IF('Inputs for Conserved Energy'!R16&lt;&gt;"",'Inputs for Conserved Energy'!R16,(IF(E27&lt;&gt;"",0.05,"")))</f>
         <v>0.05</v>
       </c>
-      <c r="T27" s="281">
+      <c r="T27" s="217">
         <f>IF('Inputs for Conserved Energy'!S16&lt;&gt;"",'Inputs for Conserved Energy'!S16,(IF(E27&lt;&gt;"",10,"")))</f>
         <v>20</v>
       </c>
@@ -11919,7 +11907,7 @@
         <f>IF('Inputs for Conserved Energy'!T16&lt;&gt;"",'Inputs for Conserved Energy'!T16,(IF(E27&lt;&gt;"",0.035,"")))</f>
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="V27" s="280">
+      <c r="V27" s="216">
         <f>IF('Inputs for Conserved Energy'!U16&lt;&gt;"",'Inputs for Conserved Energy'!U16,(IF(E27&lt;&gt;"",0.035,"")))</f>
         <v>3.5000000000000003E-2</v>
       </c>
@@ -11951,15 +11939,15 @@
         <f>IF(I27='Emission Factors'!$B$3,AB27,IF(I27='Emission Factors'!$B$4,'Emission Factors'!$C$4,IF(I27='Emission Factors'!$B$5,'Emission Factors'!$C$5,IF(I27='Emission Factors'!$B$6,'Emission Factors'!$C$6,IF(I27='Emission Factors'!$B$7,'Emission Factors'!$C$7,IF(I27='Emission Factors'!$B$8,'Emission Factors'!$C$8,IF(I27='Emission Factors'!$B$9,'Emission Factors'!$C$9,IF(I27='Emission Factors'!$B$10,'Emission Factors'!$C$10,IF(I27='Emission Factors'!$B$11,'Emission Factors'!$C$11,IF(I27='Emission Factors'!$B$12,'Emission Factors'!$C$12,IF(I27='Emission Factors'!$B$13,'Emission Factors'!$C$13,IF(I27='Emission Factors'!$B$14,'Emission Factors'!$C$14,0))))))))))))</f>
         <v>0</v>
       </c>
-      <c r="AD27" s="287">
+      <c r="AD27" s="223">
         <f t="shared" si="1"/>
         <v>-7905.4299467261535</v>
       </c>
-      <c r="AE27" s="285">
+      <c r="AE27" s="221">
         <f t="shared" si="2"/>
         <v>17.034911825719689</v>
       </c>
-      <c r="AF27" s="286">
+      <c r="AF27" s="222">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -11995,7 +11983,7 @@
         <f t="shared" si="10"/>
         <v>-98519.130844316009</v>
       </c>
-      <c r="AO27" s="299">
+      <c r="AO27" s="235">
         <f t="shared" si="12"/>
         <v>-464.07225511965135</v>
       </c>
@@ -12003,7 +11991,7 @@
         <f>IF('Inputs for Conserved Energy'!AB16&lt;&gt;"",'Inputs for Conserved Energy'!AB16,(IF(OR(J27&lt;&gt;"",K27&lt;&gt;"",L27&lt;&gt;"",M27&lt;&gt;""),((J27*0.00341214)+K27+L27-IF(I27="Electricity",M27*0.00341214,M27)),"")))</f>
         <v>376.24918000000002</v>
       </c>
-      <c r="AQ27" s="299">
+      <c r="AQ27" s="235">
         <f>IF('Inputs for Conserved Energy'!AC16&lt;&gt;"",'Inputs for Conserved Energy'!AC16,IF(AND(AP27&lt;&gt;"",AP27&gt;0),AD27/AP27,""))</f>
         <v>-21.011155284713585</v>
       </c>
@@ -12017,7 +12005,7 @@
       </c>
     </row>
     <row r="28" spans="2:45" x14ac:dyDescent="0.35">
-      <c r="B28" s="219"/>
+      <c r="B28" s="243"/>
       <c r="C28" s="49"/>
       <c r="D28" s="146">
         <f t="shared" si="11"/>
@@ -12077,11 +12065,11 @@
         <f>IF('Inputs for Conserved Energy'!Q17&lt;&gt;"",'Inputs for Conserved Energy'!Q17,"")</f>
         <v>4500</v>
       </c>
-      <c r="S28" s="279">
+      <c r="S28" s="215">
         <f>IF('Inputs for Conserved Energy'!R17&lt;&gt;"",'Inputs for Conserved Energy'!R17,(IF(E28&lt;&gt;"",0.05,"")))</f>
         <v>0.05</v>
       </c>
-      <c r="T28" s="281">
+      <c r="T28" s="217">
         <f>IF('Inputs for Conserved Energy'!S17&lt;&gt;"",'Inputs for Conserved Energy'!S17,(IF(E28&lt;&gt;"",10,"")))</f>
         <v>20</v>
       </c>
@@ -12089,7 +12077,7 @@
         <f>IF('Inputs for Conserved Energy'!T17&lt;&gt;"",'Inputs for Conserved Energy'!T17,(IF(E28&lt;&gt;"",0.035,"")))</f>
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="V28" s="280">
+      <c r="V28" s="216">
         <f>IF('Inputs for Conserved Energy'!U17&lt;&gt;"",'Inputs for Conserved Energy'!U17,(IF(E28&lt;&gt;"",0.035,"")))</f>
         <v>3.5000000000000003E-2</v>
       </c>
@@ -12121,15 +12109,15 @@
         <f>IF(I28='Emission Factors'!$B$3,AB28,IF(I28='Emission Factors'!$B$4,'Emission Factors'!$C$4,IF(I28='Emission Factors'!$B$5,'Emission Factors'!$C$5,IF(I28='Emission Factors'!$B$6,'Emission Factors'!$C$6,IF(I28='Emission Factors'!$B$7,'Emission Factors'!$C$7,IF(I28='Emission Factors'!$B$8,'Emission Factors'!$C$8,IF(I28='Emission Factors'!$B$9,'Emission Factors'!$C$9,IF(I28='Emission Factors'!$B$10,'Emission Factors'!$C$10,IF(I28='Emission Factors'!$B$11,'Emission Factors'!$C$11,IF(I28='Emission Factors'!$B$12,'Emission Factors'!$C$12,IF(I28='Emission Factors'!$B$13,'Emission Factors'!$C$13,IF(I28='Emission Factors'!$B$14,'Emission Factors'!$C$14,0))))))))))))</f>
         <v>1.0295373629603373E-4</v>
       </c>
-      <c r="AD28" s="287">
+      <c r="AD28" s="223">
         <f t="shared" si="1"/>
         <v>10572.507086554961</v>
       </c>
-      <c r="AE28" s="285">
+      <c r="AE28" s="221">
         <f t="shared" si="2"/>
         <v>119.94139635414919</v>
       </c>
-      <c r="AF28" s="286">
+      <c r="AF28" s="222">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -12165,7 +12153,7 @@
         <f t="shared" si="10"/>
         <v>131756.80716064252</v>
       </c>
-      <c r="AO28" s="299">
+      <c r="AO28" s="235">
         <f t="shared" si="12"/>
         <v>88.147273651356159</v>
       </c>
@@ -12173,7 +12161,7 @@
         <f>IF('Inputs for Conserved Energy'!AB17&lt;&gt;"",'Inputs for Conserved Energy'!AB17,(IF(OR(J28&lt;&gt;"",K28&lt;&gt;"",L28&lt;&gt;"",M28&lt;&gt;""),((J28*0.00341214)+K28+L28-IF(I28="Electricity",M28*0.00341214,M28)),"")))</f>
         <v>2016.52406</v>
       </c>
-      <c r="AQ28" s="299">
+      <c r="AQ28" s="235">
         <f>IF('Inputs for Conserved Energy'!AC17&lt;&gt;"",'Inputs for Conserved Energy'!AC17,IF(AND(AP28&lt;&gt;"",AP28&gt;0),AD28/AP28,""))</f>
         <v>5.2429362467190002</v>
       </c>
@@ -12187,7 +12175,7 @@
       </c>
     </row>
     <row r="29" spans="2:45" x14ac:dyDescent="0.35">
-      <c r="B29" s="219"/>
+      <c r="B29" s="243"/>
       <c r="C29" s="49"/>
       <c r="D29" s="146">
         <f t="shared" si="11"/>
@@ -12247,11 +12235,11 @@
         <f>IF('Inputs for Conserved Energy'!Q18&lt;&gt;"",'Inputs for Conserved Energy'!Q18,"")</f>
         <v>8567</v>
       </c>
-      <c r="S29" s="279">
+      <c r="S29" s="215">
         <f>IF('Inputs for Conserved Energy'!R18&lt;&gt;"",'Inputs for Conserved Energy'!R18,(IF(E29&lt;&gt;"",0.05,"")))</f>
         <v>0.05</v>
       </c>
-      <c r="T29" s="281">
+      <c r="T29" s="217">
         <f>IF('Inputs for Conserved Energy'!S18&lt;&gt;"",'Inputs for Conserved Energy'!S18,(IF(E29&lt;&gt;"",10,"")))</f>
         <v>10</v>
       </c>
@@ -12259,7 +12247,7 @@
         <f>IF('Inputs for Conserved Energy'!T18&lt;&gt;"",'Inputs for Conserved Energy'!T18,(IF(E29&lt;&gt;"",0.035,"")))</f>
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="V29" s="280">
+      <c r="V29" s="216">
         <f>IF('Inputs for Conserved Energy'!U18&lt;&gt;"",'Inputs for Conserved Energy'!U18,(IF(E29&lt;&gt;"",0.035,"")))</f>
         <v>3.5000000000000003E-2</v>
       </c>
@@ -12291,15 +12279,15 @@
         <f>IF(I29='Emission Factors'!$B$3,AB29,IF(I29='Emission Factors'!$B$4,'Emission Factors'!$C$4,IF(I29='Emission Factors'!$B$5,'Emission Factors'!$C$5,IF(I29='Emission Factors'!$B$6,'Emission Factors'!$C$6,IF(I29='Emission Factors'!$B$7,'Emission Factors'!$C$7,IF(I29='Emission Factors'!$B$8,'Emission Factors'!$C$8,IF(I29='Emission Factors'!$B$9,'Emission Factors'!$C$9,IF(I29='Emission Factors'!$B$10,'Emission Factors'!$C$10,IF(I29='Emission Factors'!$B$11,'Emission Factors'!$C$11,IF(I29='Emission Factors'!$B$12,'Emission Factors'!$C$12,IF(I29='Emission Factors'!$B$13,'Emission Factors'!$C$13,IF(I29='Emission Factors'!$B$14,'Emission Factors'!$C$14,0))))))))))))</f>
         <v>1.5474457259206746E-4</v>
       </c>
-      <c r="AD29" s="287">
+      <c r="AD29" s="223">
         <f t="shared" si="1"/>
         <v>31628.274353227123</v>
       </c>
-      <c r="AE29" s="285">
+      <c r="AE29" s="221">
         <f t="shared" si="2"/>
         <v>76.86775358741491</v>
       </c>
-      <c r="AF29" s="286">
+      <c r="AF29" s="222">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -12335,7 +12323,7 @@
         <f t="shared" si="10"/>
         <v>244225.15082315408</v>
       </c>
-      <c r="AO29" s="299">
+      <c r="AO29" s="235">
         <f t="shared" si="12"/>
         <v>411.46349251977398</v>
       </c>
@@ -12343,7 +12331,7 @@
         <f>IF('Inputs for Conserved Energy'!AB18&lt;&gt;"",'Inputs for Conserved Energy'!AB18,(IF(OR(J29&lt;&gt;"",K29&lt;&gt;"",L29&lt;&gt;"",M29&lt;&gt;""),((J29*0.00341214)+K29+L29-IF(I29="Electricity",M29*0.00341214,M29)),"")))</f>
         <v>1361.9298199999998</v>
       </c>
-      <c r="AQ29" s="299">
+      <c r="AQ29" s="235">
         <f>IF('Inputs for Conserved Energy'!AC18&lt;&gt;"",'Inputs for Conserved Energy'!AC18,IF(AND(AP29&lt;&gt;"",AP29&gt;0),AD29/AP29,""))</f>
         <v>23.223130802163599</v>
       </c>
@@ -12357,10 +12345,10 @@
       </c>
     </row>
     <row r="30" spans="2:45" x14ac:dyDescent="0.35">
-      <c r="B30" s="219"/>
+      <c r="B30" s="243"/>
       <c r="C30" s="49"/>
       <c r="D30" s="146">
-        <f t="shared" si="11"/>
+        <f>IF(E30&lt;&gt;"",D29+1,"")</f>
         <v>6</v>
       </c>
       <c r="E30" s="162" t="str">
@@ -12418,11 +12406,11 @@
         <f>IF('Inputs for Conserved Energy'!Q19&lt;&gt;"",'Inputs for Conserved Energy'!Q19,"")</f>
         <v>3000</v>
       </c>
-      <c r="S30" s="279">
+      <c r="S30" s="215">
         <f>IF('Inputs for Conserved Energy'!R19&lt;&gt;"",'Inputs for Conserved Energy'!R19,(IF(E30&lt;&gt;"",0.05,"")))</f>
         <v>0.05</v>
       </c>
-      <c r="T30" s="281">
+      <c r="T30" s="217">
         <f>IF('Inputs for Conserved Energy'!S19&lt;&gt;"",'Inputs for Conserved Energy'!S19,(IF(E30&lt;&gt;"",10,"")))</f>
         <v>10</v>
       </c>
@@ -12430,12 +12418,12 @@
         <f>IF('Inputs for Conserved Energy'!T19&lt;&gt;"",'Inputs for Conserved Energy'!T19,(IF(E30&lt;&gt;"",0.035,"")))</f>
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="V30" s="280">
+      <c r="V30" s="216">
         <f>IF('Inputs for Conserved Energy'!U19&lt;&gt;"",'Inputs for Conserved Energy'!U19,(IF(E30&lt;&gt;"",0.035,"")))</f>
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="W30" s="177">
-        <f t="shared" si="0"/>
+        <f>IF(E30&lt;&gt;"",7.5%,"")</f>
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="X30" s="202">
@@ -12462,40 +12450,40 @@
         <f>IF(I30='Emission Factors'!$B$3,AB30,IF(I30='Emission Factors'!$B$4,'Emission Factors'!$C$4,IF(I30='Emission Factors'!$B$5,'Emission Factors'!$C$5,IF(I30='Emission Factors'!$B$6,'Emission Factors'!$C$6,IF(I30='Emission Factors'!$B$7,'Emission Factors'!$C$7,IF(I30='Emission Factors'!$B$8,'Emission Factors'!$C$8,IF(I30='Emission Factors'!$B$9,'Emission Factors'!$C$9,IF(I30='Emission Factors'!$B$10,'Emission Factors'!$C$10,IF(I30='Emission Factors'!$B$11,'Emission Factors'!$C$11,IF(I30='Emission Factors'!$B$12,'Emission Factors'!$C$12,IF(I30='Emission Factors'!$B$13,'Emission Factors'!$C$13,IF(I30='Emission Factors'!$B$14,'Emission Factors'!$C$14,0))))))))))))</f>
         <v>0</v>
       </c>
-      <c r="AD30" s="287">
-        <f t="shared" si="1"/>
+      <c r="AD30" s="223">
+        <f>IF(Q30&lt;&gt;"",AN30/AH30,"")</f>
         <v>-3269.165634390135</v>
       </c>
-      <c r="AE30" s="285">
-        <f t="shared" si="2"/>
+      <c r="AE30" s="221">
+        <f>IF(OR(K30&lt;&gt;"",J30&lt;&gt;""),((IF(K30&lt;&gt;"",(K30*X30),0))+(IF(J30&lt;&gt;"",(J30*AB30),0))+(IF(L30&lt;&gt;"",(L30*Y30),0))-(IF(AND(G30&lt;&gt;"",I30&lt;&gt;""),(AC30*M30),0))),"")</f>
         <v>8.4181047490084708</v>
       </c>
-      <c r="AF30" s="286">
+      <c r="AF30" s="222">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AG30" s="117">
-        <f t="shared" si="4"/>
+        <f>(1+S30)^(-T30)</f>
         <v>0.61391325354075932</v>
       </c>
       <c r="AH30" s="117">
-        <f t="shared" si="5"/>
+        <f>(1-(1+S30)^(-T30))/S30</f>
         <v>7.7217349291848132</v>
       </c>
       <c r="AI30" s="117">
-        <f t="shared" si="6"/>
+        <f>(1-((1+U30)/(1+S30))^T30)/(S30-U30)</f>
         <v>8.9343150284350408</v>
       </c>
       <c r="AJ30" s="117">
-        <f t="shared" si="7"/>
+        <f>(1-((1+V30)/(1+S30))^T30)/(S30-V30)</f>
         <v>8.9343150284350408</v>
       </c>
       <c r="AK30" s="117">
-        <f t="shared" si="8"/>
+        <f>(1-((1+W30)/(1+S30))^T30)/(S30-W30)</f>
         <v>10.611783679149262</v>
       </c>
       <c r="AL30" s="117">
-        <f t="shared" si="9"/>
+        <f>IF($G$14&lt;0,(1-((1+$G$14)/(1))^T30)/(0-$G$14),(T30^2))</f>
         <v>100</v>
       </c>
       <c r="AM30" s="117">
@@ -12503,10 +12491,10 @@
         <v>0</v>
       </c>
       <c r="AN30" s="117">
-        <f t="shared" si="10"/>
+        <f>IF(Q30&lt;&gt;"",(Q30+(IF(R30&lt;&gt;"",R30*AH30,0))+(IF(N30&lt;&gt;"",N30*AM30,0))-((IF(O30&lt;&gt;"",O30*AI30,0))+(IF(P30&lt;&gt;"",P30*AJ30,0))+(IF(AF30&lt;&gt;"",AF30*AK30,0)))),"")</f>
         <v>-25243.630468360934</v>
       </c>
-      <c r="AO30" s="299">
+      <c r="AO30" s="235">
         <f t="shared" si="12"/>
         <v>-388.34936507236915</v>
       </c>
@@ -12514,7 +12502,7 @@
         <f>IF('Inputs for Conserved Energy'!AB19&lt;&gt;"",'Inputs for Conserved Energy'!AB19,(IF(OR(J30&lt;&gt;"",K30&lt;&gt;"",L30&lt;&gt;"",M30&lt;&gt;""),((J30*0.00341214)+K30+L30-IF(I30="Electricity",M30*0.00341214,M30)),"")))</f>
         <v>2577.4312799999998</v>
       </c>
-      <c r="AQ30" s="299">
+      <c r="AQ30" s="235">
         <f>IF('Inputs for Conserved Energy'!AC19&lt;&gt;"",'Inputs for Conserved Energy'!AC19,IF(AND(AP30&lt;&gt;"",AP30&gt;0),AD30/AP30,""))</f>
         <v>-1.2683812987596454</v>
       </c>
@@ -12528,31 +12516,85 @@
       </c>
     </row>
     <row r="31" spans="2:45" x14ac:dyDescent="0.35">
-      <c r="B31" s="219"/>
+      <c r="B31" s="243"/>
       <c r="C31" s="49"/>
       <c r="D31" s="146" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="E31" s="162"/>
+        <f>IF(E31&lt;&gt;"",D30+1,"")</f>
+        <v/>
+      </c>
+      <c r="E31" s="162" t="str">
+        <f>IF('Inputs for Conserved Energy'!E20&lt;&gt;"",'Inputs for Conserved Energy'!E20,"")</f>
+        <v/>
+      </c>
       <c r="F31" s="163"/>
-      <c r="G31" s="119"/>
-      <c r="H31" s="114"/>
-      <c r="I31" s="120"/>
-      <c r="J31" s="125"/>
-      <c r="K31" s="115"/>
-      <c r="L31" s="126"/>
-      <c r="M31" s="125"/>
-      <c r="N31" s="120"/>
-      <c r="O31" s="119"/>
-      <c r="P31" s="120"/>
-      <c r="Q31" s="119"/>
-      <c r="R31" s="114"/>
-      <c r="S31" s="279"/>
-      <c r="T31" s="281"/>
-      <c r="U31" s="135"/>
-      <c r="V31" s="280"/>
-      <c r="W31" s="177"/>
+      <c r="G31" s="119" t="str">
+        <f>IF('Inputs for Conserved Energy'!F20&lt;&gt;"",'Inputs for Conserved Energy'!F20,"")</f>
+        <v/>
+      </c>
+      <c r="H31" s="114" t="str">
+        <f>IF('Inputs for Conserved Energy'!G20&lt;&gt;"",'Inputs for Conserved Energy'!G20,"")</f>
+        <v/>
+      </c>
+      <c r="I31" s="120" t="str">
+        <f>IF('Inputs for Conserved Energy'!H20&lt;&gt;"",'Inputs for Conserved Energy'!H20,"")</f>
+        <v/>
+      </c>
+      <c r="J31" s="125" t="str">
+        <f>IF('Inputs for Conserved Energy'!I20&lt;&gt;"",'Inputs for Conserved Energy'!I20,"")</f>
+        <v/>
+      </c>
+      <c r="K31" s="115" t="str">
+        <f>IF('Inputs for Conserved Energy'!J20&lt;&gt;"",'Inputs for Conserved Energy'!J20,"")</f>
+        <v/>
+      </c>
+      <c r="L31" s="126" t="str">
+        <f>IF('Inputs for Conserved Energy'!K20&lt;&gt;"",'Inputs for Conserved Energy'!K20,"")</f>
+        <v/>
+      </c>
+      <c r="M31" s="125" t="str">
+        <f>IF('Inputs for Conserved Energy'!L20&lt;&gt;"",'Inputs for Conserved Energy'!L20,"")</f>
+        <v/>
+      </c>
+      <c r="N31" s="120" t="str">
+        <f>IF('Inputs for Conserved Energy'!M20&lt;&gt;"",'Inputs for Conserved Energy'!M20,"")</f>
+        <v/>
+      </c>
+      <c r="O31" s="130" t="str">
+        <f>IF('Inputs for Conserved Energy'!N20&lt;&gt;"",'Inputs for Conserved Energy'!N20,"")</f>
+        <v/>
+      </c>
+      <c r="P31" s="120" t="str">
+        <f>IF('Inputs for Conserved Energy'!O20&lt;&gt;"",'Inputs for Conserved Energy'!O20,"")</f>
+        <v/>
+      </c>
+      <c r="Q31" s="119" t="str">
+        <f>IF('Inputs for Conserved Energy'!P20&lt;&gt;"",'Inputs for Conserved Energy'!P20,"")</f>
+        <v/>
+      </c>
+      <c r="R31" s="114" t="str">
+        <f>IF('Inputs for Conserved Energy'!Q20&lt;&gt;"",'Inputs for Conserved Energy'!Q20,"")</f>
+        <v/>
+      </c>
+      <c r="S31" s="215" t="str">
+        <f>IF('Inputs for Conserved Energy'!R20&lt;&gt;"",'Inputs for Conserved Energy'!R20,(IF(E31&lt;&gt;"",0.05,"")))</f>
+        <v/>
+      </c>
+      <c r="T31" s="217" t="str">
+        <f>IF('Inputs for Conserved Energy'!S20&lt;&gt;"",'Inputs for Conserved Energy'!S20,(IF(E31&lt;&gt;"",10,"")))</f>
+        <v/>
+      </c>
+      <c r="U31" s="135" t="str">
+        <f>IF('Inputs for Conserved Energy'!T20&lt;&gt;"",'Inputs for Conserved Energy'!T20,(IF(E31&lt;&gt;"",0.035,"")))</f>
+        <v/>
+      </c>
+      <c r="V31" s="216" t="str">
+        <f>IF('Inputs for Conserved Energy'!U20&lt;&gt;"",'Inputs for Conserved Energy'!U20,(IF(E31&lt;&gt;"",0.035,"")))</f>
+        <v/>
+      </c>
+      <c r="W31" s="177" t="str">
+        <f t="shared" ref="W31" si="13">IF(E31&lt;&gt;"",7.5%,"")</f>
+        <v/>
+      </c>
       <c r="X31" s="202">
         <f>IF(G31='Emission Factors'!$B$3,AB31,IF(G31='Emission Factors'!$B$4,'Emission Factors'!$C$4,IF(G31='Emission Factors'!$B$5,'Emission Factors'!$C$5,IF(G31='Emission Factors'!$B$6,'Emission Factors'!$C$6,IF(G31='Emission Factors'!$B$7,'Emission Factors'!$C$7,IF(G31='Emission Factors'!$B$8,'Emission Factors'!$C$8,IF(G31='Emission Factors'!$B$9,'Emission Factors'!$C$9,IF(G31='Emission Factors'!$B$10,'Emission Factors'!$C$10,IF(G31='Emission Factors'!$B$11,'Emission Factors'!$C$11,IF(G31='Emission Factors'!$B$12,'Emission Factors'!$C$12,IF(G31='Emission Factors'!$B$13,'Emission Factors'!$C$13,IF(G31='Emission Factors'!$B$14,'Emission Factors'!$C$14,0))))))))))))</f>
         <v>0</v>
@@ -12577,41 +12619,41 @@
         <f>IF(I31='Emission Factors'!$B$3,AB31,IF(I31='Emission Factors'!$B$4,'Emission Factors'!$C$4,IF(I31='Emission Factors'!$B$5,'Emission Factors'!$C$5,IF(I31='Emission Factors'!$B$6,'Emission Factors'!$C$6,IF(I31='Emission Factors'!$B$7,'Emission Factors'!$C$7,IF(I31='Emission Factors'!$B$8,'Emission Factors'!$C$8,IF(I31='Emission Factors'!$B$9,'Emission Factors'!$C$9,IF(I31='Emission Factors'!$B$10,'Emission Factors'!$C$10,IF(I31='Emission Factors'!$B$11,'Emission Factors'!$C$11,IF(I31='Emission Factors'!$B$12,'Emission Factors'!$C$12,IF(I31='Emission Factors'!$B$13,'Emission Factors'!$C$13,IF(I31='Emission Factors'!$B$14,'Emission Factors'!$C$14,0))))))))))))</f>
         <v>0</v>
       </c>
-      <c r="AD31" s="287" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="AE31" s="285" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AF31" s="286">
+      <c r="AD31" s="223" t="str">
+        <f>IF(Q31&lt;&gt;"",AN31/AH31,"")</f>
+        <v/>
+      </c>
+      <c r="AE31" s="221" t="str">
+        <f>IF(OR(K31&lt;&gt;"",J31&lt;&gt;""),((IF(K31&lt;&gt;"",(K31*X31),0))+(IF(J31&lt;&gt;"",(J31*AB31),0))+(IF(L31&lt;&gt;"",(L31*Y31),0))-(IF(AND(G31&lt;&gt;"",I31&lt;&gt;""),(AC31*M31),0))),"")</f>
+        <v/>
+      </c>
+      <c r="AF31" s="222">
         <f>IF(AND($I$16&lt;&gt;"",$I$16=0,AE31&lt;&gt;""),(AE31*$I$16),0)</f>
         <v>0</v>
       </c>
-      <c r="AG31" s="117">
-        <f t="shared" si="4"/>
-        <v>1</v>
+      <c r="AG31" s="117" t="e">
+        <f>(1+S31)^(-T31)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AH31" s="117" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <f>(1-(1+S31)^(-T31))/S31</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AI31" s="117" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <f>(1-((1+U31)/(1+S31))^T31)/(S31-U31)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AJ31" s="117" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <f>(1-((1+V31)/(1+S31))^T31)/(S31-V31)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AK31" s="117" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AL31" s="117">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f>(1-((1+W31)/(1+S31))^T31)/(S31-W31)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AL31" s="117" t="e">
+        <f>IF($G$14&lt;0,(1-((1+$G$14)/(1))^T31)/(0-$G$14),(T31^2))</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AM31" s="117">
         <f>(IF(I31&lt;&gt;"",(IF(I31='Emission Factors'!$B$3,AI31,AJ31)),0))</f>
@@ -12621,7 +12663,7 @@
         <f>IF(Q31&lt;&gt;"",(Q31+(IF(R31&lt;&gt;"",R31*AH31,0))+(IF(N31&lt;&gt;"",N31*AM31,0))-((IF(O31&lt;&gt;"",O31*AI31,0))+(IF(P31&lt;&gt;"",P31*AJ31,0))+(IF(AF31&lt;&gt;"",AF31*AK31,0)))),"")</f>
         <v/>
       </c>
-      <c r="AO31" s="299" t="str">
+      <c r="AO31" s="235" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
@@ -12629,7 +12671,7 @@
         <f>IF('Inputs for Conserved Energy'!AB20&lt;&gt;"",'Inputs for Conserved Energy'!AB20,(IF(OR(J31&lt;&gt;"",K31&lt;&gt;"",L31&lt;&gt;"",M31&lt;&gt;""),((J31*0.00341214)+K31+L31-IF(I31="Electricity",M31*0.00341214,M31)),"")))</f>
         <v/>
       </c>
-      <c r="AQ31" s="299" t="str">
+      <c r="AQ31" s="235" t="str">
         <f>IF('Inputs for Conserved Energy'!AC20&lt;&gt;"",'Inputs for Conserved Energy'!AC20,IF(AND(AP31&lt;&gt;"",AP31&gt;0),AD31/AP31,""))</f>
         <v/>
       </c>
@@ -12643,10 +12685,10 @@
       </c>
     </row>
     <row r="32" spans="2:45" x14ac:dyDescent="0.35">
-      <c r="B32" s="219"/>
+      <c r="B32" s="243"/>
       <c r="C32" s="49"/>
       <c r="D32" s="146" t="str">
-        <f t="shared" ref="D32:D44" si="13">IF(E32&lt;&gt;"",D31+1,"")</f>
+        <f t="shared" ref="D32:D44" si="14">IF(E32&lt;&gt;"",D31+1,"")</f>
         <v/>
       </c>
       <c r="E32" s="162" t="str">
@@ -12702,11 +12744,11 @@
         <f>IF('Inputs for Conserved Energy'!Q21&lt;&gt;"",'Inputs for Conserved Energy'!Q21,"")</f>
         <v/>
       </c>
-      <c r="S32" s="279" t="str">
+      <c r="S32" s="215" t="str">
         <f>IF('Inputs for Conserved Energy'!R21&lt;&gt;"",'Inputs for Conserved Energy'!R21,(IF(E32&lt;&gt;"",0.05,"")))</f>
         <v/>
       </c>
-      <c r="T32" s="281" t="str">
+      <c r="T32" s="217" t="str">
         <f>IF('Inputs for Conserved Energy'!S21&lt;&gt;"",'Inputs for Conserved Energy'!S21,(IF(E32&lt;&gt;"",10,"")))</f>
         <v/>
       </c>
@@ -12714,12 +12756,12 @@
         <f>IF('Inputs for Conserved Energy'!T21&lt;&gt;"",'Inputs for Conserved Energy'!T21,(IF(E32&lt;&gt;"",0.035,"")))</f>
         <v/>
       </c>
-      <c r="V32" s="280" t="str">
+      <c r="V32" s="216" t="str">
         <f>IF('Inputs for Conserved Energy'!U21&lt;&gt;"",'Inputs for Conserved Energy'!U21,(IF(E32&lt;&gt;"",0.035,"")))</f>
         <v/>
       </c>
       <c r="W32" s="177" t="str">
-        <f t="shared" ref="W32:W56" si="14">IF(E32&lt;&gt;"",7.5%,"")</f>
+        <f t="shared" ref="W32:W56" si="15">IF(E32&lt;&gt;"",7.5%,"")</f>
         <v/>
       </c>
       <c r="X32" s="202">
@@ -12746,15 +12788,15 @@
         <f>IF(I32='Emission Factors'!$B$3,AB32,IF(I32='Emission Factors'!$B$4,'Emission Factors'!$C$4,IF(I32='Emission Factors'!$B$5,'Emission Factors'!$C$5,IF(I32='Emission Factors'!$B$6,'Emission Factors'!$C$6,IF(I32='Emission Factors'!$B$7,'Emission Factors'!$C$7,IF(I32='Emission Factors'!$B$8,'Emission Factors'!$C$8,IF(I32='Emission Factors'!$B$9,'Emission Factors'!$C$9,IF(I32='Emission Factors'!$B$10,'Emission Factors'!$C$10,IF(I32='Emission Factors'!$B$11,'Emission Factors'!$C$11,IF(I32='Emission Factors'!$B$12,'Emission Factors'!$C$12,IF(I32='Emission Factors'!$B$13,'Emission Factors'!$C$13,IF(I32='Emission Factors'!$B$14,'Emission Factors'!$C$14,0))))))))))))</f>
         <v>0</v>
       </c>
-      <c r="AD32" s="287" t="str">
+      <c r="AD32" s="223" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AE32" s="285" t="str">
+      <c r="AE32" s="221" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AF32" s="286">
+      <c r="AF32" s="222">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -12787,10 +12829,10 @@
         <v>0</v>
       </c>
       <c r="AN32" s="117" t="str">
-        <f t="shared" ref="AN32:AN87" si="15">IF(Q32&lt;&gt;"",(Q32+(IF(R32&lt;&gt;"",R32*AH32,0))+(IF(N32&lt;&gt;"",N32*AM32,0))-((IF(O32&lt;&gt;"",O32*AI32,0))+(IF(P32&lt;&gt;"",P32*AJ32,0))+(IF(AF32&lt;&gt;"",AF32*AK32,0)))),"")</f>
-        <v/>
-      </c>
-      <c r="AO32" s="299" t="str">
+        <f t="shared" ref="AN32:AN87" si="16">IF(Q32&lt;&gt;"",(Q32+(IF(R32&lt;&gt;"",R32*AH32,0))+(IF(N32&lt;&gt;"",N32*AM32,0))-((IF(O32&lt;&gt;"",O32*AI32,0))+(IF(P32&lt;&gt;"",P32*AJ32,0))+(IF(AF32&lt;&gt;"",AF32*AK32,0)))),"")</f>
+        <v/>
+      </c>
+      <c r="AO32" s="235" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
@@ -12798,7 +12840,7 @@
         <f>IF('Inputs for Conserved Energy'!AB21&lt;&gt;"",'Inputs for Conserved Energy'!AB21,(IF(OR(J32&lt;&gt;"",K32&lt;&gt;"",L32&lt;&gt;"",M32&lt;&gt;""),((J32*0.00341214)+K32+L32-IF(I32="Electricity",M32*0.00341214,M32)),"")))</f>
         <v/>
       </c>
-      <c r="AQ32" s="299" t="str">
+      <c r="AQ32" s="235" t="str">
         <f>IF('Inputs for Conserved Energy'!AC21&lt;&gt;"",'Inputs for Conserved Energy'!AC21,IF(AND(AP32&lt;&gt;"",AP32&gt;0),AD32/AP32,""))</f>
         <v/>
       </c>
@@ -12812,10 +12854,10 @@
       </c>
     </row>
     <row r="33" spans="2:45" x14ac:dyDescent="0.35">
-      <c r="B33" s="219"/>
+      <c r="B33" s="243"/>
       <c r="C33" s="49"/>
       <c r="D33" s="146" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="E33" s="162" t="str">
@@ -12871,11 +12913,11 @@
         <f>IF('Inputs for Conserved Energy'!Q22&lt;&gt;"",'Inputs for Conserved Energy'!Q22,"")</f>
         <v/>
       </c>
-      <c r="S33" s="279" t="str">
+      <c r="S33" s="215" t="str">
         <f>IF('Inputs for Conserved Energy'!R22&lt;&gt;"",'Inputs for Conserved Energy'!R22,(IF(E33&lt;&gt;"",0.05,"")))</f>
         <v/>
       </c>
-      <c r="T33" s="281" t="str">
+      <c r="T33" s="217" t="str">
         <f>IF('Inputs for Conserved Energy'!S22&lt;&gt;"",'Inputs for Conserved Energy'!S22,(IF(E33&lt;&gt;"",10,"")))</f>
         <v/>
       </c>
@@ -12883,12 +12925,12 @@
         <f>IF('Inputs for Conserved Energy'!T22&lt;&gt;"",'Inputs for Conserved Energy'!T22,(IF(E33&lt;&gt;"",0.035,"")))</f>
         <v/>
       </c>
-      <c r="V33" s="280" t="str">
+      <c r="V33" s="216" t="str">
         <f>IF('Inputs for Conserved Energy'!U22&lt;&gt;"",'Inputs for Conserved Energy'!U22,(IF(E33&lt;&gt;"",0.035,"")))</f>
         <v/>
       </c>
       <c r="W33" s="177" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="X33" s="202">
@@ -12915,15 +12957,15 @@
         <f>IF(I33='Emission Factors'!$B$3,AB33,IF(I33='Emission Factors'!$B$4,'Emission Factors'!$C$4,IF(I33='Emission Factors'!$B$5,'Emission Factors'!$C$5,IF(I33='Emission Factors'!$B$6,'Emission Factors'!$C$6,IF(I33='Emission Factors'!$B$7,'Emission Factors'!$C$7,IF(I33='Emission Factors'!$B$8,'Emission Factors'!$C$8,IF(I33='Emission Factors'!$B$9,'Emission Factors'!$C$9,IF(I33='Emission Factors'!$B$10,'Emission Factors'!$C$10,IF(I33='Emission Factors'!$B$11,'Emission Factors'!$C$11,IF(I33='Emission Factors'!$B$12,'Emission Factors'!$C$12,IF(I33='Emission Factors'!$B$13,'Emission Factors'!$C$13,IF(I33='Emission Factors'!$B$14,'Emission Factors'!$C$14,0))))))))))))</f>
         <v>0</v>
       </c>
-      <c r="AD33" s="287" t="str">
+      <c r="AD33" s="223" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AE33" s="285" t="str">
+      <c r="AE33" s="221" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AF33" s="286">
+      <c r="AF33" s="222">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -12956,10 +12998,10 @@
         <v>0</v>
       </c>
       <c r="AN33" s="117" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="AO33" s="299" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="AO33" s="235" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
@@ -12967,7 +13009,7 @@
         <f>IF('Inputs for Conserved Energy'!AB22&lt;&gt;"",'Inputs for Conserved Energy'!AB22,(IF(OR(J33&lt;&gt;"",K33&lt;&gt;"",L33&lt;&gt;"",M33&lt;&gt;""),((J33*0.00341214)+K33+L33-IF(I33="Electricity",M33*0.00341214,M33)),"")))</f>
         <v/>
       </c>
-      <c r="AQ33" s="299" t="str">
+      <c r="AQ33" s="235" t="str">
         <f>IF('Inputs for Conserved Energy'!AC22&lt;&gt;"",'Inputs for Conserved Energy'!AC22,IF(AND(AP33&lt;&gt;"",AP33&gt;0),AD33/AP33,""))</f>
         <v/>
       </c>
@@ -12981,10 +13023,10 @@
       </c>
     </row>
     <row r="34" spans="2:45" x14ac:dyDescent="0.35">
-      <c r="B34" s="219"/>
+      <c r="B34" s="243"/>
       <c r="C34" s="49"/>
       <c r="D34" s="146" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="E34" s="162" t="str">
@@ -13040,11 +13082,11 @@
         <f>IF('Inputs for Conserved Energy'!Q23&lt;&gt;"",'Inputs for Conserved Energy'!Q23,"")</f>
         <v/>
       </c>
-      <c r="S34" s="279" t="str">
+      <c r="S34" s="215" t="str">
         <f>IF('Inputs for Conserved Energy'!R23&lt;&gt;"",'Inputs for Conserved Energy'!R23,(IF(E34&lt;&gt;"",0.05,"")))</f>
         <v/>
       </c>
-      <c r="T34" s="281" t="str">
+      <c r="T34" s="217" t="str">
         <f>IF('Inputs for Conserved Energy'!S23&lt;&gt;"",'Inputs for Conserved Energy'!S23,(IF(E34&lt;&gt;"",10,"")))</f>
         <v/>
       </c>
@@ -13052,12 +13094,12 @@
         <f>IF('Inputs for Conserved Energy'!T23&lt;&gt;"",'Inputs for Conserved Energy'!T23,(IF(E34&lt;&gt;"",0.035,"")))</f>
         <v/>
       </c>
-      <c r="V34" s="280" t="str">
+      <c r="V34" s="216" t="str">
         <f>IF('Inputs for Conserved Energy'!U23&lt;&gt;"",'Inputs for Conserved Energy'!U23,(IF(E34&lt;&gt;"",0.035,"")))</f>
         <v/>
       </c>
       <c r="W34" s="177" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="X34" s="202">
@@ -13084,15 +13126,15 @@
         <f>IF(I34='Emission Factors'!$B$3,AB34,IF(I34='Emission Factors'!$B$4,'Emission Factors'!$C$4,IF(I34='Emission Factors'!$B$5,'Emission Factors'!$C$5,IF(I34='Emission Factors'!$B$6,'Emission Factors'!$C$6,IF(I34='Emission Factors'!$B$7,'Emission Factors'!$C$7,IF(I34='Emission Factors'!$B$8,'Emission Factors'!$C$8,IF(I34='Emission Factors'!$B$9,'Emission Factors'!$C$9,IF(I34='Emission Factors'!$B$10,'Emission Factors'!$C$10,IF(I34='Emission Factors'!$B$11,'Emission Factors'!$C$11,IF(I34='Emission Factors'!$B$12,'Emission Factors'!$C$12,IF(I34='Emission Factors'!$B$13,'Emission Factors'!$C$13,IF(I34='Emission Factors'!$B$14,'Emission Factors'!$C$14,0))))))))))))</f>
         <v>0</v>
       </c>
-      <c r="AD34" s="287" t="str">
+      <c r="AD34" s="223" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AE34" s="285" t="str">
+      <c r="AE34" s="221" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AF34" s="286">
+      <c r="AF34" s="222">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -13125,10 +13167,10 @@
         <v>0</v>
       </c>
       <c r="AN34" s="117" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="AO34" s="299" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="AO34" s="235" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
@@ -13136,7 +13178,7 @@
         <f>IF('Inputs for Conserved Energy'!AB23&lt;&gt;"",'Inputs for Conserved Energy'!AB23,(IF(OR(J34&lt;&gt;"",K34&lt;&gt;"",L34&lt;&gt;"",M34&lt;&gt;""),((J34*0.00341214)+K34+L34-IF(I34="Electricity",M34*0.00341214,M34)),"")))</f>
         <v/>
       </c>
-      <c r="AQ34" s="299" t="str">
+      <c r="AQ34" s="235" t="str">
         <f>IF('Inputs for Conserved Energy'!AC23&lt;&gt;"",'Inputs for Conserved Energy'!AC23,IF(AND(AP34&lt;&gt;"",AP34&gt;0),AD34/AP34,""))</f>
         <v/>
       </c>
@@ -13150,10 +13192,10 @@
       </c>
     </row>
     <row r="35" spans="2:45" x14ac:dyDescent="0.35">
-      <c r="B35" s="219"/>
+      <c r="B35" s="243"/>
       <c r="C35" s="49"/>
       <c r="D35" s="146" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="E35" s="162" t="str">
@@ -13209,11 +13251,11 @@
         <f>IF('Inputs for Conserved Energy'!Q24&lt;&gt;"",'Inputs for Conserved Energy'!Q24,"")</f>
         <v/>
       </c>
-      <c r="S35" s="279" t="str">
+      <c r="S35" s="215" t="str">
         <f>IF('Inputs for Conserved Energy'!R24&lt;&gt;"",'Inputs for Conserved Energy'!R24,(IF(E35&lt;&gt;"",0.05,"")))</f>
         <v/>
       </c>
-      <c r="T35" s="281" t="str">
+      <c r="T35" s="217" t="str">
         <f>IF('Inputs for Conserved Energy'!S24&lt;&gt;"",'Inputs for Conserved Energy'!S24,(IF(E35&lt;&gt;"",10,"")))</f>
         <v/>
       </c>
@@ -13221,12 +13263,12 @@
         <f>IF('Inputs for Conserved Energy'!T24&lt;&gt;"",'Inputs for Conserved Energy'!T24,(IF(E35&lt;&gt;"",0.035,"")))</f>
         <v/>
       </c>
-      <c r="V35" s="280" t="str">
+      <c r="V35" s="216" t="str">
         <f>IF('Inputs for Conserved Energy'!U24&lt;&gt;"",'Inputs for Conserved Energy'!U24,(IF(E35&lt;&gt;"",0.035,"")))</f>
         <v/>
       </c>
       <c r="W35" s="177" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="X35" s="202">
@@ -13253,15 +13295,15 @@
         <f>IF(I35='Emission Factors'!$B$3,AB35,IF(I35='Emission Factors'!$B$4,'Emission Factors'!$C$4,IF(I35='Emission Factors'!$B$5,'Emission Factors'!$C$5,IF(I35='Emission Factors'!$B$6,'Emission Factors'!$C$6,IF(I35='Emission Factors'!$B$7,'Emission Factors'!$C$7,IF(I35='Emission Factors'!$B$8,'Emission Factors'!$C$8,IF(I35='Emission Factors'!$B$9,'Emission Factors'!$C$9,IF(I35='Emission Factors'!$B$10,'Emission Factors'!$C$10,IF(I35='Emission Factors'!$B$11,'Emission Factors'!$C$11,IF(I35='Emission Factors'!$B$12,'Emission Factors'!$C$12,IF(I35='Emission Factors'!$B$13,'Emission Factors'!$C$13,IF(I35='Emission Factors'!$B$14,'Emission Factors'!$C$14,0))))))))))))</f>
         <v>0</v>
       </c>
-      <c r="AD35" s="287" t="str">
+      <c r="AD35" s="223" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AE35" s="285" t="str">
+      <c r="AE35" s="221" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AF35" s="286">
+      <c r="AF35" s="222">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -13294,10 +13336,10 @@
         <v>0</v>
       </c>
       <c r="AN35" s="117" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="AO35" s="299" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="AO35" s="235" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
@@ -13305,7 +13347,7 @@
         <f>IF('Inputs for Conserved Energy'!AB24&lt;&gt;"",'Inputs for Conserved Energy'!AB24,(IF(OR(J35&lt;&gt;"",K35&lt;&gt;"",L35&lt;&gt;"",M35&lt;&gt;""),((J35*0.00341214)+K35+L35-IF(I35="Electricity",M35*0.00341214,M35)),"")))</f>
         <v/>
       </c>
-      <c r="AQ35" s="299" t="str">
+      <c r="AQ35" s="235" t="str">
         <f>IF('Inputs for Conserved Energy'!AC24&lt;&gt;"",'Inputs for Conserved Energy'!AC24,IF(AND(AP35&lt;&gt;"",AP35&gt;0),AD35/AP35,""))</f>
         <v/>
       </c>
@@ -13319,10 +13361,10 @@
       </c>
     </row>
     <row r="36" spans="2:45" x14ac:dyDescent="0.35">
-      <c r="B36" s="219"/>
+      <c r="B36" s="243"/>
       <c r="C36" s="49"/>
       <c r="D36" s="146" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="E36" s="162" t="str">
@@ -13378,11 +13420,11 @@
         <f>IF('Inputs for Conserved Energy'!Q25&lt;&gt;"",'Inputs for Conserved Energy'!Q25,"")</f>
         <v/>
       </c>
-      <c r="S36" s="279" t="str">
+      <c r="S36" s="215" t="str">
         <f>IF('Inputs for Conserved Energy'!R25&lt;&gt;"",'Inputs for Conserved Energy'!R25,(IF(E36&lt;&gt;"",0.05,"")))</f>
         <v/>
       </c>
-      <c r="T36" s="281" t="str">
+      <c r="T36" s="217" t="str">
         <f>IF('Inputs for Conserved Energy'!S25&lt;&gt;"",'Inputs for Conserved Energy'!S25,(IF(E36&lt;&gt;"",10,"")))</f>
         <v/>
       </c>
@@ -13390,12 +13432,12 @@
         <f>IF('Inputs for Conserved Energy'!T25&lt;&gt;"",'Inputs for Conserved Energy'!T25,(IF(E36&lt;&gt;"",0.035,"")))</f>
         <v/>
       </c>
-      <c r="V36" s="280" t="str">
+      <c r="V36" s="216" t="str">
         <f>IF('Inputs for Conserved Energy'!U25&lt;&gt;"",'Inputs for Conserved Energy'!U25,(IF(E36&lt;&gt;"",0.035,"")))</f>
         <v/>
       </c>
       <c r="W36" s="177" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="X36" s="202">
@@ -13422,15 +13464,15 @@
         <f>IF(I36='Emission Factors'!$B$3,AB36,IF(I36='Emission Factors'!$B$4,'Emission Factors'!$C$4,IF(I36='Emission Factors'!$B$5,'Emission Factors'!$C$5,IF(I36='Emission Factors'!$B$6,'Emission Factors'!$C$6,IF(I36='Emission Factors'!$B$7,'Emission Factors'!$C$7,IF(I36='Emission Factors'!$B$8,'Emission Factors'!$C$8,IF(I36='Emission Factors'!$B$9,'Emission Factors'!$C$9,IF(I36='Emission Factors'!$B$10,'Emission Factors'!$C$10,IF(I36='Emission Factors'!$B$11,'Emission Factors'!$C$11,IF(I36='Emission Factors'!$B$12,'Emission Factors'!$C$12,IF(I36='Emission Factors'!$B$13,'Emission Factors'!$C$13,IF(I36='Emission Factors'!$B$14,'Emission Factors'!$C$14,0))))))))))))</f>
         <v>0</v>
       </c>
-      <c r="AD36" s="287" t="str">
+      <c r="AD36" s="223" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AE36" s="285" t="str">
+      <c r="AE36" s="221" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AF36" s="286">
+      <c r="AF36" s="222">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -13463,10 +13505,10 @@
         <v>0</v>
       </c>
       <c r="AN36" s="117" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="AO36" s="299" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="AO36" s="235" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
@@ -13474,7 +13516,7 @@
         <f>IF('Inputs for Conserved Energy'!AB25&lt;&gt;"",'Inputs for Conserved Energy'!AB25,(IF(OR(J36&lt;&gt;"",K36&lt;&gt;"",L36&lt;&gt;"",M36&lt;&gt;""),((J36*0.00341214)+K36+L36-IF(I36="Electricity",M36*0.00341214,M36)),"")))</f>
         <v/>
       </c>
-      <c r="AQ36" s="299" t="str">
+      <c r="AQ36" s="235" t="str">
         <f>IF('Inputs for Conserved Energy'!AC25&lt;&gt;"",'Inputs for Conserved Energy'!AC25,IF(AND(AP36&lt;&gt;"",AP36&gt;0),AD36/AP36,""))</f>
         <v/>
       </c>
@@ -13488,10 +13530,10 @@
       </c>
     </row>
     <row r="37" spans="2:45" x14ac:dyDescent="0.35">
-      <c r="B37" s="219"/>
+      <c r="B37" s="243"/>
       <c r="C37" s="49"/>
       <c r="D37" s="146" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="E37" s="162" t="str">
@@ -13547,11 +13589,11 @@
         <f>IF('Inputs for Conserved Energy'!Q26&lt;&gt;"",'Inputs for Conserved Energy'!Q26,"")</f>
         <v/>
       </c>
-      <c r="S37" s="279" t="str">
+      <c r="S37" s="215" t="str">
         <f>IF('Inputs for Conserved Energy'!R26&lt;&gt;"",'Inputs for Conserved Energy'!R26,(IF(E37&lt;&gt;"",0.05,"")))</f>
         <v/>
       </c>
-      <c r="T37" s="281" t="str">
+      <c r="T37" s="217" t="str">
         <f>IF('Inputs for Conserved Energy'!S26&lt;&gt;"",'Inputs for Conserved Energy'!S26,(IF(E37&lt;&gt;"",10,"")))</f>
         <v/>
       </c>
@@ -13559,12 +13601,12 @@
         <f>IF('Inputs for Conserved Energy'!T26&lt;&gt;"",'Inputs for Conserved Energy'!T26,(IF(E37&lt;&gt;"",0.035,"")))</f>
         <v/>
       </c>
-      <c r="V37" s="280" t="str">
+      <c r="V37" s="216" t="str">
         <f>IF('Inputs for Conserved Energy'!U26&lt;&gt;"",'Inputs for Conserved Energy'!U26,(IF(E37&lt;&gt;"",0.035,"")))</f>
         <v/>
       </c>
       <c r="W37" s="177" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="X37" s="202">
@@ -13591,15 +13633,15 @@
         <f>IF(I37='Emission Factors'!$B$3,AB37,IF(I37='Emission Factors'!$B$4,'Emission Factors'!$C$4,IF(I37='Emission Factors'!$B$5,'Emission Factors'!$C$5,IF(I37='Emission Factors'!$B$6,'Emission Factors'!$C$6,IF(I37='Emission Factors'!$B$7,'Emission Factors'!$C$7,IF(I37='Emission Factors'!$B$8,'Emission Factors'!$C$8,IF(I37='Emission Factors'!$B$9,'Emission Factors'!$C$9,IF(I37='Emission Factors'!$B$10,'Emission Factors'!$C$10,IF(I37='Emission Factors'!$B$11,'Emission Factors'!$C$11,IF(I37='Emission Factors'!$B$12,'Emission Factors'!$C$12,IF(I37='Emission Factors'!$B$13,'Emission Factors'!$C$13,IF(I37='Emission Factors'!$B$14,'Emission Factors'!$C$14,0))))))))))))</f>
         <v>0</v>
       </c>
-      <c r="AD37" s="287" t="str">
+      <c r="AD37" s="223" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AE37" s="285" t="str">
+      <c r="AE37" s="221" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AF37" s="286">
+      <c r="AF37" s="222">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -13632,10 +13674,10 @@
         <v>0</v>
       </c>
       <c r="AN37" s="117" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="AO37" s="299" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="AO37" s="235" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
@@ -13643,7 +13685,7 @@
         <f>IF('Inputs for Conserved Energy'!AB26&lt;&gt;"",'Inputs for Conserved Energy'!AB26,(IF(OR(J37&lt;&gt;"",K37&lt;&gt;"",L37&lt;&gt;"",M37&lt;&gt;""),((J37*0.00341214)+K37+L37-IF(I37="Electricity",M37*0.00341214,M37)),"")))</f>
         <v/>
       </c>
-      <c r="AQ37" s="299" t="str">
+      <c r="AQ37" s="235" t="str">
         <f>IF('Inputs for Conserved Energy'!AC26&lt;&gt;"",'Inputs for Conserved Energy'!AC26,IF(AND(AP37&lt;&gt;"",AP37&gt;0),AD37/AP37,""))</f>
         <v/>
       </c>
@@ -13657,10 +13699,10 @@
       </c>
     </row>
     <row r="38" spans="2:45" x14ac:dyDescent="0.35">
-      <c r="B38" s="219"/>
+      <c r="B38" s="243"/>
       <c r="C38" s="49"/>
       <c r="D38" s="146" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="E38" s="162" t="str">
@@ -13716,11 +13758,11 @@
         <f>IF('Inputs for Conserved Energy'!Q27&lt;&gt;"",'Inputs for Conserved Energy'!Q27,"")</f>
         <v/>
       </c>
-      <c r="S38" s="279" t="str">
+      <c r="S38" s="215" t="str">
         <f>IF('Inputs for Conserved Energy'!R27&lt;&gt;"",'Inputs for Conserved Energy'!R27,(IF(E38&lt;&gt;"",0.05,"")))</f>
         <v/>
       </c>
-      <c r="T38" s="281" t="str">
+      <c r="T38" s="217" t="str">
         <f>IF('Inputs for Conserved Energy'!S27&lt;&gt;"",'Inputs for Conserved Energy'!S27,(IF(E38&lt;&gt;"",10,"")))</f>
         <v/>
       </c>
@@ -13728,12 +13770,12 @@
         <f>IF('Inputs for Conserved Energy'!T27&lt;&gt;"",'Inputs for Conserved Energy'!T27,(IF(E38&lt;&gt;"",0.035,"")))</f>
         <v/>
       </c>
-      <c r="V38" s="280" t="str">
+      <c r="V38" s="216" t="str">
         <f>IF('Inputs for Conserved Energy'!U27&lt;&gt;"",'Inputs for Conserved Energy'!U27,(IF(E38&lt;&gt;"",0.035,"")))</f>
         <v/>
       </c>
       <c r="W38" s="177" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="X38" s="202">
@@ -13760,15 +13802,15 @@
         <f>IF(I38='Emission Factors'!$B$3,AB38,IF(I38='Emission Factors'!$B$4,'Emission Factors'!$C$4,IF(I38='Emission Factors'!$B$5,'Emission Factors'!$C$5,IF(I38='Emission Factors'!$B$6,'Emission Factors'!$C$6,IF(I38='Emission Factors'!$B$7,'Emission Factors'!$C$7,IF(I38='Emission Factors'!$B$8,'Emission Factors'!$C$8,IF(I38='Emission Factors'!$B$9,'Emission Factors'!$C$9,IF(I38='Emission Factors'!$B$10,'Emission Factors'!$C$10,IF(I38='Emission Factors'!$B$11,'Emission Factors'!$C$11,IF(I38='Emission Factors'!$B$12,'Emission Factors'!$C$12,IF(I38='Emission Factors'!$B$13,'Emission Factors'!$C$13,IF(I38='Emission Factors'!$B$14,'Emission Factors'!$C$14,0))))))))))))</f>
         <v>0</v>
       </c>
-      <c r="AD38" s="287" t="str">
+      <c r="AD38" s="223" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AE38" s="285" t="str">
+      <c r="AE38" s="221" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AF38" s="286">
+      <c r="AF38" s="222">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -13801,10 +13843,10 @@
         <v>0</v>
       </c>
       <c r="AN38" s="117" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="AO38" s="299" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="AO38" s="235" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
@@ -13812,7 +13854,7 @@
         <f>IF('Inputs for Conserved Energy'!AB27&lt;&gt;"",'Inputs for Conserved Energy'!AB27,(IF(OR(J38&lt;&gt;"",K38&lt;&gt;"",L38&lt;&gt;"",M38&lt;&gt;""),((J38*0.00341214)+K38+L38-IF(I38="Electricity",M38*0.00341214,M38)),"")))</f>
         <v/>
       </c>
-      <c r="AQ38" s="299" t="str">
+      <c r="AQ38" s="235" t="str">
         <f>IF('Inputs for Conserved Energy'!AC27&lt;&gt;"",'Inputs for Conserved Energy'!AC27,IF(AND(AP38&lt;&gt;"",AP38&gt;0),AD38/AP38,""))</f>
         <v/>
       </c>
@@ -13826,10 +13868,10 @@
       </c>
     </row>
     <row r="39" spans="2:45" x14ac:dyDescent="0.35">
-      <c r="B39" s="219"/>
+      <c r="B39" s="243"/>
       <c r="C39" s="49"/>
       <c r="D39" s="146" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="E39" s="162" t="str">
@@ -13885,11 +13927,11 @@
         <f>IF('Inputs for Conserved Energy'!Q28&lt;&gt;"",'Inputs for Conserved Energy'!Q28,"")</f>
         <v/>
       </c>
-      <c r="S39" s="279" t="str">
+      <c r="S39" s="215" t="str">
         <f>IF('Inputs for Conserved Energy'!R28&lt;&gt;"",'Inputs for Conserved Energy'!R28,(IF(E39&lt;&gt;"",0.05,"")))</f>
         <v/>
       </c>
-      <c r="T39" s="281" t="str">
+      <c r="T39" s="217" t="str">
         <f>IF('Inputs for Conserved Energy'!S28&lt;&gt;"",'Inputs for Conserved Energy'!S28,(IF(E39&lt;&gt;"",10,"")))</f>
         <v/>
       </c>
@@ -13897,12 +13939,12 @@
         <f>IF('Inputs for Conserved Energy'!T28&lt;&gt;"",'Inputs for Conserved Energy'!T28,(IF(E39&lt;&gt;"",0.035,"")))</f>
         <v/>
       </c>
-      <c r="V39" s="280" t="str">
+      <c r="V39" s="216" t="str">
         <f>IF('Inputs for Conserved Energy'!U28&lt;&gt;"",'Inputs for Conserved Energy'!U28,(IF(E39&lt;&gt;"",0.035,"")))</f>
         <v/>
       </c>
       <c r="W39" s="177" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="X39" s="202">
@@ -13929,15 +13971,15 @@
         <f>IF(I39='Emission Factors'!$B$3,AB39,IF(I39='Emission Factors'!$B$4,'Emission Factors'!$C$4,IF(I39='Emission Factors'!$B$5,'Emission Factors'!$C$5,IF(I39='Emission Factors'!$B$6,'Emission Factors'!$C$6,IF(I39='Emission Factors'!$B$7,'Emission Factors'!$C$7,IF(I39='Emission Factors'!$B$8,'Emission Factors'!$C$8,IF(I39='Emission Factors'!$B$9,'Emission Factors'!$C$9,IF(I39='Emission Factors'!$B$10,'Emission Factors'!$C$10,IF(I39='Emission Factors'!$B$11,'Emission Factors'!$C$11,IF(I39='Emission Factors'!$B$12,'Emission Factors'!$C$12,IF(I39='Emission Factors'!$B$13,'Emission Factors'!$C$13,IF(I39='Emission Factors'!$B$14,'Emission Factors'!$C$14,0))))))))))))</f>
         <v>0</v>
       </c>
-      <c r="AD39" s="287" t="str">
+      <c r="AD39" s="223" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AE39" s="285" t="str">
+      <c r="AE39" s="221" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AF39" s="286">
+      <c r="AF39" s="222">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -13970,10 +14012,10 @@
         <v>0</v>
       </c>
       <c r="AN39" s="117" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="AO39" s="299" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="AO39" s="235" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
@@ -13981,7 +14023,7 @@
         <f>IF('Inputs for Conserved Energy'!AB28&lt;&gt;"",'Inputs for Conserved Energy'!AB28,(IF(OR(J39&lt;&gt;"",K39&lt;&gt;"",L39&lt;&gt;"",M39&lt;&gt;""),((J39*0.00341214)+K39+L39-IF(I39="Electricity",M39*0.00341214,M39)),"")))</f>
         <v/>
       </c>
-      <c r="AQ39" s="299" t="str">
+      <c r="AQ39" s="235" t="str">
         <f>IF('Inputs for Conserved Energy'!AC28&lt;&gt;"",'Inputs for Conserved Energy'!AC28,IF(AND(AP39&lt;&gt;"",AP39&gt;0),AD39/AP39,""))</f>
         <v/>
       </c>
@@ -13995,10 +14037,10 @@
       </c>
     </row>
     <row r="40" spans="2:45" x14ac:dyDescent="0.35">
-      <c r="B40" s="219"/>
+      <c r="B40" s="243"/>
       <c r="C40" s="49"/>
       <c r="D40" s="146" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="E40" s="162" t="str">
@@ -14054,11 +14096,11 @@
         <f>IF('Inputs for Conserved Energy'!Q29&lt;&gt;"",'Inputs for Conserved Energy'!Q29,"")</f>
         <v/>
       </c>
-      <c r="S40" s="279" t="str">
+      <c r="S40" s="215" t="str">
         <f>IF('Inputs for Conserved Energy'!R29&lt;&gt;"",'Inputs for Conserved Energy'!R29,(IF(E40&lt;&gt;"",0.05,"")))</f>
         <v/>
       </c>
-      <c r="T40" s="281" t="str">
+      <c r="T40" s="217" t="str">
         <f>IF('Inputs for Conserved Energy'!S29&lt;&gt;"",'Inputs for Conserved Energy'!S29,(IF(E40&lt;&gt;"",10,"")))</f>
         <v/>
       </c>
@@ -14066,12 +14108,12 @@
         <f>IF('Inputs for Conserved Energy'!T29&lt;&gt;"",'Inputs for Conserved Energy'!T29,(IF(E40&lt;&gt;"",0.035,"")))</f>
         <v/>
       </c>
-      <c r="V40" s="280" t="str">
+      <c r="V40" s="216" t="str">
         <f>IF('Inputs for Conserved Energy'!U29&lt;&gt;"",'Inputs for Conserved Energy'!U29,(IF(E40&lt;&gt;"",0.035,"")))</f>
         <v/>
       </c>
       <c r="W40" s="177" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="X40" s="202">
@@ -14098,15 +14140,15 @@
         <f>IF(I40='Emission Factors'!$B$3,AB40,IF(I40='Emission Factors'!$B$4,'Emission Factors'!$C$4,IF(I40='Emission Factors'!$B$5,'Emission Factors'!$C$5,IF(I40='Emission Factors'!$B$6,'Emission Factors'!$C$6,IF(I40='Emission Factors'!$B$7,'Emission Factors'!$C$7,IF(I40='Emission Factors'!$B$8,'Emission Factors'!$C$8,IF(I40='Emission Factors'!$B$9,'Emission Factors'!$C$9,IF(I40='Emission Factors'!$B$10,'Emission Factors'!$C$10,IF(I40='Emission Factors'!$B$11,'Emission Factors'!$C$11,IF(I40='Emission Factors'!$B$12,'Emission Factors'!$C$12,IF(I40='Emission Factors'!$B$13,'Emission Factors'!$C$13,IF(I40='Emission Factors'!$B$14,'Emission Factors'!$C$14,0))))))))))))</f>
         <v>0</v>
       </c>
-      <c r="AD40" s="287" t="str">
+      <c r="AD40" s="223" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AE40" s="285" t="str">
+      <c r="AE40" s="221" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AF40" s="286">
+      <c r="AF40" s="222">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -14139,10 +14181,10 @@
         <v>0</v>
       </c>
       <c r="AN40" s="117" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="AO40" s="299" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="AO40" s="235" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
@@ -14150,7 +14192,7 @@
         <f>IF('Inputs for Conserved Energy'!AB29&lt;&gt;"",'Inputs for Conserved Energy'!AB29,(IF(OR(J40&lt;&gt;"",K40&lt;&gt;"",L40&lt;&gt;"",M40&lt;&gt;""),((J40*0.00341214)+K40+L40-IF(I40="Electricity",M40*0.00341214,M40)),"")))</f>
         <v/>
       </c>
-      <c r="AQ40" s="299" t="str">
+      <c r="AQ40" s="235" t="str">
         <f>IF('Inputs for Conserved Energy'!AC29&lt;&gt;"",'Inputs for Conserved Energy'!AC29,IF(AND(AP40&lt;&gt;"",AP40&gt;0),AD40/AP40,""))</f>
         <v/>
       </c>
@@ -14164,10 +14206,10 @@
       </c>
     </row>
     <row r="41" spans="2:45" x14ac:dyDescent="0.35">
-      <c r="B41" s="219"/>
+      <c r="B41" s="243"/>
       <c r="C41" s="49"/>
       <c r="D41" s="146" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="E41" s="162" t="str">
@@ -14223,11 +14265,11 @@
         <f>IF('Inputs for Conserved Energy'!Q30&lt;&gt;"",'Inputs for Conserved Energy'!Q30,"")</f>
         <v/>
       </c>
-      <c r="S41" s="279" t="str">
+      <c r="S41" s="215" t="str">
         <f>IF('Inputs for Conserved Energy'!R30&lt;&gt;"",'Inputs for Conserved Energy'!R30,(IF(E41&lt;&gt;"",0.05,"")))</f>
         <v/>
       </c>
-      <c r="T41" s="281" t="str">
+      <c r="T41" s="217" t="str">
         <f>IF('Inputs for Conserved Energy'!S30&lt;&gt;"",'Inputs for Conserved Energy'!S30,(IF(E41&lt;&gt;"",10,"")))</f>
         <v/>
       </c>
@@ -14235,12 +14277,12 @@
         <f>IF('Inputs for Conserved Energy'!T30&lt;&gt;"",'Inputs for Conserved Energy'!T30,(IF(E41&lt;&gt;"",0.035,"")))</f>
         <v/>
       </c>
-      <c r="V41" s="280" t="str">
+      <c r="V41" s="216" t="str">
         <f>IF('Inputs for Conserved Energy'!U30&lt;&gt;"",'Inputs for Conserved Energy'!U30,(IF(E41&lt;&gt;"",0.035,"")))</f>
         <v/>
       </c>
       <c r="W41" s="177" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="X41" s="202">
@@ -14267,15 +14309,15 @@
         <f>IF(I41='Emission Factors'!$B$3,AB41,IF(I41='Emission Factors'!$B$4,'Emission Factors'!$C$4,IF(I41='Emission Factors'!$B$5,'Emission Factors'!$C$5,IF(I41='Emission Factors'!$B$6,'Emission Factors'!$C$6,IF(I41='Emission Factors'!$B$7,'Emission Factors'!$C$7,IF(I41='Emission Factors'!$B$8,'Emission Factors'!$C$8,IF(I41='Emission Factors'!$B$9,'Emission Factors'!$C$9,IF(I41='Emission Factors'!$B$10,'Emission Factors'!$C$10,IF(I41='Emission Factors'!$B$11,'Emission Factors'!$C$11,IF(I41='Emission Factors'!$B$12,'Emission Factors'!$C$12,IF(I41='Emission Factors'!$B$13,'Emission Factors'!$C$13,IF(I41='Emission Factors'!$B$14,'Emission Factors'!$C$14,0))))))))))))</f>
         <v>0</v>
       </c>
-      <c r="AD41" s="287" t="str">
+      <c r="AD41" s="223" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AE41" s="285" t="str">
+      <c r="AE41" s="221" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AF41" s="286">
+      <c r="AF41" s="222">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -14308,10 +14350,10 @@
         <v>0</v>
       </c>
       <c r="AN41" s="117" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="AO41" s="299" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="AO41" s="235" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
@@ -14319,7 +14361,7 @@
         <f>IF('Inputs for Conserved Energy'!AB30&lt;&gt;"",'Inputs for Conserved Energy'!AB30,(IF(OR(J41&lt;&gt;"",K41&lt;&gt;"",L41&lt;&gt;"",M41&lt;&gt;""),((J41*0.00341214)+K41+L41-IF(I41="Electricity",M41*0.00341214,M41)),"")))</f>
         <v/>
       </c>
-      <c r="AQ41" s="299" t="str">
+      <c r="AQ41" s="235" t="str">
         <f>IF('Inputs for Conserved Energy'!AC30&lt;&gt;"",'Inputs for Conserved Energy'!AC30,IF(AND(AP41&lt;&gt;"",AP41&gt;0),AD41/AP41,""))</f>
         <v/>
       </c>
@@ -14333,10 +14375,10 @@
       </c>
     </row>
     <row r="42" spans="2:45" x14ac:dyDescent="0.35">
-      <c r="B42" s="219"/>
+      <c r="B42" s="243"/>
       <c r="C42" s="49"/>
       <c r="D42" s="146" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="E42" s="162" t="str">
@@ -14392,11 +14434,11 @@
         <f>IF('Inputs for Conserved Energy'!Q31&lt;&gt;"",'Inputs for Conserved Energy'!Q31,"")</f>
         <v/>
       </c>
-      <c r="S42" s="279" t="str">
+      <c r="S42" s="215" t="str">
         <f>IF('Inputs for Conserved Energy'!R31&lt;&gt;"",'Inputs for Conserved Energy'!R31,(IF(E42&lt;&gt;"",0.05,"")))</f>
         <v/>
       </c>
-      <c r="T42" s="281" t="str">
+      <c r="T42" s="217" t="str">
         <f>IF('Inputs for Conserved Energy'!S31&lt;&gt;"",'Inputs for Conserved Energy'!S31,(IF(E42&lt;&gt;"",10,"")))</f>
         <v/>
       </c>
@@ -14404,12 +14446,12 @@
         <f>IF('Inputs for Conserved Energy'!T31&lt;&gt;"",'Inputs for Conserved Energy'!T31,(IF(E42&lt;&gt;"",0.035,"")))</f>
         <v/>
       </c>
-      <c r="V42" s="280" t="str">
+      <c r="V42" s="216" t="str">
         <f>IF('Inputs for Conserved Energy'!U31&lt;&gt;"",'Inputs for Conserved Energy'!U31,(IF(E42&lt;&gt;"",0.035,"")))</f>
         <v/>
       </c>
       <c r="W42" s="177" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="X42" s="202">
@@ -14436,15 +14478,15 @@
         <f>IF(I42='Emission Factors'!$B$3,AB42,IF(I42='Emission Factors'!$B$4,'Emission Factors'!$C$4,IF(I42='Emission Factors'!$B$5,'Emission Factors'!$C$5,IF(I42='Emission Factors'!$B$6,'Emission Factors'!$C$6,IF(I42='Emission Factors'!$B$7,'Emission Factors'!$C$7,IF(I42='Emission Factors'!$B$8,'Emission Factors'!$C$8,IF(I42='Emission Factors'!$B$9,'Emission Factors'!$C$9,IF(I42='Emission Factors'!$B$10,'Emission Factors'!$C$10,IF(I42='Emission Factors'!$B$11,'Emission Factors'!$C$11,IF(I42='Emission Factors'!$B$12,'Emission Factors'!$C$12,IF(I42='Emission Factors'!$B$13,'Emission Factors'!$C$13,IF(I42='Emission Factors'!$B$14,'Emission Factors'!$C$14,0))))))))))))</f>
         <v>0</v>
       </c>
-      <c r="AD42" s="287" t="str">
+      <c r="AD42" s="223" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AE42" s="285" t="str">
+      <c r="AE42" s="221" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AF42" s="286">
+      <c r="AF42" s="222">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -14477,10 +14519,10 @@
         <v>0</v>
       </c>
       <c r="AN42" s="117" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="AO42" s="299" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="AO42" s="235" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
@@ -14488,7 +14530,7 @@
         <f>IF('Inputs for Conserved Energy'!AB31&lt;&gt;"",'Inputs for Conserved Energy'!AB31,(IF(OR(J42&lt;&gt;"",K42&lt;&gt;"",L42&lt;&gt;"",M42&lt;&gt;""),((J42*0.00341214)+K42+L42-IF(I42="Electricity",M42*0.00341214,M42)),"")))</f>
         <v/>
       </c>
-      <c r="AQ42" s="299" t="str">
+      <c r="AQ42" s="235" t="str">
         <f>IF('Inputs for Conserved Energy'!AC31&lt;&gt;"",'Inputs for Conserved Energy'!AC31,IF(AND(AP42&lt;&gt;"",AP42&gt;0),AD42/AP42,""))</f>
         <v/>
       </c>
@@ -14502,10 +14544,10 @@
       </c>
     </row>
     <row r="43" spans="2:45" x14ac:dyDescent="0.35">
-      <c r="B43" s="219"/>
+      <c r="B43" s="243"/>
       <c r="C43" s="49"/>
       <c r="D43" s="146" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="E43" s="162" t="str">
@@ -14561,11 +14603,11 @@
         <f>IF('Inputs for Conserved Energy'!Q32&lt;&gt;"",'Inputs for Conserved Energy'!Q32,"")</f>
         <v/>
       </c>
-      <c r="S43" s="279" t="str">
+      <c r="S43" s="215" t="str">
         <f>IF('Inputs for Conserved Energy'!R32&lt;&gt;"",'Inputs for Conserved Energy'!R32,(IF(E43&lt;&gt;"",0.05,"")))</f>
         <v/>
       </c>
-      <c r="T43" s="281" t="str">
+      <c r="T43" s="217" t="str">
         <f>IF('Inputs for Conserved Energy'!S32&lt;&gt;"",'Inputs for Conserved Energy'!S32,(IF(E43&lt;&gt;"",10,"")))</f>
         <v/>
       </c>
@@ -14573,12 +14615,12 @@
         <f>IF('Inputs for Conserved Energy'!T32&lt;&gt;"",'Inputs for Conserved Energy'!T32,(IF(E43&lt;&gt;"",0.035,"")))</f>
         <v/>
       </c>
-      <c r="V43" s="280" t="str">
+      <c r="V43" s="216" t="str">
         <f>IF('Inputs for Conserved Energy'!U32&lt;&gt;"",'Inputs for Conserved Energy'!U32,(IF(E43&lt;&gt;"",0.035,"")))</f>
         <v/>
       </c>
       <c r="W43" s="177" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="X43" s="202">
@@ -14605,15 +14647,15 @@
         <f>IF(I43='Emission Factors'!$B$3,AB43,IF(I43='Emission Factors'!$B$4,'Emission Factors'!$C$4,IF(I43='Emission Factors'!$B$5,'Emission Factors'!$C$5,IF(I43='Emission Factors'!$B$6,'Emission Factors'!$C$6,IF(I43='Emission Factors'!$B$7,'Emission Factors'!$C$7,IF(I43='Emission Factors'!$B$8,'Emission Factors'!$C$8,IF(I43='Emission Factors'!$B$9,'Emission Factors'!$C$9,IF(I43='Emission Factors'!$B$10,'Emission Factors'!$C$10,IF(I43='Emission Factors'!$B$11,'Emission Factors'!$C$11,IF(I43='Emission Factors'!$B$12,'Emission Factors'!$C$12,IF(I43='Emission Factors'!$B$13,'Emission Factors'!$C$13,IF(I43='Emission Factors'!$B$14,'Emission Factors'!$C$14,0))))))))))))</f>
         <v>0</v>
       </c>
-      <c r="AD43" s="287" t="str">
+      <c r="AD43" s="223" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AE43" s="285" t="str">
+      <c r="AE43" s="221" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AF43" s="286">
+      <c r="AF43" s="222">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -14646,10 +14688,10 @@
         <v>0</v>
       </c>
       <c r="AN43" s="117" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="AO43" s="299" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="AO43" s="235" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
@@ -14657,7 +14699,7 @@
         <f>IF('Inputs for Conserved Energy'!AB32&lt;&gt;"",'Inputs for Conserved Energy'!AB32,(IF(OR(J43&lt;&gt;"",K43&lt;&gt;"",L43&lt;&gt;"",M43&lt;&gt;""),((J43*0.00341214)+K43+L43-IF(I43="Electricity",M43*0.00341214,M43)),"")))</f>
         <v/>
       </c>
-      <c r="AQ43" s="299" t="str">
+      <c r="AQ43" s="235" t="str">
         <f>IF('Inputs for Conserved Energy'!AC32&lt;&gt;"",'Inputs for Conserved Energy'!AC32,IF(AND(AP43&lt;&gt;"",AP43&gt;0),AD43/AP43,""))</f>
         <v/>
       </c>
@@ -14671,10 +14713,10 @@
       </c>
     </row>
     <row r="44" spans="2:45" x14ac:dyDescent="0.35">
-      <c r="B44" s="219"/>
+      <c r="B44" s="243"/>
       <c r="C44" s="49"/>
       <c r="D44" s="146" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="E44" s="162" t="str">
@@ -14730,11 +14772,11 @@
         <f>IF('Inputs for Conserved Energy'!Q33&lt;&gt;"",'Inputs for Conserved Energy'!Q33,"")</f>
         <v/>
       </c>
-      <c r="S44" s="279" t="str">
+      <c r="S44" s="215" t="str">
         <f>IF('Inputs for Conserved Energy'!R33&lt;&gt;"",'Inputs for Conserved Energy'!R33,(IF(E44&lt;&gt;"",0.05,"")))</f>
         <v/>
       </c>
-      <c r="T44" s="281" t="str">
+      <c r="T44" s="217" t="str">
         <f>IF('Inputs for Conserved Energy'!S33&lt;&gt;"",'Inputs for Conserved Energy'!S33,(IF(E44&lt;&gt;"",10,"")))</f>
         <v/>
       </c>
@@ -14742,12 +14784,12 @@
         <f>IF('Inputs for Conserved Energy'!T33&lt;&gt;"",'Inputs for Conserved Energy'!T33,(IF(E44&lt;&gt;"",0.035,"")))</f>
         <v/>
       </c>
-      <c r="V44" s="280" t="str">
+      <c r="V44" s="216" t="str">
         <f>IF('Inputs for Conserved Energy'!U33&lt;&gt;"",'Inputs for Conserved Energy'!U33,(IF(E44&lt;&gt;"",0.035,"")))</f>
         <v/>
       </c>
       <c r="W44" s="177" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="X44" s="202">
@@ -14774,15 +14816,15 @@
         <f>IF(I44='Emission Factors'!$B$3,AB44,IF(I44='Emission Factors'!$B$4,'Emission Factors'!$C$4,IF(I44='Emission Factors'!$B$5,'Emission Factors'!$C$5,IF(I44='Emission Factors'!$B$6,'Emission Factors'!$C$6,IF(I44='Emission Factors'!$B$7,'Emission Factors'!$C$7,IF(I44='Emission Factors'!$B$8,'Emission Factors'!$C$8,IF(I44='Emission Factors'!$B$9,'Emission Factors'!$C$9,IF(I44='Emission Factors'!$B$10,'Emission Factors'!$C$10,IF(I44='Emission Factors'!$B$11,'Emission Factors'!$C$11,IF(I44='Emission Factors'!$B$12,'Emission Factors'!$C$12,IF(I44='Emission Factors'!$B$13,'Emission Factors'!$C$13,IF(I44='Emission Factors'!$B$14,'Emission Factors'!$C$14,0))))))))))))</f>
         <v>0</v>
       </c>
-      <c r="AD44" s="287" t="str">
+      <c r="AD44" s="223" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AE44" s="285" t="str">
+      <c r="AE44" s="221" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AF44" s="286">
+      <c r="AF44" s="222">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -14815,10 +14857,10 @@
         <v>0</v>
       </c>
       <c r="AN44" s="117" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="AO44" s="299" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="AO44" s="235" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
@@ -14826,7 +14868,7 @@
         <f>IF('Inputs for Conserved Energy'!AB33&lt;&gt;"",'Inputs for Conserved Energy'!AB33,(IF(OR(J44&lt;&gt;"",K44&lt;&gt;"",L44&lt;&gt;"",M44&lt;&gt;""),((J44*0.00341214)+K44+L44-IF(I44="Electricity",M44*0.00341214,M44)),"")))</f>
         <v/>
       </c>
-      <c r="AQ44" s="299" t="str">
+      <c r="AQ44" s="235" t="str">
         <f>IF('Inputs for Conserved Energy'!AC33&lt;&gt;"",'Inputs for Conserved Energy'!AC33,IF(AND(AP44&lt;&gt;"",AP44&gt;0),AD44/AP44,""))</f>
         <v/>
       </c>
@@ -14840,7 +14882,7 @@
       </c>
     </row>
     <row r="45" spans="2:45" x14ac:dyDescent="0.35">
-      <c r="B45" s="219"/>
+      <c r="B45" s="243"/>
       <c r="C45" s="49"/>
       <c r="D45" s="146"/>
       <c r="E45" s="162" t="str">
@@ -14896,11 +14938,11 @@
         <f>IF('Inputs for Conserved Energy'!Q34&lt;&gt;"",'Inputs for Conserved Energy'!Q34,"")</f>
         <v/>
       </c>
-      <c r="S45" s="279" t="str">
+      <c r="S45" s="215" t="str">
         <f>IF('Inputs for Conserved Energy'!R34&lt;&gt;"",'Inputs for Conserved Energy'!R34,(IF(E45&lt;&gt;"",0.05,"")))</f>
         <v/>
       </c>
-      <c r="T45" s="281" t="str">
+      <c r="T45" s="217" t="str">
         <f>IF('Inputs for Conserved Energy'!S34&lt;&gt;"",'Inputs for Conserved Energy'!S34,(IF(E45&lt;&gt;"",10,"")))</f>
         <v/>
       </c>
@@ -14908,12 +14950,12 @@
         <f>IF('Inputs for Conserved Energy'!T34&lt;&gt;"",'Inputs for Conserved Energy'!T34,(IF(E45&lt;&gt;"",0.035,"")))</f>
         <v/>
       </c>
-      <c r="V45" s="280" t="str">
+      <c r="V45" s="216" t="str">
         <f>IF('Inputs for Conserved Energy'!U34&lt;&gt;"",'Inputs for Conserved Energy'!U34,(IF(E45&lt;&gt;"",0.035,"")))</f>
         <v/>
       </c>
       <c r="W45" s="177" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="X45" s="202">
@@ -14940,15 +14982,15 @@
         <f>IF(I45='Emission Factors'!$B$3,AB45,IF(I45='Emission Factors'!$B$4,'Emission Factors'!$C$4,IF(I45='Emission Factors'!$B$5,'Emission Factors'!$C$5,IF(I45='Emission Factors'!$B$6,'Emission Factors'!$C$6,IF(I45='Emission Factors'!$B$7,'Emission Factors'!$C$7,IF(I45='Emission Factors'!$B$8,'Emission Factors'!$C$8,IF(I45='Emission Factors'!$B$9,'Emission Factors'!$C$9,IF(I45='Emission Factors'!$B$10,'Emission Factors'!$C$10,IF(I45='Emission Factors'!$B$11,'Emission Factors'!$C$11,IF(I45='Emission Factors'!$B$12,'Emission Factors'!$C$12,IF(I45='Emission Factors'!$B$13,'Emission Factors'!$C$13,IF(I45='Emission Factors'!$B$14,'Emission Factors'!$C$14,0))))))))))))</f>
         <v>0</v>
       </c>
-      <c r="AD45" s="287" t="str">
+      <c r="AD45" s="223" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AE45" s="285" t="str">
+      <c r="AE45" s="221" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AF45" s="286">
+      <c r="AF45" s="222">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -14981,10 +15023,10 @@
         <v>0</v>
       </c>
       <c r="AN45" s="117" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="AO45" s="299" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="AO45" s="235" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
@@ -14992,7 +15034,7 @@
         <f>IF('Inputs for Conserved Energy'!AB34&lt;&gt;"",'Inputs for Conserved Energy'!AB34,(IF(OR(J45&lt;&gt;"",K45&lt;&gt;"",L45&lt;&gt;"",M45&lt;&gt;""),((J45*0.00341214)+K45+L45-IF(I45="Electricity",M45*0.00341214,M45)),"")))</f>
         <v/>
       </c>
-      <c r="AQ45" s="299" t="str">
+      <c r="AQ45" s="235" t="str">
         <f>IF('Inputs for Conserved Energy'!AC34&lt;&gt;"",'Inputs for Conserved Energy'!AC34,IF(AND(AP45&lt;&gt;"",AP45&gt;0),AD45/AP45,""))</f>
         <v/>
       </c>
@@ -15006,10 +15048,10 @@
       </c>
     </row>
     <row r="46" spans="2:45" x14ac:dyDescent="0.35">
-      <c r="B46" s="219"/>
+      <c r="B46" s="243"/>
       <c r="C46" s="49"/>
       <c r="D46" s="146" t="str">
-        <f t="shared" ref="D46:D87" si="16">IF(E46&lt;&gt;"",D45+1,"")</f>
+        <f t="shared" ref="D46:D87" si="17">IF(E46&lt;&gt;"",D45+1,"")</f>
         <v/>
       </c>
       <c r="E46" s="162" t="str">
@@ -15065,11 +15107,11 @@
         <f>IF('Inputs for Conserved Energy'!Q35&lt;&gt;"",'Inputs for Conserved Energy'!Q35,"")</f>
         <v/>
       </c>
-      <c r="S46" s="279" t="str">
+      <c r="S46" s="215" t="str">
         <f>IF('Inputs for Conserved Energy'!R35&lt;&gt;"",'Inputs for Conserved Energy'!R35,(IF(E46&lt;&gt;"",0.05,"")))</f>
         <v/>
       </c>
-      <c r="T46" s="281" t="str">
+      <c r="T46" s="217" t="str">
         <f>IF('Inputs for Conserved Energy'!S35&lt;&gt;"",'Inputs for Conserved Energy'!S35,(IF(E46&lt;&gt;"",10,"")))</f>
         <v/>
       </c>
@@ -15077,12 +15119,12 @@
         <f>IF('Inputs for Conserved Energy'!T35&lt;&gt;"",'Inputs for Conserved Energy'!T35,(IF(E46&lt;&gt;"",0.035,"")))</f>
         <v/>
       </c>
-      <c r="V46" s="280" t="str">
+      <c r="V46" s="216" t="str">
         <f>IF('Inputs for Conserved Energy'!U35&lt;&gt;"",'Inputs for Conserved Energy'!U35,(IF(E46&lt;&gt;"",0.035,"")))</f>
         <v/>
       </c>
       <c r="W46" s="177" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="X46" s="202">
@@ -15109,15 +15151,15 @@
         <f>IF(I46='Emission Factors'!$B$3,AB46,IF(I46='Emission Factors'!$B$4,'Emission Factors'!$C$4,IF(I46='Emission Factors'!$B$5,'Emission Factors'!$C$5,IF(I46='Emission Factors'!$B$6,'Emission Factors'!$C$6,IF(I46='Emission Factors'!$B$7,'Emission Factors'!$C$7,IF(I46='Emission Factors'!$B$8,'Emission Factors'!$C$8,IF(I46='Emission Factors'!$B$9,'Emission Factors'!$C$9,IF(I46='Emission Factors'!$B$10,'Emission Factors'!$C$10,IF(I46='Emission Factors'!$B$11,'Emission Factors'!$C$11,IF(I46='Emission Factors'!$B$12,'Emission Factors'!$C$12,IF(I46='Emission Factors'!$B$13,'Emission Factors'!$C$13,IF(I46='Emission Factors'!$B$14,'Emission Factors'!$C$14,0))))))))))))</f>
         <v>0</v>
       </c>
-      <c r="AD46" s="287" t="str">
+      <c r="AD46" s="223" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AE46" s="285" t="str">
+      <c r="AE46" s="221" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AF46" s="286">
+      <c r="AF46" s="222">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -15150,10 +15192,10 @@
         <v>0</v>
       </c>
       <c r="AN46" s="117" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="AO46" s="299" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="AO46" s="235" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
@@ -15161,7 +15203,7 @@
         <f>IF('Inputs for Conserved Energy'!AB35&lt;&gt;"",'Inputs for Conserved Energy'!AB35,(IF(OR(J46&lt;&gt;"",K46&lt;&gt;"",L46&lt;&gt;"",M46&lt;&gt;""),((J46*0.00341214)+K46+L46-IF(I46="Electricity",M46*0.00341214,M46)),"")))</f>
         <v/>
       </c>
-      <c r="AQ46" s="299" t="str">
+      <c r="AQ46" s="235" t="str">
         <f>IF('Inputs for Conserved Energy'!AC35&lt;&gt;"",'Inputs for Conserved Energy'!AC35,IF(AND(AP46&lt;&gt;"",AP46&gt;0),AD46/AP46,""))</f>
         <v/>
       </c>
@@ -15175,10 +15217,10 @@
       </c>
     </row>
     <row r="47" spans="2:45" x14ac:dyDescent="0.35">
-      <c r="B47" s="219"/>
+      <c r="B47" s="243"/>
       <c r="C47" s="49"/>
       <c r="D47" s="146" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="E47" s="162" t="str">
@@ -15234,11 +15276,11 @@
         <f>IF('Inputs for Conserved Energy'!Q36&lt;&gt;"",'Inputs for Conserved Energy'!Q36,"")</f>
         <v/>
       </c>
-      <c r="S47" s="279" t="str">
+      <c r="S47" s="215" t="str">
         <f>IF('Inputs for Conserved Energy'!R36&lt;&gt;"",'Inputs for Conserved Energy'!R36,(IF(E47&lt;&gt;"",0.05,"")))</f>
         <v/>
       </c>
-      <c r="T47" s="281" t="str">
+      <c r="T47" s="217" t="str">
         <f>IF('Inputs for Conserved Energy'!S36&lt;&gt;"",'Inputs for Conserved Energy'!S36,(IF(E47&lt;&gt;"",10,"")))</f>
         <v/>
       </c>
@@ -15246,12 +15288,12 @@
         <f>IF('Inputs for Conserved Energy'!T36&lt;&gt;"",'Inputs for Conserved Energy'!T36,(IF(E47&lt;&gt;"",0.035,"")))</f>
         <v/>
       </c>
-      <c r="V47" s="280" t="str">
+      <c r="V47" s="216" t="str">
         <f>IF('Inputs for Conserved Energy'!U36&lt;&gt;"",'Inputs for Conserved Energy'!U36,(IF(E47&lt;&gt;"",0.035,"")))</f>
         <v/>
       </c>
       <c r="W47" s="177" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="X47" s="202">
@@ -15278,15 +15320,15 @@
         <f>IF(I47='Emission Factors'!$B$3,AB47,IF(I47='Emission Factors'!$B$4,'Emission Factors'!$C$4,IF(I47='Emission Factors'!$B$5,'Emission Factors'!$C$5,IF(I47='Emission Factors'!$B$6,'Emission Factors'!$C$6,IF(I47='Emission Factors'!$B$7,'Emission Factors'!$C$7,IF(I47='Emission Factors'!$B$8,'Emission Factors'!$C$8,IF(I47='Emission Factors'!$B$9,'Emission Factors'!$C$9,IF(I47='Emission Factors'!$B$10,'Emission Factors'!$C$10,IF(I47='Emission Factors'!$B$11,'Emission Factors'!$C$11,IF(I47='Emission Factors'!$B$12,'Emission Factors'!$C$12,IF(I47='Emission Factors'!$B$13,'Emission Factors'!$C$13,IF(I47='Emission Factors'!$B$14,'Emission Factors'!$C$14,0))))))))))))</f>
         <v>0</v>
       </c>
-      <c r="AD47" s="287" t="str">
+      <c r="AD47" s="223" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AE47" s="285" t="str">
+      <c r="AE47" s="221" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AF47" s="286">
+      <c r="AF47" s="222">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -15319,10 +15361,10 @@
         <v>0</v>
       </c>
       <c r="AN47" s="117" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="AO47" s="299" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="AO47" s="235" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
@@ -15330,7 +15372,7 @@
         <f>IF('Inputs for Conserved Energy'!AB36&lt;&gt;"",'Inputs for Conserved Energy'!AB36,(IF(OR(J47&lt;&gt;"",K47&lt;&gt;"",L47&lt;&gt;"",M47&lt;&gt;""),((J47*0.00341214)+K47+L47-IF(I47="Electricity",M47*0.00341214,M47)),"")))</f>
         <v/>
       </c>
-      <c r="AQ47" s="299" t="str">
+      <c r="AQ47" s="235" t="str">
         <f>IF('Inputs for Conserved Energy'!AC36&lt;&gt;"",'Inputs for Conserved Energy'!AC36,IF(AND(AP47&lt;&gt;"",AP47&gt;0),AD47/AP47,""))</f>
         <v/>
       </c>
@@ -15344,10 +15386,10 @@
       </c>
     </row>
     <row r="48" spans="2:45" x14ac:dyDescent="0.35">
-      <c r="B48" s="219"/>
+      <c r="B48" s="243"/>
       <c r="C48" s="49"/>
       <c r="D48" s="146" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="E48" s="162" t="str">
@@ -15403,11 +15445,11 @@
         <f>IF('Inputs for Conserved Energy'!Q37&lt;&gt;"",'Inputs for Conserved Energy'!Q37,"")</f>
         <v/>
       </c>
-      <c r="S48" s="279" t="str">
+      <c r="S48" s="215" t="str">
         <f>IF('Inputs for Conserved Energy'!R37&lt;&gt;"",'Inputs for Conserved Energy'!R37,(IF(E48&lt;&gt;"",0.05,"")))</f>
         <v/>
       </c>
-      <c r="T48" s="281" t="str">
+      <c r="T48" s="217" t="str">
         <f>IF('Inputs for Conserved Energy'!S37&lt;&gt;"",'Inputs for Conserved Energy'!S37,(IF(E48&lt;&gt;"",10,"")))</f>
         <v/>
       </c>
@@ -15415,12 +15457,12 @@
         <f>IF('Inputs for Conserved Energy'!T37&lt;&gt;"",'Inputs for Conserved Energy'!T37,(IF(E48&lt;&gt;"",0.035,"")))</f>
         <v/>
       </c>
-      <c r="V48" s="280" t="str">
+      <c r="V48" s="216" t="str">
         <f>IF('Inputs for Conserved Energy'!U37&lt;&gt;"",'Inputs for Conserved Energy'!U37,(IF(E48&lt;&gt;"",0.035,"")))</f>
         <v/>
       </c>
       <c r="W48" s="177" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="X48" s="202">
@@ -15447,15 +15489,15 @@
         <f>IF(I48='Emission Factors'!$B$3,AB48,IF(I48='Emission Factors'!$B$4,'Emission Factors'!$C$4,IF(I48='Emission Factors'!$B$5,'Emission Factors'!$C$5,IF(I48='Emission Factors'!$B$6,'Emission Factors'!$C$6,IF(I48='Emission Factors'!$B$7,'Emission Factors'!$C$7,IF(I48='Emission Factors'!$B$8,'Emission Factors'!$C$8,IF(I48='Emission Factors'!$B$9,'Emission Factors'!$C$9,IF(I48='Emission Factors'!$B$10,'Emission Factors'!$C$10,IF(I48='Emission Factors'!$B$11,'Emission Factors'!$C$11,IF(I48='Emission Factors'!$B$12,'Emission Factors'!$C$12,IF(I48='Emission Factors'!$B$13,'Emission Factors'!$C$13,IF(I48='Emission Factors'!$B$14,'Emission Factors'!$C$14,0))))))))))))</f>
         <v>0</v>
       </c>
-      <c r="AD48" s="287" t="str">
+      <c r="AD48" s="223" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AE48" s="285" t="str">
+      <c r="AE48" s="221" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AF48" s="286">
+      <c r="AF48" s="222">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -15488,10 +15530,10 @@
         <v>0</v>
       </c>
       <c r="AN48" s="117" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="AO48" s="299" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="AO48" s="235" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
@@ -15499,7 +15541,7 @@
         <f>IF('Inputs for Conserved Energy'!AB37&lt;&gt;"",'Inputs for Conserved Energy'!AB37,(IF(OR(J48&lt;&gt;"",K48&lt;&gt;"",L48&lt;&gt;"",M48&lt;&gt;""),((J48*0.00341214)+K48+L48-IF(I48="Electricity",M48*0.00341214,M48)),"")))</f>
         <v/>
       </c>
-      <c r="AQ48" s="299" t="str">
+      <c r="AQ48" s="235" t="str">
         <f>IF('Inputs for Conserved Energy'!AC37&lt;&gt;"",'Inputs for Conserved Energy'!AC37,IF(AND(AP48&lt;&gt;"",AP48&gt;0),AD48/AP48,""))</f>
         <v/>
       </c>
@@ -15513,10 +15555,10 @@
       </c>
     </row>
     <row r="49" spans="2:45" x14ac:dyDescent="0.35">
-      <c r="B49" s="219"/>
+      <c r="B49" s="243"/>
       <c r="C49" s="49"/>
       <c r="D49" s="146" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="E49" s="162" t="str">
@@ -15572,11 +15614,11 @@
         <f>IF('Inputs for Conserved Energy'!Q38&lt;&gt;"",'Inputs for Conserved Energy'!Q38,"")</f>
         <v/>
       </c>
-      <c r="S49" s="279" t="str">
+      <c r="S49" s="215" t="str">
         <f>IF('Inputs for Conserved Energy'!R38&lt;&gt;"",'Inputs for Conserved Energy'!R38,(IF(E49&lt;&gt;"",0.05,"")))</f>
         <v/>
       </c>
-      <c r="T49" s="281" t="str">
+      <c r="T49" s="217" t="str">
         <f>IF('Inputs for Conserved Energy'!S38&lt;&gt;"",'Inputs for Conserved Energy'!S38,(IF(E49&lt;&gt;"",10,"")))</f>
         <v/>
       </c>
@@ -15584,12 +15626,12 @@
         <f>IF('Inputs for Conserved Energy'!T38&lt;&gt;"",'Inputs for Conserved Energy'!T38,(IF(E49&lt;&gt;"",0.035,"")))</f>
         <v/>
       </c>
-      <c r="V49" s="280" t="str">
+      <c r="V49" s="216" t="str">
         <f>IF('Inputs for Conserved Energy'!U38&lt;&gt;"",'Inputs for Conserved Energy'!U38,(IF(E49&lt;&gt;"",0.035,"")))</f>
         <v/>
       </c>
       <c r="W49" s="177" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="X49" s="202">
@@ -15616,15 +15658,15 @@
         <f>IF(I49='Emission Factors'!$B$3,AB49,IF(I49='Emission Factors'!$B$4,'Emission Factors'!$C$4,IF(I49='Emission Factors'!$B$5,'Emission Factors'!$C$5,IF(I49='Emission Factors'!$B$6,'Emission Factors'!$C$6,IF(I49='Emission Factors'!$B$7,'Emission Factors'!$C$7,IF(I49='Emission Factors'!$B$8,'Emission Factors'!$C$8,IF(I49='Emission Factors'!$B$9,'Emission Factors'!$C$9,IF(I49='Emission Factors'!$B$10,'Emission Factors'!$C$10,IF(I49='Emission Factors'!$B$11,'Emission Factors'!$C$11,IF(I49='Emission Factors'!$B$12,'Emission Factors'!$C$12,IF(I49='Emission Factors'!$B$13,'Emission Factors'!$C$13,IF(I49='Emission Factors'!$B$14,'Emission Factors'!$C$14,0))))))))))))</f>
         <v>0</v>
       </c>
-      <c r="AD49" s="287" t="str">
+      <c r="AD49" s="223" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AE49" s="285" t="str">
+      <c r="AE49" s="221" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AF49" s="286">
+      <c r="AF49" s="222">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -15657,10 +15699,10 @@
         <v>0</v>
       </c>
       <c r="AN49" s="117" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="AO49" s="299" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="AO49" s="235" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
@@ -15668,7 +15710,7 @@
         <f>IF('Inputs for Conserved Energy'!AB38&lt;&gt;"",'Inputs for Conserved Energy'!AB38,(IF(OR(J49&lt;&gt;"",K49&lt;&gt;"",L49&lt;&gt;"",M49&lt;&gt;""),((J49*0.00341214)+K49+L49-IF(I49="Electricity",M49*0.00341214,M49)),"")))</f>
         <v/>
       </c>
-      <c r="AQ49" s="299" t="str">
+      <c r="AQ49" s="235" t="str">
         <f>IF('Inputs for Conserved Energy'!AC38&lt;&gt;"",'Inputs for Conserved Energy'!AC38,IF(AND(AP49&lt;&gt;"",AP49&gt;0),AD49/AP49,""))</f>
         <v/>
       </c>
@@ -15682,10 +15724,10 @@
       </c>
     </row>
     <row r="50" spans="2:45" x14ac:dyDescent="0.35">
-      <c r="B50" s="219"/>
+      <c r="B50" s="243"/>
       <c r="C50" s="49"/>
       <c r="D50" s="146" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="E50" s="162" t="str">
@@ -15741,11 +15783,11 @@
         <f>IF('Inputs for Conserved Energy'!Q39&lt;&gt;"",'Inputs for Conserved Energy'!Q39,"")</f>
         <v/>
       </c>
-      <c r="S50" s="279" t="str">
+      <c r="S50" s="215" t="str">
         <f>IF('Inputs for Conserved Energy'!R39&lt;&gt;"",'Inputs for Conserved Energy'!R39,(IF(E50&lt;&gt;"",0.05,"")))</f>
         <v/>
       </c>
-      <c r="T50" s="281" t="str">
+      <c r="T50" s="217" t="str">
         <f>IF('Inputs for Conserved Energy'!S39&lt;&gt;"",'Inputs for Conserved Energy'!S39,(IF(E50&lt;&gt;"",10,"")))</f>
         <v/>
       </c>
@@ -15753,12 +15795,12 @@
         <f>IF('Inputs for Conserved Energy'!T39&lt;&gt;"",'Inputs for Conserved Energy'!T39,(IF(E50&lt;&gt;"",0.035,"")))</f>
         <v/>
       </c>
-      <c r="V50" s="280" t="str">
+      <c r="V50" s="216" t="str">
         <f>IF('Inputs for Conserved Energy'!U39&lt;&gt;"",'Inputs for Conserved Energy'!U39,(IF(E50&lt;&gt;"",0.035,"")))</f>
         <v/>
       </c>
       <c r="W50" s="177" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="X50" s="202">
@@ -15785,15 +15827,15 @@
         <f>IF(I50='Emission Factors'!$B$3,AB50,IF(I50='Emission Factors'!$B$4,'Emission Factors'!$C$4,IF(I50='Emission Factors'!$B$5,'Emission Factors'!$C$5,IF(I50='Emission Factors'!$B$6,'Emission Factors'!$C$6,IF(I50='Emission Factors'!$B$7,'Emission Factors'!$C$7,IF(I50='Emission Factors'!$B$8,'Emission Factors'!$C$8,IF(I50='Emission Factors'!$B$9,'Emission Factors'!$C$9,IF(I50='Emission Factors'!$B$10,'Emission Factors'!$C$10,IF(I50='Emission Factors'!$B$11,'Emission Factors'!$C$11,IF(I50='Emission Factors'!$B$12,'Emission Factors'!$C$12,IF(I50='Emission Factors'!$B$13,'Emission Factors'!$C$13,IF(I50='Emission Factors'!$B$14,'Emission Factors'!$C$14,0))))))))))))</f>
         <v>0</v>
       </c>
-      <c r="AD50" s="287" t="str">
+      <c r="AD50" s="223" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AE50" s="285" t="str">
+      <c r="AE50" s="221" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AF50" s="286">
+      <c r="AF50" s="222">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -15826,10 +15868,10 @@
         <v>0</v>
       </c>
       <c r="AN50" s="117" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="AO50" s="299" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="AO50" s="235" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
@@ -15837,7 +15879,7 @@
         <f>IF('Inputs for Conserved Energy'!AB39&lt;&gt;"",'Inputs for Conserved Energy'!AB39,(IF(OR(J50&lt;&gt;"",K50&lt;&gt;"",L50&lt;&gt;"",M50&lt;&gt;""),((J50*0.00341214)+K50+L50-IF(I50="Electricity",M50*0.00341214,M50)),"")))</f>
         <v/>
       </c>
-      <c r="AQ50" s="299" t="str">
+      <c r="AQ50" s="235" t="str">
         <f>IF('Inputs for Conserved Energy'!AC39&lt;&gt;"",'Inputs for Conserved Energy'!AC39,IF(AND(AP50&lt;&gt;"",AP50&gt;0),AD50/AP50,""))</f>
         <v/>
       </c>
@@ -15851,10 +15893,10 @@
       </c>
     </row>
     <row r="51" spans="2:45" x14ac:dyDescent="0.35">
-      <c r="B51" s="219"/>
+      <c r="B51" s="243"/>
       <c r="C51" s="49"/>
       <c r="D51" s="146" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="E51" s="162" t="str">
@@ -15910,11 +15952,11 @@
         <f>IF('Inputs for Conserved Energy'!Q40&lt;&gt;"",'Inputs for Conserved Energy'!Q40,"")</f>
         <v/>
       </c>
-      <c r="S51" s="279" t="str">
+      <c r="S51" s="215" t="str">
         <f>IF('Inputs for Conserved Energy'!R40&lt;&gt;"",'Inputs for Conserved Energy'!R40,(IF(E51&lt;&gt;"",0.05,"")))</f>
         <v/>
       </c>
-      <c r="T51" s="281" t="str">
+      <c r="T51" s="217" t="str">
         <f>IF('Inputs for Conserved Energy'!S40&lt;&gt;"",'Inputs for Conserved Energy'!S40,(IF(E51&lt;&gt;"",10,"")))</f>
         <v/>
       </c>
@@ -15922,12 +15964,12 @@
         <f>IF('Inputs for Conserved Energy'!T40&lt;&gt;"",'Inputs for Conserved Energy'!T40,(IF(E51&lt;&gt;"",0.035,"")))</f>
         <v/>
       </c>
-      <c r="V51" s="280" t="str">
+      <c r="V51" s="216" t="str">
         <f>IF('Inputs for Conserved Energy'!U40&lt;&gt;"",'Inputs for Conserved Energy'!U40,(IF(E51&lt;&gt;"",0.035,"")))</f>
         <v/>
       </c>
       <c r="W51" s="177" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="X51" s="202">
@@ -15954,15 +15996,15 @@
         <f>IF(I51='Emission Factors'!$B$3,AB51,IF(I51='Emission Factors'!$B$4,'Emission Factors'!$C$4,IF(I51='Emission Factors'!$B$5,'Emission Factors'!$C$5,IF(I51='Emission Factors'!$B$6,'Emission Factors'!$C$6,IF(I51='Emission Factors'!$B$7,'Emission Factors'!$C$7,IF(I51='Emission Factors'!$B$8,'Emission Factors'!$C$8,IF(I51='Emission Factors'!$B$9,'Emission Factors'!$C$9,IF(I51='Emission Factors'!$B$10,'Emission Factors'!$C$10,IF(I51='Emission Factors'!$B$11,'Emission Factors'!$C$11,IF(I51='Emission Factors'!$B$12,'Emission Factors'!$C$12,IF(I51='Emission Factors'!$B$13,'Emission Factors'!$C$13,IF(I51='Emission Factors'!$B$14,'Emission Factors'!$C$14,0))))))))))))</f>
         <v>0</v>
       </c>
-      <c r="AD51" s="287" t="str">
+      <c r="AD51" s="223" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AE51" s="285" t="str">
+      <c r="AE51" s="221" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AF51" s="286">
+      <c r="AF51" s="222">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -15995,10 +16037,10 @@
         <v>0</v>
       </c>
       <c r="AN51" s="117" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="AO51" s="299" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="AO51" s="235" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
@@ -16006,7 +16048,7 @@
         <f>IF('Inputs for Conserved Energy'!AB40&lt;&gt;"",'Inputs for Conserved Energy'!AB40,(IF(OR(J51&lt;&gt;"",K51&lt;&gt;"",L51&lt;&gt;"",M51&lt;&gt;""),((J51*0.00341214)+K51+L51-IF(I51="Electricity",M51*0.00341214,M51)),"")))</f>
         <v/>
       </c>
-      <c r="AQ51" s="299" t="str">
+      <c r="AQ51" s="235" t="str">
         <f>IF('Inputs for Conserved Energy'!AC40&lt;&gt;"",'Inputs for Conserved Energy'!AC40,IF(AND(AP51&lt;&gt;"",AP51&gt;0),AD51/AP51,""))</f>
         <v/>
       </c>
@@ -16020,10 +16062,10 @@
       </c>
     </row>
     <row r="52" spans="2:45" x14ac:dyDescent="0.35">
-      <c r="B52" s="219"/>
+      <c r="B52" s="243"/>
       <c r="C52" s="49"/>
       <c r="D52" s="146" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="E52" s="162" t="str">
@@ -16079,11 +16121,11 @@
         <f>IF('Inputs for Conserved Energy'!Q41&lt;&gt;"",'Inputs for Conserved Energy'!Q41,"")</f>
         <v/>
       </c>
-      <c r="S52" s="279" t="str">
+      <c r="S52" s="215" t="str">
         <f>IF('Inputs for Conserved Energy'!R41&lt;&gt;"",'Inputs for Conserved Energy'!R41,(IF(E52&lt;&gt;"",0.05,"")))</f>
         <v/>
       </c>
-      <c r="T52" s="281" t="str">
+      <c r="T52" s="217" t="str">
         <f>IF('Inputs for Conserved Energy'!S41&lt;&gt;"",'Inputs for Conserved Energy'!S41,(IF(E52&lt;&gt;"",10,"")))</f>
         <v/>
       </c>
@@ -16091,12 +16133,12 @@
         <f>IF('Inputs for Conserved Energy'!T41&lt;&gt;"",'Inputs for Conserved Energy'!T41,(IF(E52&lt;&gt;"",0.035,"")))</f>
         <v/>
       </c>
-      <c r="V52" s="280" t="str">
+      <c r="V52" s="216" t="str">
         <f>IF('Inputs for Conserved Energy'!U41&lt;&gt;"",'Inputs for Conserved Energy'!U41,(IF(E52&lt;&gt;"",0.035,"")))</f>
         <v/>
       </c>
       <c r="W52" s="177" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="X52" s="202">
@@ -16123,15 +16165,15 @@
         <f>IF(I52='Emission Factors'!$B$3,AB52,IF(I52='Emission Factors'!$B$4,'Emission Factors'!$C$4,IF(I52='Emission Factors'!$B$5,'Emission Factors'!$C$5,IF(I52='Emission Factors'!$B$6,'Emission Factors'!$C$6,IF(I52='Emission Factors'!$B$7,'Emission Factors'!$C$7,IF(I52='Emission Factors'!$B$8,'Emission Factors'!$C$8,IF(I52='Emission Factors'!$B$9,'Emission Factors'!$C$9,IF(I52='Emission Factors'!$B$10,'Emission Factors'!$C$10,IF(I52='Emission Factors'!$B$11,'Emission Factors'!$C$11,IF(I52='Emission Factors'!$B$12,'Emission Factors'!$C$12,IF(I52='Emission Factors'!$B$13,'Emission Factors'!$C$13,IF(I52='Emission Factors'!$B$14,'Emission Factors'!$C$14,0))))))))))))</f>
         <v>0</v>
       </c>
-      <c r="AD52" s="287" t="str">
+      <c r="AD52" s="223" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AE52" s="285" t="str">
+      <c r="AE52" s="221" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AF52" s="286">
+      <c r="AF52" s="222">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -16164,10 +16206,10 @@
         <v>0</v>
       </c>
       <c r="AN52" s="117" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="AO52" s="299" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="AO52" s="235" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
@@ -16175,7 +16217,7 @@
         <f>IF('Inputs for Conserved Energy'!AB41&lt;&gt;"",'Inputs for Conserved Energy'!AB41,(IF(OR(J52&lt;&gt;"",K52&lt;&gt;"",L52&lt;&gt;"",M52&lt;&gt;""),((J52*0.00341214)+K52+L52-IF(I52="Electricity",M52*0.00341214,M52)),"")))</f>
         <v/>
       </c>
-      <c r="AQ52" s="299" t="str">
+      <c r="AQ52" s="235" t="str">
         <f>IF('Inputs for Conserved Energy'!AC41&lt;&gt;"",'Inputs for Conserved Energy'!AC41,IF(AND(AP52&lt;&gt;"",AP52&gt;0),AD52/AP52,""))</f>
         <v/>
       </c>
@@ -16189,10 +16231,10 @@
       </c>
     </row>
     <row r="53" spans="2:45" x14ac:dyDescent="0.35">
-      <c r="B53" s="219"/>
+      <c r="B53" s="243"/>
       <c r="C53" s="49"/>
       <c r="D53" s="146" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="E53" s="162" t="str">
@@ -16248,11 +16290,11 @@
         <f>IF('Inputs for Conserved Energy'!Q42&lt;&gt;"",'Inputs for Conserved Energy'!Q42,"")</f>
         <v/>
       </c>
-      <c r="S53" s="279" t="str">
+      <c r="S53" s="215" t="str">
         <f>IF('Inputs for Conserved Energy'!R42&lt;&gt;"",'Inputs for Conserved Energy'!R42,(IF(E53&lt;&gt;"",0.05,"")))</f>
         <v/>
       </c>
-      <c r="T53" s="281" t="str">
+      <c r="T53" s="217" t="str">
         <f>IF('Inputs for Conserved Energy'!S42&lt;&gt;"",'Inputs for Conserved Energy'!S42,(IF(E53&lt;&gt;"",10,"")))</f>
         <v/>
       </c>
@@ -16260,12 +16302,12 @@
         <f>IF('Inputs for Conserved Energy'!T42&lt;&gt;"",'Inputs for Conserved Energy'!T42,(IF(E53&lt;&gt;"",0.035,"")))</f>
         <v/>
       </c>
-      <c r="V53" s="280" t="str">
+      <c r="V53" s="216" t="str">
         <f>IF('Inputs for Conserved Energy'!U42&lt;&gt;"",'Inputs for Conserved Energy'!U42,(IF(E53&lt;&gt;"",0.035,"")))</f>
         <v/>
       </c>
       <c r="W53" s="177" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="X53" s="202">
@@ -16292,15 +16334,15 @@
         <f>IF(I53='Emission Factors'!$B$3,AB53,IF(I53='Emission Factors'!$B$4,'Emission Factors'!$C$4,IF(I53='Emission Factors'!$B$5,'Emission Factors'!$C$5,IF(I53='Emission Factors'!$B$6,'Emission Factors'!$C$6,IF(I53='Emission Factors'!$B$7,'Emission Factors'!$C$7,IF(I53='Emission Factors'!$B$8,'Emission Factors'!$C$8,IF(I53='Emission Factors'!$B$9,'Emission Factors'!$C$9,IF(I53='Emission Factors'!$B$10,'Emission Factors'!$C$10,IF(I53='Emission Factors'!$B$11,'Emission Factors'!$C$11,IF(I53='Emission Factors'!$B$12,'Emission Factors'!$C$12,IF(I53='Emission Factors'!$B$13,'Emission Factors'!$C$13,IF(I53='Emission Factors'!$B$14,'Emission Factors'!$C$14,0))))))))))))</f>
         <v>0</v>
       </c>
-      <c r="AD53" s="287" t="str">
+      <c r="AD53" s="223" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AE53" s="285" t="str">
+      <c r="AE53" s="221" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AF53" s="286">
+      <c r="AF53" s="222">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -16333,10 +16375,10 @@
         <v>0</v>
       </c>
       <c r="AN53" s="117" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="AO53" s="299" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="AO53" s="235" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
@@ -16344,7 +16386,7 @@
         <f>IF('Inputs for Conserved Energy'!AB42&lt;&gt;"",'Inputs for Conserved Energy'!AB42,(IF(OR(J53&lt;&gt;"",K53&lt;&gt;"",L53&lt;&gt;"",M53&lt;&gt;""),((J53*0.00341214)+K53+L53-IF(I53="Electricity",M53*0.00341214,M53)),"")))</f>
         <v/>
       </c>
-      <c r="AQ53" s="299" t="str">
+      <c r="AQ53" s="235" t="str">
         <f>IF('Inputs for Conserved Energy'!AC42&lt;&gt;"",'Inputs for Conserved Energy'!AC42,IF(AND(AP53&lt;&gt;"",AP53&gt;0),AD53/AP53,""))</f>
         <v/>
       </c>
@@ -16358,10 +16400,10 @@
       </c>
     </row>
     <row r="54" spans="2:45" x14ac:dyDescent="0.35">
-      <c r="B54" s="219"/>
+      <c r="B54" s="243"/>
       <c r="C54" s="49"/>
       <c r="D54" s="146" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="E54" s="162" t="str">
@@ -16417,11 +16459,11 @@
         <f>IF('Inputs for Conserved Energy'!Q43&lt;&gt;"",'Inputs for Conserved Energy'!Q43,"")</f>
         <v/>
       </c>
-      <c r="S54" s="279" t="str">
+      <c r="S54" s="215" t="str">
         <f>IF('Inputs for Conserved Energy'!R43&lt;&gt;"",'Inputs for Conserved Energy'!R43,(IF(E54&lt;&gt;"",0.05,"")))</f>
         <v/>
       </c>
-      <c r="T54" s="281" t="str">
+      <c r="T54" s="217" t="str">
         <f>IF('Inputs for Conserved Energy'!S43&lt;&gt;"",'Inputs for Conserved Energy'!S43,(IF(E54&lt;&gt;"",10,"")))</f>
         <v/>
       </c>
@@ -16429,12 +16471,12 @@
         <f>IF('Inputs for Conserved Energy'!T43&lt;&gt;"",'Inputs for Conserved Energy'!T43,(IF(E54&lt;&gt;"",0.035,"")))</f>
         <v/>
       </c>
-      <c r="V54" s="280" t="str">
+      <c r="V54" s="216" t="str">
         <f>IF('Inputs for Conserved Energy'!U43&lt;&gt;"",'Inputs for Conserved Energy'!U43,(IF(E54&lt;&gt;"",0.035,"")))</f>
         <v/>
       </c>
       <c r="W54" s="177" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="X54" s="202">
@@ -16461,15 +16503,15 @@
         <f>IF(I54='Emission Factors'!$B$3,AB54,IF(I54='Emission Factors'!$B$4,'Emission Factors'!$C$4,IF(I54='Emission Factors'!$B$5,'Emission Factors'!$C$5,IF(I54='Emission Factors'!$B$6,'Emission Factors'!$C$6,IF(I54='Emission Factors'!$B$7,'Emission Factors'!$C$7,IF(I54='Emission Factors'!$B$8,'Emission Factors'!$C$8,IF(I54='Emission Factors'!$B$9,'Emission Factors'!$C$9,IF(I54='Emission Factors'!$B$10,'Emission Factors'!$C$10,IF(I54='Emission Factors'!$B$11,'Emission Factors'!$C$11,IF(I54='Emission Factors'!$B$12,'Emission Factors'!$C$12,IF(I54='Emission Factors'!$B$13,'Emission Factors'!$C$13,IF(I54='Emission Factors'!$B$14,'Emission Factors'!$C$14,0))))))))))))</f>
         <v>0</v>
       </c>
-      <c r="AD54" s="287" t="str">
+      <c r="AD54" s="223" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AE54" s="285" t="str">
+      <c r="AE54" s="221" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AF54" s="286">
+      <c r="AF54" s="222">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -16502,10 +16544,10 @@
         <v>0</v>
       </c>
       <c r="AN54" s="117" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="AO54" s="299" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="AO54" s="235" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
@@ -16513,7 +16555,7 @@
         <f>IF('Inputs for Conserved Energy'!AB43&lt;&gt;"",'Inputs for Conserved Energy'!AB43,(IF(OR(J54&lt;&gt;"",K54&lt;&gt;"",L54&lt;&gt;"",M54&lt;&gt;""),((J54*0.00341214)+K54+L54-IF(I54="Electricity",M54*0.00341214,M54)),"")))</f>
         <v/>
       </c>
-      <c r="AQ54" s="299" t="str">
+      <c r="AQ54" s="235" t="str">
         <f>IF('Inputs for Conserved Energy'!AC43&lt;&gt;"",'Inputs for Conserved Energy'!AC43,IF(AND(AP54&lt;&gt;"",AP54&gt;0),AD54/AP54,""))</f>
         <v/>
       </c>
@@ -16527,10 +16569,10 @@
       </c>
     </row>
     <row r="55" spans="2:45" x14ac:dyDescent="0.35">
-      <c r="B55" s="219"/>
+      <c r="B55" s="243"/>
       <c r="C55" s="49"/>
       <c r="D55" s="146" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="E55" s="162" t="str">
@@ -16586,11 +16628,11 @@
         <f>IF('Inputs for Conserved Energy'!Q44&lt;&gt;"",'Inputs for Conserved Energy'!Q44,"")</f>
         <v/>
       </c>
-      <c r="S55" s="279" t="str">
+      <c r="S55" s="215" t="str">
         <f>IF('Inputs for Conserved Energy'!R44&lt;&gt;"",'Inputs for Conserved Energy'!R44,(IF(E55&lt;&gt;"",0.05,"")))</f>
         <v/>
       </c>
-      <c r="T55" s="281" t="str">
+      <c r="T55" s="217" t="str">
         <f>IF('Inputs for Conserved Energy'!S44&lt;&gt;"",'Inputs for Conserved Energy'!S44,(IF(E55&lt;&gt;"",10,"")))</f>
         <v/>
       </c>
@@ -16598,12 +16640,12 @@
         <f>IF('Inputs for Conserved Energy'!T44&lt;&gt;"",'Inputs for Conserved Energy'!T44,(IF(E55&lt;&gt;"",0.035,"")))</f>
         <v/>
       </c>
-      <c r="V55" s="280" t="str">
+      <c r="V55" s="216" t="str">
         <f>IF('Inputs for Conserved Energy'!U44&lt;&gt;"",'Inputs for Conserved Energy'!U44,(IF(E55&lt;&gt;"",0.035,"")))</f>
         <v/>
       </c>
       <c r="W55" s="177" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="X55" s="202">
@@ -16630,15 +16672,15 @@
         <f>IF(I55='Emission Factors'!$B$3,AB55,IF(I55='Emission Factors'!$B$4,'Emission Factors'!$C$4,IF(I55='Emission Factors'!$B$5,'Emission Factors'!$C$5,IF(I55='Emission Factors'!$B$6,'Emission Factors'!$C$6,IF(I55='Emission Factors'!$B$7,'Emission Factors'!$C$7,IF(I55='Emission Factors'!$B$8,'Emission Factors'!$C$8,IF(I55='Emission Factors'!$B$9,'Emission Factors'!$C$9,IF(I55='Emission Factors'!$B$10,'Emission Factors'!$C$10,IF(I55='Emission Factors'!$B$11,'Emission Factors'!$C$11,IF(I55='Emission Factors'!$B$12,'Emission Factors'!$C$12,IF(I55='Emission Factors'!$B$13,'Emission Factors'!$C$13,IF(I55='Emission Factors'!$B$14,'Emission Factors'!$C$14,0))))))))))))</f>
         <v>0</v>
       </c>
-      <c r="AD55" s="287" t="str">
+      <c r="AD55" s="223" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AE55" s="285" t="str">
+      <c r="AE55" s="221" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AF55" s="286">
+      <c r="AF55" s="222">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -16671,10 +16713,10 @@
         <v>0</v>
       </c>
       <c r="AN55" s="117" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="AO55" s="299" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="AO55" s="235" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
@@ -16682,7 +16724,7 @@
         <f>IF('Inputs for Conserved Energy'!AB44&lt;&gt;"",'Inputs for Conserved Energy'!AB44,(IF(OR(J55&lt;&gt;"",K55&lt;&gt;"",L55&lt;&gt;"",M55&lt;&gt;""),((J55*0.00341214)+K55+L55-IF(I55="Electricity",M55*0.00341214,M55)),"")))</f>
         <v/>
       </c>
-      <c r="AQ55" s="299" t="str">
+      <c r="AQ55" s="235" t="str">
         <f>IF('Inputs for Conserved Energy'!AC44&lt;&gt;"",'Inputs for Conserved Energy'!AC44,IF(AND(AP55&lt;&gt;"",AP55&gt;0),AD55/AP55,""))</f>
         <v/>
       </c>
@@ -16696,10 +16738,10 @@
       </c>
     </row>
     <row r="56" spans="2:45" x14ac:dyDescent="0.35">
-      <c r="B56" s="219"/>
+      <c r="B56" s="243"/>
       <c r="C56" s="49"/>
       <c r="D56" s="146" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="E56" s="162" t="str">
@@ -16755,11 +16797,11 @@
         <f>IF('Inputs for Conserved Energy'!Q45&lt;&gt;"",'Inputs for Conserved Energy'!Q45,"")</f>
         <v/>
       </c>
-      <c r="S56" s="279" t="str">
+      <c r="S56" s="215" t="str">
         <f>IF('Inputs for Conserved Energy'!R45&lt;&gt;"",'Inputs for Conserved Energy'!R45,(IF(E56&lt;&gt;"",0.05,"")))</f>
         <v/>
       </c>
-      <c r="T56" s="281" t="str">
+      <c r="T56" s="217" t="str">
         <f>IF('Inputs for Conserved Energy'!S45&lt;&gt;"",'Inputs for Conserved Energy'!S45,(IF(E56&lt;&gt;"",10,"")))</f>
         <v/>
       </c>
@@ -16767,12 +16809,12 @@
         <f>IF('Inputs for Conserved Energy'!T45&lt;&gt;"",'Inputs for Conserved Energy'!T45,(IF(E56&lt;&gt;"",0.035,"")))</f>
         <v/>
       </c>
-      <c r="V56" s="280" t="str">
+      <c r="V56" s="216" t="str">
         <f>IF('Inputs for Conserved Energy'!U45&lt;&gt;"",'Inputs for Conserved Energy'!U45,(IF(E56&lt;&gt;"",0.035,"")))</f>
         <v/>
       </c>
       <c r="W56" s="177" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="X56" s="202">
@@ -16799,15 +16841,15 @@
         <f>IF(I56='Emission Factors'!$B$3,AB56,IF(I56='Emission Factors'!$B$4,'Emission Factors'!$C$4,IF(I56='Emission Factors'!$B$5,'Emission Factors'!$C$5,IF(I56='Emission Factors'!$B$6,'Emission Factors'!$C$6,IF(I56='Emission Factors'!$B$7,'Emission Factors'!$C$7,IF(I56='Emission Factors'!$B$8,'Emission Factors'!$C$8,IF(I56='Emission Factors'!$B$9,'Emission Factors'!$C$9,IF(I56='Emission Factors'!$B$10,'Emission Factors'!$C$10,IF(I56='Emission Factors'!$B$11,'Emission Factors'!$C$11,IF(I56='Emission Factors'!$B$12,'Emission Factors'!$C$12,IF(I56='Emission Factors'!$B$13,'Emission Factors'!$C$13,IF(I56='Emission Factors'!$B$14,'Emission Factors'!$C$14,0))))))))))))</f>
         <v>0</v>
       </c>
-      <c r="AD56" s="287" t="str">
+      <c r="AD56" s="223" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AE56" s="285" t="str">
+      <c r="AE56" s="221" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AF56" s="286">
+      <c r="AF56" s="222">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -16840,10 +16882,10 @@
         <v>0</v>
       </c>
       <c r="AN56" s="117" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="AO56" s="299" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="AO56" s="235" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
@@ -16851,7 +16893,7 @@
         <f>IF('Inputs for Conserved Energy'!AB45&lt;&gt;"",'Inputs for Conserved Energy'!AB45,(IF(OR(J56&lt;&gt;"",K56&lt;&gt;"",L56&lt;&gt;"",M56&lt;&gt;""),((J56*0.00341214)+K56+L56-IF(I56="Electricity",M56*0.00341214,M56)),"")))</f>
         <v/>
       </c>
-      <c r="AQ56" s="299" t="str">
+      <c r="AQ56" s="235" t="str">
         <f>IF('Inputs for Conserved Energy'!AC45&lt;&gt;"",'Inputs for Conserved Energy'!AC45,IF(AND(AP56&lt;&gt;"",AP56&gt;0),AD56/AP56,""))</f>
         <v/>
       </c>
@@ -16865,10 +16907,10 @@
       </c>
     </row>
     <row r="57" spans="2:45" x14ac:dyDescent="0.35">
-      <c r="B57" s="219"/>
+      <c r="B57" s="243"/>
       <c r="C57" s="49"/>
       <c r="D57" s="146" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="E57" s="162" t="str">
@@ -16924,11 +16966,11 @@
         <f>IF('Inputs for Conserved Energy'!Q46&lt;&gt;"",'Inputs for Conserved Energy'!Q46,"")</f>
         <v/>
       </c>
-      <c r="S57" s="279" t="str">
+      <c r="S57" s="215" t="str">
         <f>IF('Inputs for Conserved Energy'!R46&lt;&gt;"",'Inputs for Conserved Energy'!R46,(IF(E57&lt;&gt;"",0.05,"")))</f>
         <v/>
       </c>
-      <c r="T57" s="281" t="str">
+      <c r="T57" s="217" t="str">
         <f>IF('Inputs for Conserved Energy'!S46&lt;&gt;"",'Inputs for Conserved Energy'!S46,(IF(E57&lt;&gt;"",10,"")))</f>
         <v/>
       </c>
@@ -16936,12 +16978,12 @@
         <f>IF('Inputs for Conserved Energy'!T46&lt;&gt;"",'Inputs for Conserved Energy'!T46,(IF(E57&lt;&gt;"",0.035,"")))</f>
         <v/>
       </c>
-      <c r="V57" s="280" t="str">
+      <c r="V57" s="216" t="str">
         <f>IF('Inputs for Conserved Energy'!U46&lt;&gt;"",'Inputs for Conserved Energy'!U46,(IF(E57&lt;&gt;"",0.035,"")))</f>
         <v/>
       </c>
       <c r="W57" s="177" t="str">
-        <f t="shared" ref="W57:W87" si="17">IF(E57&lt;&gt;"",7.5%,"")</f>
+        <f t="shared" ref="W57:W87" si="18">IF(E57&lt;&gt;"",7.5%,"")</f>
         <v/>
       </c>
       <c r="X57" s="202">
@@ -16968,40 +17010,40 @@
         <f>IF(I57='Emission Factors'!$B$3,AB57,IF(I57='Emission Factors'!$B$4,'Emission Factors'!$C$4,IF(I57='Emission Factors'!$B$5,'Emission Factors'!$C$5,IF(I57='Emission Factors'!$B$6,'Emission Factors'!$C$6,IF(I57='Emission Factors'!$B$7,'Emission Factors'!$C$7,IF(I57='Emission Factors'!$B$8,'Emission Factors'!$C$8,IF(I57='Emission Factors'!$B$9,'Emission Factors'!$C$9,IF(I57='Emission Factors'!$B$10,'Emission Factors'!$C$10,IF(I57='Emission Factors'!$B$11,'Emission Factors'!$C$11,IF(I57='Emission Factors'!$B$12,'Emission Factors'!$C$12,IF(I57='Emission Factors'!$B$13,'Emission Factors'!$C$13,IF(I57='Emission Factors'!$B$14,'Emission Factors'!$C$14,0))))))))))))</f>
         <v>0</v>
       </c>
-      <c r="AD57" s="287" t="str">
-        <f t="shared" ref="AD57:AD87" si="18">IF(Q57&lt;&gt;"",AN57/AH57,"")</f>
-        <v/>
-      </c>
-      <c r="AE57" s="285" t="str">
-        <f t="shared" ref="AE57:AE87" si="19">IF(OR(K57&lt;&gt;"",J57&lt;&gt;""),((IF(K57&lt;&gt;"",(K57*X57),0))+(IF(J57&lt;&gt;"",(J57*AB57),0))+(IF(L57&lt;&gt;"",(L57*Y57),0))-(IF(AND(G57&lt;&gt;"",I57&lt;&gt;""),(AC57*M57),0))),"")</f>
-        <v/>
-      </c>
-      <c r="AF57" s="286">
-        <f t="shared" ref="AF57:AF87" si="20">IF(AND($I$16&lt;&gt;"",AE57&lt;&gt;""),(AE57*$I$16),0)</f>
+      <c r="AD57" s="223" t="str">
+        <f t="shared" ref="AD57:AD87" si="19">IF(Q57&lt;&gt;"",AN57/AH57,"")</f>
+        <v/>
+      </c>
+      <c r="AE57" s="221" t="str">
+        <f t="shared" ref="AE57:AE87" si="20">IF(OR(K57&lt;&gt;"",J57&lt;&gt;""),((IF(K57&lt;&gt;"",(K57*X57),0))+(IF(J57&lt;&gt;"",(J57*AB57),0))+(IF(L57&lt;&gt;"",(L57*Y57),0))-(IF(AND(G57&lt;&gt;"",I57&lt;&gt;""),(AC57*M57),0))),"")</f>
+        <v/>
+      </c>
+      <c r="AF57" s="222">
+        <f t="shared" ref="AF57:AF87" si="21">IF(AND($I$16&lt;&gt;"",AE57&lt;&gt;""),(AE57*$I$16),0)</f>
         <v>0</v>
       </c>
       <c r="AG57" s="117" t="e">
-        <f t="shared" ref="AG57:AG87" si="21">(1+S57)^(-T57)</f>
+        <f t="shared" ref="AG57:AG87" si="22">(1+S57)^(-T57)</f>
         <v>#VALUE!</v>
       </c>
       <c r="AH57" s="117" t="e">
-        <f t="shared" ref="AH57:AH87" si="22">(1-(1+S57)^(-T57))/S57</f>
+        <f t="shared" ref="AH57:AH87" si="23">(1-(1+S57)^(-T57))/S57</f>
         <v>#VALUE!</v>
       </c>
       <c r="AI57" s="117" t="e">
-        <f t="shared" ref="AI57:AI87" si="23">(1-((1+U57)/(1+S57))^T57)/(S57-U57)</f>
+        <f t="shared" ref="AI57:AI87" si="24">(1-((1+U57)/(1+S57))^T57)/(S57-U57)</f>
         <v>#VALUE!</v>
       </c>
       <c r="AJ57" s="117" t="e">
-        <f t="shared" ref="AJ57:AJ87" si="24">(1-((1+V57)/(1+S57))^T57)/(S57-V57)</f>
+        <f t="shared" ref="AJ57:AJ87" si="25">(1-((1+V57)/(1+S57))^T57)/(S57-V57)</f>
         <v>#VALUE!</v>
       </c>
       <c r="AK57" s="117" t="e">
-        <f t="shared" ref="AK57:AK87" si="25">(1-((1+W57)/(1+S57))^T57)/(S57-W57)</f>
+        <f t="shared" ref="AK57:AK87" si="26">(1-((1+W57)/(1+S57))^T57)/(S57-W57)</f>
         <v>#VALUE!</v>
       </c>
       <c r="AL57" s="117" t="e">
-        <f t="shared" ref="AL57:AL87" si="26">IF($G$14&lt;0,(1-((1+$G$14)/(1))^T57)/(0-$G$14),(T57^2))</f>
+        <f t="shared" ref="AL57:AL87" si="27">IF($G$14&lt;0,(1-((1+$G$14)/(1))^T57)/(0-$G$14),(T57^2))</f>
         <v>#VALUE!</v>
       </c>
       <c r="AM57" s="117">
@@ -17009,10 +17051,10 @@
         <v>0</v>
       </c>
       <c r="AN57" s="117" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="AO57" s="299" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="AO57" s="235" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
@@ -17020,7 +17062,7 @@
         <f>IF('Inputs for Conserved Energy'!AB46&lt;&gt;"",'Inputs for Conserved Energy'!AB46,(IF(OR(J57&lt;&gt;"",K57&lt;&gt;"",L57&lt;&gt;"",M57&lt;&gt;""),((J57*0.00341214)+K57+L57-IF(I57="Electricity",M57*0.00341214,M57)),"")))</f>
         <v/>
       </c>
-      <c r="AQ57" s="299" t="str">
+      <c r="AQ57" s="235" t="str">
         <f>IF('Inputs for Conserved Energy'!AC46&lt;&gt;"",'Inputs for Conserved Energy'!AC46,IF(AND(AP57&lt;&gt;"",AP57&gt;0),AD57/AP57,""))</f>
         <v/>
       </c>
@@ -17034,10 +17076,10 @@
       </c>
     </row>
     <row r="58" spans="2:45" x14ac:dyDescent="0.35">
-      <c r="B58" s="219"/>
+      <c r="B58" s="243"/>
       <c r="C58" s="49"/>
       <c r="D58" s="146" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="E58" s="162" t="str">
@@ -17093,11 +17135,11 @@
         <f>IF('Inputs for Conserved Energy'!Q47&lt;&gt;"",'Inputs for Conserved Energy'!Q47,"")</f>
         <v/>
       </c>
-      <c r="S58" s="279" t="str">
+      <c r="S58" s="215" t="str">
         <f>IF('Inputs for Conserved Energy'!R47&lt;&gt;"",'Inputs for Conserved Energy'!R47,(IF(E58&lt;&gt;"",0.05,"")))</f>
         <v/>
       </c>
-      <c r="T58" s="281" t="str">
+      <c r="T58" s="217" t="str">
         <f>IF('Inputs for Conserved Energy'!S47&lt;&gt;"",'Inputs for Conserved Energy'!S47,(IF(E58&lt;&gt;"",10,"")))</f>
         <v/>
       </c>
@@ -17105,12 +17147,12 @@
         <f>IF('Inputs for Conserved Energy'!T47&lt;&gt;"",'Inputs for Conserved Energy'!T47,(IF(E58&lt;&gt;"",0.035,"")))</f>
         <v/>
       </c>
-      <c r="V58" s="280" t="str">
+      <c r="V58" s="216" t="str">
         <f>IF('Inputs for Conserved Energy'!U47&lt;&gt;"",'Inputs for Conserved Energy'!U47,(IF(E58&lt;&gt;"",0.035,"")))</f>
         <v/>
       </c>
       <c r="W58" s="177" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="X58" s="202">
@@ -17137,40 +17179,40 @@
         <f>IF(I58='Emission Factors'!$B$3,AB58,IF(I58='Emission Factors'!$B$4,'Emission Factors'!$C$4,IF(I58='Emission Factors'!$B$5,'Emission Factors'!$C$5,IF(I58='Emission Factors'!$B$6,'Emission Factors'!$C$6,IF(I58='Emission Factors'!$B$7,'Emission Factors'!$C$7,IF(I58='Emission Factors'!$B$8,'Emission Factors'!$C$8,IF(I58='Emission Factors'!$B$9,'Emission Factors'!$C$9,IF(I58='Emission Factors'!$B$10,'Emission Factors'!$C$10,IF(I58='Emission Factors'!$B$11,'Emission Factors'!$C$11,IF(I58='Emission Factors'!$B$12,'Emission Factors'!$C$12,IF(I58='Emission Factors'!$B$13,'Emission Factors'!$C$13,IF(I58='Emission Factors'!$B$14,'Emission Factors'!$C$14,0))))))))))))</f>
         <v>0</v>
       </c>
-      <c r="AD58" s="287" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="AE58" s="285" t="str">
+      <c r="AD58" s="223" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="AF58" s="286">
+      <c r="AE58" s="221" t="str">
         <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="AF58" s="222">
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AG58" s="117" t="e">
-        <f t="shared" si="21"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AH58" s="117" t="e">
         <f t="shared" si="22"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AI58" s="117" t="e">
+      <c r="AH58" s="117" t="e">
         <f t="shared" si="23"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AJ58" s="117" t="e">
+      <c r="AI58" s="117" t="e">
         <f t="shared" si="24"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AK58" s="117" t="e">
+      <c r="AJ58" s="117" t="e">
         <f t="shared" si="25"/>
         <v>#VALUE!</v>
       </c>
+      <c r="AK58" s="117" t="e">
+        <f t="shared" si="26"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="AL58" s="117" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>#VALUE!</v>
       </c>
       <c r="AM58" s="117">
@@ -17178,10 +17220,10 @@
         <v>0</v>
       </c>
       <c r="AN58" s="117" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="AO58" s="299" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="AO58" s="235" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
@@ -17189,7 +17231,7 @@
         <f>IF('Inputs for Conserved Energy'!AB47&lt;&gt;"",'Inputs for Conserved Energy'!AB47,(IF(OR(J58&lt;&gt;"",K58&lt;&gt;"",L58&lt;&gt;"",M58&lt;&gt;""),((J58*0.00341214)+K58+L58-IF(I58="Electricity",M58*0.00341214,M58)),"")))</f>
         <v/>
       </c>
-      <c r="AQ58" s="299" t="str">
+      <c r="AQ58" s="235" t="str">
         <f>IF('Inputs for Conserved Energy'!AC47&lt;&gt;"",'Inputs for Conserved Energy'!AC47,IF(AND(AP58&lt;&gt;"",AP58&gt;0),AD58/AP58,""))</f>
         <v/>
       </c>
@@ -17203,10 +17245,10 @@
       </c>
     </row>
     <row r="59" spans="2:45" x14ac:dyDescent="0.35">
-      <c r="B59" s="219"/>
+      <c r="B59" s="243"/>
       <c r="C59" s="49"/>
       <c r="D59" s="146" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="E59" s="162" t="str">
@@ -17262,11 +17304,11 @@
         <f>IF('Inputs for Conserved Energy'!Q48&lt;&gt;"",'Inputs for Conserved Energy'!Q48,"")</f>
         <v/>
       </c>
-      <c r="S59" s="279" t="str">
+      <c r="S59" s="215" t="str">
         <f>IF('Inputs for Conserved Energy'!R48&lt;&gt;"",'Inputs for Conserved Energy'!R48,(IF(E59&lt;&gt;"",0.05,"")))</f>
         <v/>
       </c>
-      <c r="T59" s="281" t="str">
+      <c r="T59" s="217" t="str">
         <f>IF('Inputs for Conserved Energy'!S48&lt;&gt;"",'Inputs for Conserved Energy'!S48,(IF(E59&lt;&gt;"",10,"")))</f>
         <v/>
       </c>
@@ -17274,12 +17316,12 @@
         <f>IF('Inputs for Conserved Energy'!T48&lt;&gt;"",'Inputs for Conserved Energy'!T48,(IF(E59&lt;&gt;"",0.035,"")))</f>
         <v/>
       </c>
-      <c r="V59" s="280" t="str">
+      <c r="V59" s="216" t="str">
         <f>IF('Inputs for Conserved Energy'!U48&lt;&gt;"",'Inputs for Conserved Energy'!U48,(IF(E59&lt;&gt;"",0.035,"")))</f>
         <v/>
       </c>
       <c r="W59" s="177" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="X59" s="202">
@@ -17306,40 +17348,40 @@
         <f>IF(I59='Emission Factors'!$B$3,AB59,IF(I59='Emission Factors'!$B$4,'Emission Factors'!$C$4,IF(I59='Emission Factors'!$B$5,'Emission Factors'!$C$5,IF(I59='Emission Factors'!$B$6,'Emission Factors'!$C$6,IF(I59='Emission Factors'!$B$7,'Emission Factors'!$C$7,IF(I59='Emission Factors'!$B$8,'Emission Factors'!$C$8,IF(I59='Emission Factors'!$B$9,'Emission Factors'!$C$9,IF(I59='Emission Factors'!$B$10,'Emission Factors'!$C$10,IF(I59='Emission Factors'!$B$11,'Emission Factors'!$C$11,IF(I59='Emission Factors'!$B$12,'Emission Factors'!$C$12,IF(I59='Emission Factors'!$B$13,'Emission Factors'!$C$13,IF(I59='Emission Factors'!$B$14,'Emission Factors'!$C$14,0))))))))))))</f>
         <v>0</v>
       </c>
-      <c r="AD59" s="287" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="AE59" s="285" t="str">
+      <c r="AD59" s="223" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="AF59" s="286">
+      <c r="AE59" s="221" t="str">
         <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="AF59" s="222">
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AG59" s="117" t="e">
-        <f t="shared" si="21"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AH59" s="117" t="e">
         <f t="shared" si="22"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AI59" s="117" t="e">
+      <c r="AH59" s="117" t="e">
         <f t="shared" si="23"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AJ59" s="117" t="e">
+      <c r="AI59" s="117" t="e">
         <f t="shared" si="24"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AK59" s="117" t="e">
+      <c r="AJ59" s="117" t="e">
         <f t="shared" si="25"/>
         <v>#VALUE!</v>
       </c>
+      <c r="AK59" s="117" t="e">
+        <f t="shared" si="26"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="AL59" s="117" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>#VALUE!</v>
       </c>
       <c r="AM59" s="117">
@@ -17347,10 +17389,10 @@
         <v>0</v>
       </c>
       <c r="AN59" s="117" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="AO59" s="299" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="AO59" s="235" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
@@ -17358,7 +17400,7 @@
         <f>IF('Inputs for Conserved Energy'!AB48&lt;&gt;"",'Inputs for Conserved Energy'!AB48,(IF(OR(J59&lt;&gt;"",K59&lt;&gt;"",L59&lt;&gt;"",M59&lt;&gt;""),((J59*0.00341214)+K59+L59-IF(I59="Electricity",M59*0.00341214,M59)),"")))</f>
         <v/>
       </c>
-      <c r="AQ59" s="299" t="str">
+      <c r="AQ59" s="235" t="str">
         <f>IF('Inputs for Conserved Energy'!AC48&lt;&gt;"",'Inputs for Conserved Energy'!AC48,IF(AND(AP59&lt;&gt;"",AP59&gt;0),AD59/AP59,""))</f>
         <v/>
       </c>
@@ -17372,10 +17414,10 @@
       </c>
     </row>
     <row r="60" spans="2:45" x14ac:dyDescent="0.35">
-      <c r="B60" s="219"/>
+      <c r="B60" s="243"/>
       <c r="C60" s="49"/>
       <c r="D60" s="146" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="E60" s="162" t="str">
@@ -17431,11 +17473,11 @@
         <f>IF('Inputs for Conserved Energy'!Q49&lt;&gt;"",'Inputs for Conserved Energy'!Q49,"")</f>
         <v/>
       </c>
-      <c r="S60" s="279" t="str">
+      <c r="S60" s="215" t="str">
         <f>IF('Inputs for Conserved Energy'!R49&lt;&gt;"",'Inputs for Conserved Energy'!R49,(IF(E60&lt;&gt;"",0.05,"")))</f>
         <v/>
       </c>
-      <c r="T60" s="281" t="str">
+      <c r="T60" s="217" t="str">
         <f>IF('Inputs for Conserved Energy'!S49&lt;&gt;"",'Inputs for Conserved Energy'!S49,(IF(E60&lt;&gt;"",10,"")))</f>
         <v/>
       </c>
@@ -17443,12 +17485,12 @@
         <f>IF('Inputs for Conserved Energy'!T49&lt;&gt;"",'Inputs for Conserved Energy'!T49,(IF(E60&lt;&gt;"",0.035,"")))</f>
         <v/>
       </c>
-      <c r="V60" s="280" t="str">
+      <c r="V60" s="216" t="str">
         <f>IF('Inputs for Conserved Energy'!U49&lt;&gt;"",'Inputs for Conserved Energy'!U49,(IF(E60&lt;&gt;"",0.035,"")))</f>
         <v/>
       </c>
       <c r="W60" s="177" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="X60" s="202">
@@ -17475,40 +17517,40 @@
         <f>IF(I60='Emission Factors'!$B$3,AB60,IF(I60='Emission Factors'!$B$4,'Emission Factors'!$C$4,IF(I60='Emission Factors'!$B$5,'Emission Factors'!$C$5,IF(I60='Emission Factors'!$B$6,'Emission Factors'!$C$6,IF(I60='Emission Factors'!$B$7,'Emission Factors'!$C$7,IF(I60='Emission Factors'!$B$8,'Emission Factors'!$C$8,IF(I60='Emission Factors'!$B$9,'Emission Factors'!$C$9,IF(I60='Emission Factors'!$B$10,'Emission Factors'!$C$10,IF(I60='Emission Factors'!$B$11,'Emission Factors'!$C$11,IF(I60='Emission Factors'!$B$12,'Emission Factors'!$C$12,IF(I60='Emission Factors'!$B$13,'Emission Factors'!$C$13,IF(I60='Emission Factors'!$B$14,'Emission Factors'!$C$14,0))))))))))))</f>
         <v>0</v>
       </c>
-      <c r="AD60" s="287" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="AE60" s="285" t="str">
+      <c r="AD60" s="223" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="AF60" s="286">
+      <c r="AE60" s="221" t="str">
         <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="AF60" s="222">
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AG60" s="117" t="e">
-        <f t="shared" si="21"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AH60" s="117" t="e">
         <f t="shared" si="22"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AI60" s="117" t="e">
+      <c r="AH60" s="117" t="e">
         <f t="shared" si="23"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AJ60" s="117" t="e">
+      <c r="AI60" s="117" t="e">
         <f t="shared" si="24"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AK60" s="117" t="e">
+      <c r="AJ60" s="117" t="e">
         <f t="shared" si="25"/>
         <v>#VALUE!</v>
       </c>
+      <c r="AK60" s="117" t="e">
+        <f t="shared" si="26"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="AL60" s="117" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>#VALUE!</v>
       </c>
       <c r="AM60" s="117">
@@ -17516,10 +17558,10 @@
         <v>0</v>
       </c>
       <c r="AN60" s="117" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="AO60" s="299" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="AO60" s="235" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
@@ -17527,7 +17569,7 @@
         <f>IF('Inputs for Conserved Energy'!AB49&lt;&gt;"",'Inputs for Conserved Energy'!AB49,(IF(OR(J60&lt;&gt;"",K60&lt;&gt;"",L60&lt;&gt;"",M60&lt;&gt;""),((J60*0.00341214)+K60+L60-IF(I60="Electricity",M60*0.00341214,M60)),"")))</f>
         <v/>
       </c>
-      <c r="AQ60" s="299" t="str">
+      <c r="AQ60" s="235" t="str">
         <f>IF('Inputs for Conserved Energy'!AC49&lt;&gt;"",'Inputs for Conserved Energy'!AC49,IF(AND(AP60&lt;&gt;"",AP60&gt;0),AD60/AP60,""))</f>
         <v/>
       </c>
@@ -17541,10 +17583,10 @@
       </c>
     </row>
     <row r="61" spans="2:45" x14ac:dyDescent="0.35">
-      <c r="B61" s="219"/>
+      <c r="B61" s="243"/>
       <c r="C61" s="49"/>
       <c r="D61" s="146" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="E61" s="162" t="str">
@@ -17600,11 +17642,11 @@
         <f>IF('Inputs for Conserved Energy'!Q50&lt;&gt;"",'Inputs for Conserved Energy'!Q50,"")</f>
         <v/>
       </c>
-      <c r="S61" s="279" t="str">
+      <c r="S61" s="215" t="str">
         <f>IF('Inputs for Conserved Energy'!R50&lt;&gt;"",'Inputs for Conserved Energy'!R50,(IF(E61&lt;&gt;"",0.05,"")))</f>
         <v/>
       </c>
-      <c r="T61" s="281" t="str">
+      <c r="T61" s="217" t="str">
         <f>IF('Inputs for Conserved Energy'!S50&lt;&gt;"",'Inputs for Conserved Energy'!S50,(IF(E61&lt;&gt;"",10,"")))</f>
         <v/>
       </c>
@@ -17612,12 +17654,12 @@
         <f>IF('Inputs for Conserved Energy'!T50&lt;&gt;"",'Inputs for Conserved Energy'!T50,(IF(E61&lt;&gt;"",0.035,"")))</f>
         <v/>
       </c>
-      <c r="V61" s="280" t="str">
+      <c r="V61" s="216" t="str">
         <f>IF('Inputs for Conserved Energy'!U50&lt;&gt;"",'Inputs for Conserved Energy'!U50,(IF(E61&lt;&gt;"",0.035,"")))</f>
         <v/>
       </c>
       <c r="W61" s="177" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="X61" s="202">
@@ -17644,40 +17686,40 @@
         <f>IF(I61='Emission Factors'!$B$3,AB61,IF(I61='Emission Factors'!$B$4,'Emission Factors'!$C$4,IF(I61='Emission Factors'!$B$5,'Emission Factors'!$C$5,IF(I61='Emission Factors'!$B$6,'Emission Factors'!$C$6,IF(I61='Emission Factors'!$B$7,'Emission Factors'!$C$7,IF(I61='Emission Factors'!$B$8,'Emission Factors'!$C$8,IF(I61='Emission Factors'!$B$9,'Emission Factors'!$C$9,IF(I61='Emission Factors'!$B$10,'Emission Factors'!$C$10,IF(I61='Emission Factors'!$B$11,'Emission Factors'!$C$11,IF(I61='Emission Factors'!$B$12,'Emission Factors'!$C$12,IF(I61='Emission Factors'!$B$13,'Emission Factors'!$C$13,IF(I61='Emission Factors'!$B$14,'Emission Factors'!$C$14,0))))))))))))</f>
         <v>0</v>
       </c>
-      <c r="AD61" s="287" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="AE61" s="285" t="str">
+      <c r="AD61" s="223" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="AF61" s="286">
+      <c r="AE61" s="221" t="str">
         <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="AF61" s="222">
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AG61" s="117" t="e">
-        <f t="shared" si="21"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AH61" s="117" t="e">
         <f t="shared" si="22"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AI61" s="117" t="e">
+      <c r="AH61" s="117" t="e">
         <f t="shared" si="23"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AJ61" s="117" t="e">
+      <c r="AI61" s="117" t="e">
         <f t="shared" si="24"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AK61" s="117" t="e">
+      <c r="AJ61" s="117" t="e">
         <f t="shared" si="25"/>
         <v>#VALUE!</v>
       </c>
+      <c r="AK61" s="117" t="e">
+        <f t="shared" si="26"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="AL61" s="117" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>#VALUE!</v>
       </c>
       <c r="AM61" s="117">
@@ -17685,10 +17727,10 @@
         <v>0</v>
       </c>
       <c r="AN61" s="117" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="AO61" s="299" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="AO61" s="235" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
@@ -17696,7 +17738,7 @@
         <f>IF('Inputs for Conserved Energy'!AB50&lt;&gt;"",'Inputs for Conserved Energy'!AB50,(IF(OR(J61&lt;&gt;"",K61&lt;&gt;"",L61&lt;&gt;"",M61&lt;&gt;""),((J61*0.00341214)+K61+L61-IF(I61="Electricity",M61*0.00341214,M61)),"")))</f>
         <v/>
       </c>
-      <c r="AQ61" s="299" t="str">
+      <c r="AQ61" s="235" t="str">
         <f>IF('Inputs for Conserved Energy'!AC50&lt;&gt;"",'Inputs for Conserved Energy'!AC50,IF(AND(AP61&lt;&gt;"",AP61&gt;0),AD61/AP61,""))</f>
         <v/>
       </c>
@@ -17710,10 +17752,10 @@
       </c>
     </row>
     <row r="62" spans="2:45" x14ac:dyDescent="0.35">
-      <c r="B62" s="219"/>
+      <c r="B62" s="243"/>
       <c r="C62" s="49"/>
       <c r="D62" s="146" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="E62" s="162" t="str">
@@ -17769,11 +17811,11 @@
         <f>IF('Inputs for Conserved Energy'!Q51&lt;&gt;"",'Inputs for Conserved Energy'!Q51,"")</f>
         <v/>
       </c>
-      <c r="S62" s="279" t="str">
+      <c r="S62" s="215" t="str">
         <f>IF('Inputs for Conserved Energy'!R51&lt;&gt;"",'Inputs for Conserved Energy'!R51,(IF(E62&lt;&gt;"",0.05,"")))</f>
         <v/>
       </c>
-      <c r="T62" s="281" t="str">
+      <c r="T62" s="217" t="str">
         <f>IF('Inputs for Conserved Energy'!S51&lt;&gt;"",'Inputs for Conserved Energy'!S51,(IF(E62&lt;&gt;"",10,"")))</f>
         <v/>
       </c>
@@ -17781,12 +17823,12 @@
         <f>IF('Inputs for Conserved Energy'!T51&lt;&gt;"",'Inputs for Conserved Energy'!T51,(IF(E62&lt;&gt;"",0.035,"")))</f>
         <v/>
       </c>
-      <c r="V62" s="280" t="str">
+      <c r="V62" s="216" t="str">
         <f>IF('Inputs for Conserved Energy'!U51&lt;&gt;"",'Inputs for Conserved Energy'!U51,(IF(E62&lt;&gt;"",0.035,"")))</f>
         <v/>
       </c>
       <c r="W62" s="177" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="X62" s="202">
@@ -17813,40 +17855,40 @@
         <f>IF(I62='Emission Factors'!$B$3,AB62,IF(I62='Emission Factors'!$B$4,'Emission Factors'!$C$4,IF(I62='Emission Factors'!$B$5,'Emission Factors'!$C$5,IF(I62='Emission Factors'!$B$6,'Emission Factors'!$C$6,IF(I62='Emission Factors'!$B$7,'Emission Factors'!$C$7,IF(I62='Emission Factors'!$B$8,'Emission Factors'!$C$8,IF(I62='Emission Factors'!$B$9,'Emission Factors'!$C$9,IF(I62='Emission Factors'!$B$10,'Emission Factors'!$C$10,IF(I62='Emission Factors'!$B$11,'Emission Factors'!$C$11,IF(I62='Emission Factors'!$B$12,'Emission Factors'!$C$12,IF(I62='Emission Factors'!$B$13,'Emission Factors'!$C$13,IF(I62='Emission Factors'!$B$14,'Emission Factors'!$C$14,0))))))))))))</f>
         <v>0</v>
       </c>
-      <c r="AD62" s="287" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="AE62" s="285" t="str">
+      <c r="AD62" s="223" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="AF62" s="286">
+      <c r="AE62" s="221" t="str">
         <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="AF62" s="222">
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AG62" s="117" t="e">
-        <f t="shared" si="21"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AH62" s="117" t="e">
         <f t="shared" si="22"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AI62" s="117" t="e">
+      <c r="AH62" s="117" t="e">
         <f t="shared" si="23"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AJ62" s="117" t="e">
+      <c r="AI62" s="117" t="e">
         <f t="shared" si="24"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AK62" s="117" t="e">
+      <c r="AJ62" s="117" t="e">
         <f t="shared" si="25"/>
         <v>#VALUE!</v>
       </c>
+      <c r="AK62" s="117" t="e">
+        <f t="shared" si="26"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="AL62" s="117" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>#VALUE!</v>
       </c>
       <c r="AM62" s="117">
@@ -17854,10 +17896,10 @@
         <v>0</v>
       </c>
       <c r="AN62" s="117" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="AO62" s="299" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="AO62" s="235" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
@@ -17865,7 +17907,7 @@
         <f>IF('Inputs for Conserved Energy'!AB51&lt;&gt;"",'Inputs for Conserved Energy'!AB51,(IF(OR(J62&lt;&gt;"",K62&lt;&gt;"",L62&lt;&gt;"",M62&lt;&gt;""),((J62*0.00341214)+K62+L62-IF(I62="Electricity",M62*0.00341214,M62)),"")))</f>
         <v/>
       </c>
-      <c r="AQ62" s="299" t="str">
+      <c r="AQ62" s="235" t="str">
         <f>IF('Inputs for Conserved Energy'!AC51&lt;&gt;"",'Inputs for Conserved Energy'!AC51,IF(AND(AP62&lt;&gt;"",AP62&gt;0),AD62/AP62,""))</f>
         <v/>
       </c>
@@ -17879,10 +17921,10 @@
       </c>
     </row>
     <row r="63" spans="2:45" x14ac:dyDescent="0.35">
-      <c r="B63" s="219"/>
+      <c r="B63" s="243"/>
       <c r="C63" s="49"/>
       <c r="D63" s="146" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="E63" s="162" t="str">
@@ -17938,11 +17980,11 @@
         <f>IF('Inputs for Conserved Energy'!Q52&lt;&gt;"",'Inputs for Conserved Energy'!Q52,"")</f>
         <v/>
       </c>
-      <c r="S63" s="279" t="str">
+      <c r="S63" s="215" t="str">
         <f>IF('Inputs for Conserved Energy'!R52&lt;&gt;"",'Inputs for Conserved Energy'!R52,(IF(E63&lt;&gt;"",0.05,"")))</f>
         <v/>
       </c>
-      <c r="T63" s="281" t="str">
+      <c r="T63" s="217" t="str">
         <f>IF('Inputs for Conserved Energy'!S52&lt;&gt;"",'Inputs for Conserved Energy'!S52,(IF(E63&lt;&gt;"",10,"")))</f>
         <v/>
       </c>
@@ -17950,12 +17992,12 @@
         <f>IF('Inputs for Conserved Energy'!T52&lt;&gt;"",'Inputs for Conserved Energy'!T52,(IF(E63&lt;&gt;"",0.035,"")))</f>
         <v/>
       </c>
-      <c r="V63" s="280" t="str">
+      <c r="V63" s="216" t="str">
         <f>IF('Inputs for Conserved Energy'!U52&lt;&gt;"",'Inputs for Conserved Energy'!U52,(IF(E63&lt;&gt;"",0.035,"")))</f>
         <v/>
       </c>
       <c r="W63" s="177" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="X63" s="202">
@@ -17982,40 +18024,40 @@
         <f>IF(I63='Emission Factors'!$B$3,AB63,IF(I63='Emission Factors'!$B$4,'Emission Factors'!$C$4,IF(I63='Emission Factors'!$B$5,'Emission Factors'!$C$5,IF(I63='Emission Factors'!$B$6,'Emission Factors'!$C$6,IF(I63='Emission Factors'!$B$7,'Emission Factors'!$C$7,IF(I63='Emission Factors'!$B$8,'Emission Factors'!$C$8,IF(I63='Emission Factors'!$B$9,'Emission Factors'!$C$9,IF(I63='Emission Factors'!$B$10,'Emission Factors'!$C$10,IF(I63='Emission Factors'!$B$11,'Emission Factors'!$C$11,IF(I63='Emission Factors'!$B$12,'Emission Factors'!$C$12,IF(I63='Emission Factors'!$B$13,'Emission Factors'!$C$13,IF(I63='Emission Factors'!$B$14,'Emission Factors'!$C$14,0))))))))))))</f>
         <v>0</v>
       </c>
-      <c r="AD63" s="287" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="AE63" s="285" t="str">
+      <c r="AD63" s="223" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="AF63" s="286">
+      <c r="AE63" s="221" t="str">
         <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="AF63" s="222">
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AG63" s="117" t="e">
-        <f t="shared" si="21"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AH63" s="117" t="e">
         <f t="shared" si="22"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AI63" s="117" t="e">
+      <c r="AH63" s="117" t="e">
         <f t="shared" si="23"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AJ63" s="117" t="e">
+      <c r="AI63" s="117" t="e">
         <f t="shared" si="24"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AK63" s="117" t="e">
+      <c r="AJ63" s="117" t="e">
         <f t="shared" si="25"/>
         <v>#VALUE!</v>
       </c>
+      <c r="AK63" s="117" t="e">
+        <f t="shared" si="26"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="AL63" s="117" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>#VALUE!</v>
       </c>
       <c r="AM63" s="117">
@@ -18023,10 +18065,10 @@
         <v>0</v>
       </c>
       <c r="AN63" s="117" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="AO63" s="299" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="AO63" s="235" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
@@ -18034,7 +18076,7 @@
         <f>IF('Inputs for Conserved Energy'!AB52&lt;&gt;"",'Inputs for Conserved Energy'!AB52,(IF(OR(J63&lt;&gt;"",K63&lt;&gt;"",L63&lt;&gt;"",M63&lt;&gt;""),((J63*0.00341214)+K63+L63-IF(I63="Electricity",M63*0.00341214,M63)),"")))</f>
         <v/>
       </c>
-      <c r="AQ63" s="299" t="str">
+      <c r="AQ63" s="235" t="str">
         <f>IF('Inputs for Conserved Energy'!AC52&lt;&gt;"",'Inputs for Conserved Energy'!AC52,IF(AND(AP63&lt;&gt;"",AP63&gt;0),AD63/AP63,""))</f>
         <v/>
       </c>
@@ -18048,10 +18090,10 @@
       </c>
     </row>
     <row r="64" spans="2:45" x14ac:dyDescent="0.35">
-      <c r="B64" s="219"/>
+      <c r="B64" s="243"/>
       <c r="C64" s="49"/>
       <c r="D64" s="146" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="E64" s="162" t="str">
@@ -18107,11 +18149,11 @@
         <f>IF('Inputs for Conserved Energy'!Q53&lt;&gt;"",'Inputs for Conserved Energy'!Q53,"")</f>
         <v/>
       </c>
-      <c r="S64" s="279" t="str">
+      <c r="S64" s="215" t="str">
         <f>IF('Inputs for Conserved Energy'!R53&lt;&gt;"",'Inputs for Conserved Energy'!R53,(IF(E64&lt;&gt;"",0.05,"")))</f>
         <v/>
       </c>
-      <c r="T64" s="281" t="str">
+      <c r="T64" s="217" t="str">
         <f>IF('Inputs for Conserved Energy'!S53&lt;&gt;"",'Inputs for Conserved Energy'!S53,(IF(E64&lt;&gt;"",10,"")))</f>
         <v/>
       </c>
@@ -18119,12 +18161,12 @@
         <f>IF('Inputs for Conserved Energy'!T53&lt;&gt;"",'Inputs for Conserved Energy'!T53,(IF(E64&lt;&gt;"",0.035,"")))</f>
         <v/>
       </c>
-      <c r="V64" s="280" t="str">
+      <c r="V64" s="216" t="str">
         <f>IF('Inputs for Conserved Energy'!U53&lt;&gt;"",'Inputs for Conserved Energy'!U53,(IF(E64&lt;&gt;"",0.035,"")))</f>
         <v/>
       </c>
       <c r="W64" s="177" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="X64" s="202">
@@ -18151,40 +18193,40 @@
         <f>IF(I64='Emission Factors'!$B$3,AB64,IF(I64='Emission Factors'!$B$4,'Emission Factors'!$C$4,IF(I64='Emission Factors'!$B$5,'Emission Factors'!$C$5,IF(I64='Emission Factors'!$B$6,'Emission Factors'!$C$6,IF(I64='Emission Factors'!$B$7,'Emission Factors'!$C$7,IF(I64='Emission Factors'!$B$8,'Emission Factors'!$C$8,IF(I64='Emission Factors'!$B$9,'Emission Factors'!$C$9,IF(I64='Emission Factors'!$B$10,'Emission Factors'!$C$10,IF(I64='Emission Factors'!$B$11,'Emission Factors'!$C$11,IF(I64='Emission Factors'!$B$12,'Emission Factors'!$C$12,IF(I64='Emission Factors'!$B$13,'Emission Factors'!$C$13,IF(I64='Emission Factors'!$B$14,'Emission Factors'!$C$14,0))))))))))))</f>
         <v>0</v>
       </c>
-      <c r="AD64" s="287" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="AE64" s="285" t="str">
+      <c r="AD64" s="223" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="AF64" s="286">
+      <c r="AE64" s="221" t="str">
         <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="AF64" s="222">
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AG64" s="117" t="e">
-        <f t="shared" si="21"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AH64" s="117" t="e">
         <f t="shared" si="22"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AI64" s="117" t="e">
+      <c r="AH64" s="117" t="e">
         <f t="shared" si="23"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AJ64" s="117" t="e">
+      <c r="AI64" s="117" t="e">
         <f t="shared" si="24"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AK64" s="117" t="e">
+      <c r="AJ64" s="117" t="e">
         <f t="shared" si="25"/>
         <v>#VALUE!</v>
       </c>
+      <c r="AK64" s="117" t="e">
+        <f t="shared" si="26"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="AL64" s="117" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>#VALUE!</v>
       </c>
       <c r="AM64" s="117">
@@ -18192,10 +18234,10 @@
         <v>0</v>
       </c>
       <c r="AN64" s="117" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="AO64" s="299" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="AO64" s="235" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
@@ -18203,7 +18245,7 @@
         <f>IF('Inputs for Conserved Energy'!AB53&lt;&gt;"",'Inputs for Conserved Energy'!AB53,(IF(OR(J64&lt;&gt;"",K64&lt;&gt;"",L64&lt;&gt;"",M64&lt;&gt;""),((J64*0.00341214)+K64+L64-IF(I64="Electricity",M64*0.00341214,M64)),"")))</f>
         <v/>
       </c>
-      <c r="AQ64" s="299" t="str">
+      <c r="AQ64" s="235" t="str">
         <f>IF('Inputs for Conserved Energy'!AC53&lt;&gt;"",'Inputs for Conserved Energy'!AC53,IF(AND(AP64&lt;&gt;"",AP64&gt;0),AD64/AP64,""))</f>
         <v/>
       </c>
@@ -18217,10 +18259,10 @@
       </c>
     </row>
     <row r="65" spans="2:45" x14ac:dyDescent="0.35">
-      <c r="B65" s="219"/>
+      <c r="B65" s="243"/>
       <c r="C65" s="49"/>
       <c r="D65" s="146" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="E65" s="162" t="str">
@@ -18276,11 +18318,11 @@
         <f>IF('Inputs for Conserved Energy'!Q54&lt;&gt;"",'Inputs for Conserved Energy'!Q54,"")</f>
         <v/>
       </c>
-      <c r="S65" s="279" t="str">
+      <c r="S65" s="215" t="str">
         <f>IF('Inputs for Conserved Energy'!R54&lt;&gt;"",'Inputs for Conserved Energy'!R54,(IF(E65&lt;&gt;"",0.05,"")))</f>
         <v/>
       </c>
-      <c r="T65" s="281" t="str">
+      <c r="T65" s="217" t="str">
         <f>IF('Inputs for Conserved Energy'!S54&lt;&gt;"",'Inputs for Conserved Energy'!S54,(IF(E65&lt;&gt;"",10,"")))</f>
         <v/>
       </c>
@@ -18288,12 +18330,12 @@
         <f>IF('Inputs for Conserved Energy'!T54&lt;&gt;"",'Inputs for Conserved Energy'!T54,(IF(E65&lt;&gt;"",0.035,"")))</f>
         <v/>
       </c>
-      <c r="V65" s="280" t="str">
+      <c r="V65" s="216" t="str">
         <f>IF('Inputs for Conserved Energy'!U54&lt;&gt;"",'Inputs for Conserved Energy'!U54,(IF(E65&lt;&gt;"",0.035,"")))</f>
         <v/>
       </c>
       <c r="W65" s="177" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="X65" s="202">
@@ -18320,40 +18362,40 @@
         <f>IF(I65='Emission Factors'!$B$3,AB65,IF(I65='Emission Factors'!$B$4,'Emission Factors'!$C$4,IF(I65='Emission Factors'!$B$5,'Emission Factors'!$C$5,IF(I65='Emission Factors'!$B$6,'Emission Factors'!$C$6,IF(I65='Emission Factors'!$B$7,'Emission Factors'!$C$7,IF(I65='Emission Factors'!$B$8,'Emission Factors'!$C$8,IF(I65='Emission Factors'!$B$9,'Emission Factors'!$C$9,IF(I65='Emission Factors'!$B$10,'Emission Factors'!$C$10,IF(I65='Emission Factors'!$B$11,'Emission Factors'!$C$11,IF(I65='Emission Factors'!$B$12,'Emission Factors'!$C$12,IF(I65='Emission Factors'!$B$13,'Emission Factors'!$C$13,IF(I65='Emission Factors'!$B$14,'Emission Factors'!$C$14,0))))))))))))</f>
         <v>0</v>
       </c>
-      <c r="AD65" s="287" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="AE65" s="285" t="str">
+      <c r="AD65" s="223" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="AF65" s="286">
+      <c r="AE65" s="221" t="str">
         <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="AF65" s="222">
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AG65" s="117" t="e">
-        <f t="shared" si="21"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AH65" s="117" t="e">
         <f t="shared" si="22"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AI65" s="117" t="e">
+      <c r="AH65" s="117" t="e">
         <f t="shared" si="23"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AJ65" s="117" t="e">
+      <c r="AI65" s="117" t="e">
         <f t="shared" si="24"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AK65" s="117" t="e">
+      <c r="AJ65" s="117" t="e">
         <f t="shared" si="25"/>
         <v>#VALUE!</v>
       </c>
+      <c r="AK65" s="117" t="e">
+        <f t="shared" si="26"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="AL65" s="117" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>#VALUE!</v>
       </c>
       <c r="AM65" s="117">
@@ -18361,10 +18403,10 @@
         <v>0</v>
       </c>
       <c r="AN65" s="117" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="AO65" s="299" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="AO65" s="235" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
@@ -18372,7 +18414,7 @@
         <f>IF('Inputs for Conserved Energy'!AB54&lt;&gt;"",'Inputs for Conserved Energy'!AB54,(IF(OR(J65&lt;&gt;"",K65&lt;&gt;"",L65&lt;&gt;"",M65&lt;&gt;""),((J65*0.00341214)+K65+L65-IF(I65="Electricity",M65*0.00341214,M65)),"")))</f>
         <v/>
       </c>
-      <c r="AQ65" s="299" t="str">
+      <c r="AQ65" s="235" t="str">
         <f>IF('Inputs for Conserved Energy'!AC54&lt;&gt;"",'Inputs for Conserved Energy'!AC54,IF(AND(AP65&lt;&gt;"",AP65&gt;0),AD65/AP65,""))</f>
         <v/>
       </c>
@@ -18386,10 +18428,10 @@
       </c>
     </row>
     <row r="66" spans="2:45" x14ac:dyDescent="0.35">
-      <c r="B66" s="219"/>
+      <c r="B66" s="243"/>
       <c r="C66" s="49"/>
       <c r="D66" s="146" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="E66" s="162" t="str">
@@ -18445,11 +18487,11 @@
         <f>IF('Inputs for Conserved Energy'!Q55&lt;&gt;"",'Inputs for Conserved Energy'!Q55,"")</f>
         <v/>
       </c>
-      <c r="S66" s="279" t="str">
+      <c r="S66" s="215" t="str">
         <f>IF('Inputs for Conserved Energy'!R55&lt;&gt;"",'Inputs for Conserved Energy'!R55,(IF(E66&lt;&gt;"",0.05,"")))</f>
         <v/>
       </c>
-      <c r="T66" s="281" t="str">
+      <c r="T66" s="217" t="str">
         <f>IF('Inputs for Conserved Energy'!S55&lt;&gt;"",'Inputs for Conserved Energy'!S55,(IF(E66&lt;&gt;"",10,"")))</f>
         <v/>
       </c>
@@ -18457,12 +18499,12 @@
         <f>IF('Inputs for Conserved Energy'!T55&lt;&gt;"",'Inputs for Conserved Energy'!T55,(IF(E66&lt;&gt;"",0.035,"")))</f>
         <v/>
       </c>
-      <c r="V66" s="280" t="str">
+      <c r="V66" s="216" t="str">
         <f>IF('Inputs for Conserved Energy'!U55&lt;&gt;"",'Inputs for Conserved Energy'!U55,(IF(E66&lt;&gt;"",0.035,"")))</f>
         <v/>
       </c>
       <c r="W66" s="177" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="X66" s="202">
@@ -18489,40 +18531,40 @@
         <f>IF(I66='Emission Factors'!$B$3,AB66,IF(I66='Emission Factors'!$B$4,'Emission Factors'!$C$4,IF(I66='Emission Factors'!$B$5,'Emission Factors'!$C$5,IF(I66='Emission Factors'!$B$6,'Emission Factors'!$C$6,IF(I66='Emission Factors'!$B$7,'Emission Factors'!$C$7,IF(I66='Emission Factors'!$B$8,'Emission Factors'!$C$8,IF(I66='Emission Factors'!$B$9,'Emission Factors'!$C$9,IF(I66='Emission Factors'!$B$10,'Emission Factors'!$C$10,IF(I66='Emission Factors'!$B$11,'Emission Factors'!$C$11,IF(I66='Emission Factors'!$B$12,'Emission Factors'!$C$12,IF(I66='Emission Factors'!$B$13,'Emission Factors'!$C$13,IF(I66='Emission Factors'!$B$14,'Emission Factors'!$C$14,0))))))))))))</f>
         <v>0</v>
       </c>
-      <c r="AD66" s="287" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="AE66" s="285" t="str">
+      <c r="AD66" s="223" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="AF66" s="286">
+      <c r="AE66" s="221" t="str">
         <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="AF66" s="222">
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AG66" s="117" t="e">
-        <f t="shared" si="21"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AH66" s="117" t="e">
         <f t="shared" si="22"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AI66" s="117" t="e">
+      <c r="AH66" s="117" t="e">
         <f t="shared" si="23"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AJ66" s="117" t="e">
+      <c r="AI66" s="117" t="e">
         <f t="shared" si="24"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AK66" s="117" t="e">
+      <c r="AJ66" s="117" t="e">
         <f t="shared" si="25"/>
         <v>#VALUE!</v>
       </c>
+      <c r="AK66" s="117" t="e">
+        <f t="shared" si="26"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="AL66" s="117" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>#VALUE!</v>
       </c>
       <c r="AM66" s="117">
@@ -18530,10 +18572,10 @@
         <v>0</v>
       </c>
       <c r="AN66" s="117" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="AO66" s="299" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="AO66" s="235" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
@@ -18541,7 +18583,7 @@
         <f>IF('Inputs for Conserved Energy'!AB55&lt;&gt;"",'Inputs for Conserved Energy'!AB55,(IF(OR(J66&lt;&gt;"",K66&lt;&gt;"",L66&lt;&gt;"",M66&lt;&gt;""),((J66*0.00341214)+K66+L66-IF(I66="Electricity",M66*0.00341214,M66)),"")))</f>
         <v/>
       </c>
-      <c r="AQ66" s="299" t="str">
+      <c r="AQ66" s="235" t="str">
         <f>IF('Inputs for Conserved Energy'!AC55&lt;&gt;"",'Inputs for Conserved Energy'!AC55,IF(AND(AP66&lt;&gt;"",AP66&gt;0),AD66/AP66,""))</f>
         <v/>
       </c>
@@ -18555,10 +18597,10 @@
       </c>
     </row>
     <row r="67" spans="2:45" x14ac:dyDescent="0.35">
-      <c r="B67" s="219"/>
+      <c r="B67" s="243"/>
       <c r="C67" s="49"/>
       <c r="D67" s="146" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="E67" s="162" t="str">
@@ -18614,11 +18656,11 @@
         <f>IF('Inputs for Conserved Energy'!Q56&lt;&gt;"",'Inputs for Conserved Energy'!Q56,"")</f>
         <v/>
       </c>
-      <c r="S67" s="279" t="str">
+      <c r="S67" s="215" t="str">
         <f>IF('Inputs for Conserved Energy'!R56&lt;&gt;"",'Inputs for Conserved Energy'!R56,(IF(E67&lt;&gt;"",0.05,"")))</f>
         <v/>
       </c>
-      <c r="T67" s="281" t="str">
+      <c r="T67" s="217" t="str">
         <f>IF('Inputs for Conserved Energy'!S56&lt;&gt;"",'Inputs for Conserved Energy'!S56,(IF(E67&lt;&gt;"",10,"")))</f>
         <v/>
       </c>
@@ -18626,12 +18668,12 @@
         <f>IF('Inputs for Conserved Energy'!T56&lt;&gt;"",'Inputs for Conserved Energy'!T56,(IF(E67&lt;&gt;"",0.035,"")))</f>
         <v/>
       </c>
-      <c r="V67" s="280" t="str">
+      <c r="V67" s="216" t="str">
         <f>IF('Inputs for Conserved Energy'!U56&lt;&gt;"",'Inputs for Conserved Energy'!U56,(IF(E67&lt;&gt;"",0.035,"")))</f>
         <v/>
       </c>
       <c r="W67" s="177" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="X67" s="202">
@@ -18658,40 +18700,40 @@
         <f>IF(I67='Emission Factors'!$B$3,AB67,IF(I67='Emission Factors'!$B$4,'Emission Factors'!$C$4,IF(I67='Emission Factors'!$B$5,'Emission Factors'!$C$5,IF(I67='Emission Factors'!$B$6,'Emission Factors'!$C$6,IF(I67='Emission Factors'!$B$7,'Emission Factors'!$C$7,IF(I67='Emission Factors'!$B$8,'Emission Factors'!$C$8,IF(I67='Emission Factors'!$B$9,'Emission Factors'!$C$9,IF(I67='Emission Factors'!$B$10,'Emission Factors'!$C$10,IF(I67='Emission Factors'!$B$11,'Emission Factors'!$C$11,IF(I67='Emission Factors'!$B$12,'Emission Factors'!$C$12,IF(I67='Emission Factors'!$B$13,'Emission Factors'!$C$13,IF(I67='Emission Factors'!$B$14,'Emission Factors'!$C$14,0))))))))))))</f>
         <v>0</v>
       </c>
-      <c r="AD67" s="287" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="AE67" s="285" t="str">
+      <c r="AD67" s="223" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="AF67" s="286">
+      <c r="AE67" s="221" t="str">
         <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="AF67" s="222">
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AG67" s="117" t="e">
-        <f t="shared" si="21"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AH67" s="117" t="e">
         <f t="shared" si="22"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AI67" s="117" t="e">
+      <c r="AH67" s="117" t="e">
         <f t="shared" si="23"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AJ67" s="117" t="e">
+      <c r="AI67" s="117" t="e">
         <f t="shared" si="24"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AK67" s="117" t="e">
+      <c r="AJ67" s="117" t="e">
         <f t="shared" si="25"/>
         <v>#VALUE!</v>
       </c>
+      <c r="AK67" s="117" t="e">
+        <f t="shared" si="26"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="AL67" s="117" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>#VALUE!</v>
       </c>
       <c r="AM67" s="117">
@@ -18699,10 +18741,10 @@
         <v>0</v>
       </c>
       <c r="AN67" s="117" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="AO67" s="299" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="AO67" s="235" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
@@ -18710,7 +18752,7 @@
         <f>IF('Inputs for Conserved Energy'!AB56&lt;&gt;"",'Inputs for Conserved Energy'!AB56,(IF(OR(J67&lt;&gt;"",K67&lt;&gt;"",L67&lt;&gt;"",M67&lt;&gt;""),((J67*0.00341214)+K67+L67-IF(I67="Electricity",M67*0.00341214,M67)),"")))</f>
         <v/>
       </c>
-      <c r="AQ67" s="299" t="str">
+      <c r="AQ67" s="235" t="str">
         <f>IF('Inputs for Conserved Energy'!AC56&lt;&gt;"",'Inputs for Conserved Energy'!AC56,IF(AND(AP67&lt;&gt;"",AP67&gt;0),AD67/AP67,""))</f>
         <v/>
       </c>
@@ -18724,10 +18766,10 @@
       </c>
     </row>
     <row r="68" spans="2:45" x14ac:dyDescent="0.35">
-      <c r="B68" s="219"/>
+      <c r="B68" s="243"/>
       <c r="C68" s="49"/>
       <c r="D68" s="146" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="E68" s="162" t="str">
@@ -18783,11 +18825,11 @@
         <f>IF('Inputs for Conserved Energy'!Q57&lt;&gt;"",'Inputs for Conserved Energy'!Q57,"")</f>
         <v/>
       </c>
-      <c r="S68" s="279" t="str">
+      <c r="S68" s="215" t="str">
         <f>IF('Inputs for Conserved Energy'!R57&lt;&gt;"",'Inputs for Conserved Energy'!R57,(IF(E68&lt;&gt;"",0.05,"")))</f>
         <v/>
       </c>
-      <c r="T68" s="281" t="str">
+      <c r="T68" s="217" t="str">
         <f>IF('Inputs for Conserved Energy'!S57&lt;&gt;"",'Inputs for Conserved Energy'!S57,(IF(E68&lt;&gt;"",10,"")))</f>
         <v/>
       </c>
@@ -18795,12 +18837,12 @@
         <f>IF('Inputs for Conserved Energy'!T57&lt;&gt;"",'Inputs for Conserved Energy'!T57,(IF(E68&lt;&gt;"",0.035,"")))</f>
         <v/>
       </c>
-      <c r="V68" s="280" t="str">
+      <c r="V68" s="216" t="str">
         <f>IF('Inputs for Conserved Energy'!U57&lt;&gt;"",'Inputs for Conserved Energy'!U57,(IF(E68&lt;&gt;"",0.035,"")))</f>
         <v/>
       </c>
       <c r="W68" s="177" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="X68" s="202">
@@ -18827,40 +18869,40 @@
         <f>IF(I68='Emission Factors'!$B$3,AB68,IF(I68='Emission Factors'!$B$4,'Emission Factors'!$C$4,IF(I68='Emission Factors'!$B$5,'Emission Factors'!$C$5,IF(I68='Emission Factors'!$B$6,'Emission Factors'!$C$6,IF(I68='Emission Factors'!$B$7,'Emission Factors'!$C$7,IF(I68='Emission Factors'!$B$8,'Emission Factors'!$C$8,IF(I68='Emission Factors'!$B$9,'Emission Factors'!$C$9,IF(I68='Emission Factors'!$B$10,'Emission Factors'!$C$10,IF(I68='Emission Factors'!$B$11,'Emission Factors'!$C$11,IF(I68='Emission Factors'!$B$12,'Emission Factors'!$C$12,IF(I68='Emission Factors'!$B$13,'Emission Factors'!$C$13,IF(I68='Emission Factors'!$B$14,'Emission Factors'!$C$14,0))))))))))))</f>
         <v>0</v>
       </c>
-      <c r="AD68" s="287" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="AE68" s="285" t="str">
+      <c r="AD68" s="223" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="AF68" s="286">
+      <c r="AE68" s="221" t="str">
         <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="AF68" s="222">
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AG68" s="117" t="e">
-        <f t="shared" si="21"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AH68" s="117" t="e">
         <f t="shared" si="22"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AI68" s="117" t="e">
+      <c r="AH68" s="117" t="e">
         <f t="shared" si="23"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AJ68" s="117" t="e">
+      <c r="AI68" s="117" t="e">
         <f t="shared" si="24"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AK68" s="117" t="e">
+      <c r="AJ68" s="117" t="e">
         <f t="shared" si="25"/>
         <v>#VALUE!</v>
       </c>
+      <c r="AK68" s="117" t="e">
+        <f t="shared" si="26"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="AL68" s="117" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>#VALUE!</v>
       </c>
       <c r="AM68" s="117">
@@ -18868,10 +18910,10 @@
         <v>0</v>
       </c>
       <c r="AN68" s="117" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="AO68" s="299" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="AO68" s="235" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
@@ -18879,7 +18921,7 @@
         <f>IF('Inputs for Conserved Energy'!AB57&lt;&gt;"",'Inputs for Conserved Energy'!AB57,(IF(OR(J68&lt;&gt;"",K68&lt;&gt;"",L68&lt;&gt;"",M68&lt;&gt;""),((J68*0.00341214)+K68+L68-IF(I68="Electricity",M68*0.00341214,M68)),"")))</f>
         <v/>
       </c>
-      <c r="AQ68" s="299" t="str">
+      <c r="AQ68" s="235" t="str">
         <f>IF('Inputs for Conserved Energy'!AC57&lt;&gt;"",'Inputs for Conserved Energy'!AC57,IF(AND(AP68&lt;&gt;"",AP68&gt;0),AD68/AP68,""))</f>
         <v/>
       </c>
@@ -18893,10 +18935,10 @@
       </c>
     </row>
     <row r="69" spans="2:45" x14ac:dyDescent="0.35">
-      <c r="B69" s="219"/>
+      <c r="B69" s="243"/>
       <c r="C69" s="49"/>
       <c r="D69" s="146" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="E69" s="162" t="str">
@@ -18952,11 +18994,11 @@
         <f>IF('Inputs for Conserved Energy'!Q58&lt;&gt;"",'Inputs for Conserved Energy'!Q58,"")</f>
         <v/>
       </c>
-      <c r="S69" s="279" t="str">
+      <c r="S69" s="215" t="str">
         <f>IF('Inputs for Conserved Energy'!R58&lt;&gt;"",'Inputs for Conserved Energy'!R58,(IF(E69&lt;&gt;"",0.05,"")))</f>
         <v/>
       </c>
-      <c r="T69" s="281" t="str">
+      <c r="T69" s="217" t="str">
         <f>IF('Inputs for Conserved Energy'!S58&lt;&gt;"",'Inputs for Conserved Energy'!S58,(IF(E69&lt;&gt;"",10,"")))</f>
         <v/>
       </c>
@@ -18964,12 +19006,12 @@
         <f>IF('Inputs for Conserved Energy'!T58&lt;&gt;"",'Inputs for Conserved Energy'!T58,(IF(E69&lt;&gt;"",0.035,"")))</f>
         <v/>
       </c>
-      <c r="V69" s="280" t="str">
+      <c r="V69" s="216" t="str">
         <f>IF('Inputs for Conserved Energy'!U58&lt;&gt;"",'Inputs for Conserved Energy'!U58,(IF(E69&lt;&gt;"",0.035,"")))</f>
         <v/>
       </c>
       <c r="W69" s="177" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="X69" s="202">
@@ -18996,40 +19038,40 @@
         <f>IF(I69='Emission Factors'!$B$3,AB69,IF(I69='Emission Factors'!$B$4,'Emission Factors'!$C$4,IF(I69='Emission Factors'!$B$5,'Emission Factors'!$C$5,IF(I69='Emission Factors'!$B$6,'Emission Factors'!$C$6,IF(I69='Emission Factors'!$B$7,'Emission Factors'!$C$7,IF(I69='Emission Factors'!$B$8,'Emission Factors'!$C$8,IF(I69='Emission Factors'!$B$9,'Emission Factors'!$C$9,IF(I69='Emission Factors'!$B$10,'Emission Factors'!$C$10,IF(I69='Emission Factors'!$B$11,'Emission Factors'!$C$11,IF(I69='Emission Factors'!$B$12,'Emission Factors'!$C$12,IF(I69='Emission Factors'!$B$13,'Emission Factors'!$C$13,IF(I69='Emission Factors'!$B$14,'Emission Factors'!$C$14,0))))))))))))</f>
         <v>0</v>
       </c>
-      <c r="AD69" s="287" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="AE69" s="285" t="str">
+      <c r="AD69" s="223" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="AF69" s="286">
+      <c r="AE69" s="221" t="str">
         <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="AF69" s="222">
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AG69" s="117" t="e">
-        <f t="shared" si="21"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AH69" s="117" t="e">
         <f t="shared" si="22"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AI69" s="117" t="e">
+      <c r="AH69" s="117" t="e">
         <f t="shared" si="23"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AJ69" s="117" t="e">
+      <c r="AI69" s="117" t="e">
         <f t="shared" si="24"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AK69" s="117" t="e">
+      <c r="AJ69" s="117" t="e">
         <f t="shared" si="25"/>
         <v>#VALUE!</v>
       </c>
+      <c r="AK69" s="117" t="e">
+        <f t="shared" si="26"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="AL69" s="117" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>#VALUE!</v>
       </c>
       <c r="AM69" s="117">
@@ -19037,10 +19079,10 @@
         <v>0</v>
       </c>
       <c r="AN69" s="117" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="AO69" s="299" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="AO69" s="235" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
@@ -19048,7 +19090,7 @@
         <f>IF('Inputs for Conserved Energy'!AB58&lt;&gt;"",'Inputs for Conserved Energy'!AB58,(IF(OR(J69&lt;&gt;"",K69&lt;&gt;"",L69&lt;&gt;"",M69&lt;&gt;""),((J69*0.00341214)+K69+L69-IF(I69="Electricity",M69*0.00341214,M69)),"")))</f>
         <v/>
       </c>
-      <c r="AQ69" s="299" t="str">
+      <c r="AQ69" s="235" t="str">
         <f>IF('Inputs for Conserved Energy'!AC58&lt;&gt;"",'Inputs for Conserved Energy'!AC58,IF(AND(AP69&lt;&gt;"",AP69&gt;0),AD69/AP69,""))</f>
         <v/>
       </c>
@@ -19062,10 +19104,10 @@
       </c>
     </row>
     <row r="70" spans="2:45" x14ac:dyDescent="0.35">
-      <c r="B70" s="219"/>
+      <c r="B70" s="243"/>
       <c r="C70" s="49"/>
       <c r="D70" s="146" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="E70" s="162" t="str">
@@ -19121,11 +19163,11 @@
         <f>IF('Inputs for Conserved Energy'!Q59&lt;&gt;"",'Inputs for Conserved Energy'!Q59,"")</f>
         <v/>
       </c>
-      <c r="S70" s="279" t="str">
+      <c r="S70" s="215" t="str">
         <f>IF('Inputs for Conserved Energy'!R59&lt;&gt;"",'Inputs for Conserved Energy'!R59,(IF(E70&lt;&gt;"",0.05,"")))</f>
         <v/>
       </c>
-      <c r="T70" s="281" t="str">
+      <c r="T70" s="217" t="str">
         <f>IF('Inputs for Conserved Energy'!S59&lt;&gt;"",'Inputs for Conserved Energy'!S59,(IF(E70&lt;&gt;"",10,"")))</f>
         <v/>
       </c>
@@ -19133,12 +19175,12 @@
         <f>IF('Inputs for Conserved Energy'!T59&lt;&gt;"",'Inputs for Conserved Energy'!T59,(IF(E70&lt;&gt;"",0.035,"")))</f>
         <v/>
       </c>
-      <c r="V70" s="280" t="str">
+      <c r="V70" s="216" t="str">
         <f>IF('Inputs for Conserved Energy'!U59&lt;&gt;"",'Inputs for Conserved Energy'!U59,(IF(E70&lt;&gt;"",0.035,"")))</f>
         <v/>
       </c>
       <c r="W70" s="177" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="X70" s="202">
@@ -19165,40 +19207,40 @@
         <f>IF(I70='Emission Factors'!$B$3,AB70,IF(I70='Emission Factors'!$B$4,'Emission Factors'!$C$4,IF(I70='Emission Factors'!$B$5,'Emission Factors'!$C$5,IF(I70='Emission Factors'!$B$6,'Emission Factors'!$C$6,IF(I70='Emission Factors'!$B$7,'Emission Factors'!$C$7,IF(I70='Emission Factors'!$B$8,'Emission Factors'!$C$8,IF(I70='Emission Factors'!$B$9,'Emission Factors'!$C$9,IF(I70='Emission Factors'!$B$10,'Emission Factors'!$C$10,IF(I70='Emission Factors'!$B$11,'Emission Factors'!$C$11,IF(I70='Emission Factors'!$B$12,'Emission Factors'!$C$12,IF(I70='Emission Factors'!$B$13,'Emission Factors'!$C$13,IF(I70='Emission Factors'!$B$14,'Emission Factors'!$C$14,0))))))))))))</f>
         <v>0</v>
       </c>
-      <c r="AD70" s="287" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="AE70" s="285" t="str">
+      <c r="AD70" s="223" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="AF70" s="286">
+      <c r="AE70" s="221" t="str">
         <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="AF70" s="222">
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AG70" s="117" t="e">
-        <f t="shared" si="21"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AH70" s="117" t="e">
         <f t="shared" si="22"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AI70" s="117" t="e">
+      <c r="AH70" s="117" t="e">
         <f t="shared" si="23"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AJ70" s="117" t="e">
+      <c r="AI70" s="117" t="e">
         <f t="shared" si="24"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AK70" s="117" t="e">
+      <c r="AJ70" s="117" t="e">
         <f t="shared" si="25"/>
         <v>#VALUE!</v>
       </c>
+      <c r="AK70" s="117" t="e">
+        <f t="shared" si="26"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="AL70" s="117" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>#VALUE!</v>
       </c>
       <c r="AM70" s="117">
@@ -19206,10 +19248,10 @@
         <v>0</v>
       </c>
       <c r="AN70" s="117" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="AO70" s="299" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="AO70" s="235" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
@@ -19217,7 +19259,7 @@
         <f>IF('Inputs for Conserved Energy'!AB59&lt;&gt;"",'Inputs for Conserved Energy'!AB59,(IF(OR(J70&lt;&gt;"",K70&lt;&gt;"",L70&lt;&gt;"",M70&lt;&gt;""),((J70*0.00341214)+K70+L70-IF(I70="Electricity",M70*0.00341214,M70)),"")))</f>
         <v/>
       </c>
-      <c r="AQ70" s="299" t="str">
+      <c r="AQ70" s="235" t="str">
         <f>IF('Inputs for Conserved Energy'!AC59&lt;&gt;"",'Inputs for Conserved Energy'!AC59,IF(AND(AP70&lt;&gt;"",AP70&gt;0),AD70/AP70,""))</f>
         <v/>
       </c>
@@ -19231,10 +19273,10 @@
       </c>
     </row>
     <row r="71" spans="2:45" x14ac:dyDescent="0.35">
-      <c r="B71" s="219"/>
+      <c r="B71" s="243"/>
       <c r="C71" s="49"/>
       <c r="D71" s="146" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="E71" s="162" t="str">
@@ -19290,11 +19332,11 @@
         <f>IF('Inputs for Conserved Energy'!Q60&lt;&gt;"",'Inputs for Conserved Energy'!Q60,"")</f>
         <v/>
       </c>
-      <c r="S71" s="279" t="str">
+      <c r="S71" s="215" t="str">
         <f>IF('Inputs for Conserved Energy'!R60&lt;&gt;"",'Inputs for Conserved Energy'!R60,(IF(E71&lt;&gt;"",0.05,"")))</f>
         <v/>
       </c>
-      <c r="T71" s="281" t="str">
+      <c r="T71" s="217" t="str">
         <f>IF('Inputs for Conserved Energy'!S60&lt;&gt;"",'Inputs for Conserved Energy'!S60,(IF(E71&lt;&gt;"",10,"")))</f>
         <v/>
       </c>
@@ -19302,12 +19344,12 @@
         <f>IF('Inputs for Conserved Energy'!T60&lt;&gt;"",'Inputs for Conserved Energy'!T60,(IF(E71&lt;&gt;"",0.035,"")))</f>
         <v/>
       </c>
-      <c r="V71" s="280" t="str">
+      <c r="V71" s="216" t="str">
         <f>IF('Inputs for Conserved Energy'!U60&lt;&gt;"",'Inputs for Conserved Energy'!U60,(IF(E71&lt;&gt;"",0.035,"")))</f>
         <v/>
       </c>
       <c r="W71" s="177" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="X71" s="202">
@@ -19334,40 +19376,40 @@
         <f>IF(I71='Emission Factors'!$B$3,AB71,IF(I71='Emission Factors'!$B$4,'Emission Factors'!$C$4,IF(I71='Emission Factors'!$B$5,'Emission Factors'!$C$5,IF(I71='Emission Factors'!$B$6,'Emission Factors'!$C$6,IF(I71='Emission Factors'!$B$7,'Emission Factors'!$C$7,IF(I71='Emission Factors'!$B$8,'Emission Factors'!$C$8,IF(I71='Emission Factors'!$B$9,'Emission Factors'!$C$9,IF(I71='Emission Factors'!$B$10,'Emission Factors'!$C$10,IF(I71='Emission Factors'!$B$11,'Emission Factors'!$C$11,IF(I71='Emission Factors'!$B$12,'Emission Factors'!$C$12,IF(I71='Emission Factors'!$B$13,'Emission Factors'!$C$13,IF(I71='Emission Factors'!$B$14,'Emission Factors'!$C$14,0))))))))))))</f>
         <v>0</v>
       </c>
-      <c r="AD71" s="287" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="AE71" s="285" t="str">
+      <c r="AD71" s="223" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="AF71" s="286">
+      <c r="AE71" s="221" t="str">
         <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="AF71" s="222">
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AG71" s="117" t="e">
-        <f t="shared" si="21"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AH71" s="117" t="e">
         <f t="shared" si="22"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AI71" s="117" t="e">
+      <c r="AH71" s="117" t="e">
         <f t="shared" si="23"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AJ71" s="117" t="e">
+      <c r="AI71" s="117" t="e">
         <f t="shared" si="24"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AK71" s="117" t="e">
+      <c r="AJ71" s="117" t="e">
         <f t="shared" si="25"/>
         <v>#VALUE!</v>
       </c>
+      <c r="AK71" s="117" t="e">
+        <f t="shared" si="26"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="AL71" s="117" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>#VALUE!</v>
       </c>
       <c r="AM71" s="117">
@@ -19375,10 +19417,10 @@
         <v>0</v>
       </c>
       <c r="AN71" s="117" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="AO71" s="299" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="AO71" s="235" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
@@ -19386,7 +19428,7 @@
         <f>IF('Inputs for Conserved Energy'!AB60&lt;&gt;"",'Inputs for Conserved Energy'!AB60,(IF(OR(J71&lt;&gt;"",K71&lt;&gt;"",L71&lt;&gt;"",M71&lt;&gt;""),((J71*0.00341214)+K71+L71-IF(I71="Electricity",M71*0.00341214,M71)),"")))</f>
         <v/>
       </c>
-      <c r="AQ71" s="299" t="str">
+      <c r="AQ71" s="235" t="str">
         <f>IF('Inputs for Conserved Energy'!AC60&lt;&gt;"",'Inputs for Conserved Energy'!AC60,IF(AND(AP71&lt;&gt;"",AP71&gt;0),AD71/AP71,""))</f>
         <v/>
       </c>
@@ -19400,10 +19442,10 @@
       </c>
     </row>
     <row r="72" spans="2:45" x14ac:dyDescent="0.35">
-      <c r="B72" s="219"/>
+      <c r="B72" s="243"/>
       <c r="C72" s="49"/>
       <c r="D72" s="146" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="E72" s="162" t="str">
@@ -19459,11 +19501,11 @@
         <f>IF('Inputs for Conserved Energy'!Q61&lt;&gt;"",'Inputs for Conserved Energy'!Q61,"")</f>
         <v/>
       </c>
-      <c r="S72" s="279" t="str">
+      <c r="S72" s="215" t="str">
         <f>IF('Inputs for Conserved Energy'!R61&lt;&gt;"",'Inputs for Conserved Energy'!R61,(IF(E72&lt;&gt;"",0.05,"")))</f>
         <v/>
       </c>
-      <c r="T72" s="281" t="str">
+      <c r="T72" s="217" t="str">
         <f>IF('Inputs for Conserved Energy'!S61&lt;&gt;"",'Inputs for Conserved Energy'!S61,(IF(E72&lt;&gt;"",10,"")))</f>
         <v/>
       </c>
@@ -19471,12 +19513,12 @@
         <f>IF('Inputs for Conserved Energy'!T61&lt;&gt;"",'Inputs for Conserved Energy'!T61,(IF(E72&lt;&gt;"",0.035,"")))</f>
         <v/>
       </c>
-      <c r="V72" s="280" t="str">
+      <c r="V72" s="216" t="str">
         <f>IF('Inputs for Conserved Energy'!U61&lt;&gt;"",'Inputs for Conserved Energy'!U61,(IF(E72&lt;&gt;"",0.035,"")))</f>
         <v/>
       </c>
       <c r="W72" s="177" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="X72" s="202">
@@ -19503,40 +19545,40 @@
         <f>IF(I72='Emission Factors'!$B$3,AB72,IF(I72='Emission Factors'!$B$4,'Emission Factors'!$C$4,IF(I72='Emission Factors'!$B$5,'Emission Factors'!$C$5,IF(I72='Emission Factors'!$B$6,'Emission Factors'!$C$6,IF(I72='Emission Factors'!$B$7,'Emission Factors'!$C$7,IF(I72='Emission Factors'!$B$8,'Emission Factors'!$C$8,IF(I72='Emission Factors'!$B$9,'Emission Factors'!$C$9,IF(I72='Emission Factors'!$B$10,'Emission Factors'!$C$10,IF(I72='Emission Factors'!$B$11,'Emission Factors'!$C$11,IF(I72='Emission Factors'!$B$12,'Emission Factors'!$C$12,IF(I72='Emission Factors'!$B$13,'Emission Factors'!$C$13,IF(I72='Emission Factors'!$B$14,'Emission Factors'!$C$14,0))))))))))))</f>
         <v>0</v>
       </c>
-      <c r="AD72" s="287" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="AE72" s="285" t="str">
+      <c r="AD72" s="223" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="AF72" s="286">
+      <c r="AE72" s="221" t="str">
         <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="AF72" s="222">
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AG72" s="117" t="e">
-        <f t="shared" si="21"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AH72" s="117" t="e">
         <f t="shared" si="22"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AI72" s="117" t="e">
+      <c r="AH72" s="117" t="e">
         <f t="shared" si="23"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AJ72" s="117" t="e">
+      <c r="AI72" s="117" t="e">
         <f t="shared" si="24"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AK72" s="117" t="e">
+      <c r="AJ72" s="117" t="e">
         <f t="shared" si="25"/>
         <v>#VALUE!</v>
       </c>
+      <c r="AK72" s="117" t="e">
+        <f t="shared" si="26"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="AL72" s="117" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>#VALUE!</v>
       </c>
       <c r="AM72" s="117">
@@ -19544,10 +19586,10 @@
         <v>0</v>
       </c>
       <c r="AN72" s="117" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="AO72" s="299" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="AO72" s="235" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
@@ -19555,7 +19597,7 @@
         <f>IF('Inputs for Conserved Energy'!AB61&lt;&gt;"",'Inputs for Conserved Energy'!AB61,(IF(OR(J72&lt;&gt;"",K72&lt;&gt;"",L72&lt;&gt;"",M72&lt;&gt;""),((J72*0.00341214)+K72+L72-IF(I72="Electricity",M72*0.00341214,M72)),"")))</f>
         <v/>
       </c>
-      <c r="AQ72" s="299" t="str">
+      <c r="AQ72" s="235" t="str">
         <f>IF('Inputs for Conserved Energy'!AC61&lt;&gt;"",'Inputs for Conserved Energy'!AC61,IF(AND(AP72&lt;&gt;"",AP72&gt;0),AD72/AP72,""))</f>
         <v/>
       </c>
@@ -19569,10 +19611,10 @@
       </c>
     </row>
     <row r="73" spans="2:45" x14ac:dyDescent="0.35">
-      <c r="B73" s="219"/>
+      <c r="B73" s="243"/>
       <c r="C73" s="49"/>
       <c r="D73" s="146" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="E73" s="162" t="str">
@@ -19628,11 +19670,11 @@
         <f>IF('Inputs for Conserved Energy'!Q62&lt;&gt;"",'Inputs for Conserved Energy'!Q62,"")</f>
         <v/>
       </c>
-      <c r="S73" s="279" t="str">
+      <c r="S73" s="215" t="str">
         <f>IF('Inputs for Conserved Energy'!R62&lt;&gt;"",'Inputs for Conserved Energy'!R62,(IF(E73&lt;&gt;"",0.05,"")))</f>
         <v/>
       </c>
-      <c r="T73" s="281" t="str">
+      <c r="T73" s="217" t="str">
         <f>IF('Inputs for Conserved Energy'!S62&lt;&gt;"",'Inputs for Conserved Energy'!S62,(IF(E73&lt;&gt;"",10,"")))</f>
         <v/>
       </c>
@@ -19640,12 +19682,12 @@
         <f>IF('Inputs for Conserved Energy'!T62&lt;&gt;"",'Inputs for Conserved Energy'!T62,(IF(E73&lt;&gt;"",0.035,"")))</f>
         <v/>
       </c>
-      <c r="V73" s="280" t="str">
+      <c r="V73" s="216" t="str">
         <f>IF('Inputs for Conserved Energy'!U62&lt;&gt;"",'Inputs for Conserved Energy'!U62,(IF(E73&lt;&gt;"",0.035,"")))</f>
         <v/>
       </c>
       <c r="W73" s="177" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="X73" s="202">
@@ -19672,40 +19714,40 @@
         <f>IF(I73='Emission Factors'!$B$3,AB73,IF(I73='Emission Factors'!$B$4,'Emission Factors'!$C$4,IF(I73='Emission Factors'!$B$5,'Emission Factors'!$C$5,IF(I73='Emission Factors'!$B$6,'Emission Factors'!$C$6,IF(I73='Emission Factors'!$B$7,'Emission Factors'!$C$7,IF(I73='Emission Factors'!$B$8,'Emission Factors'!$C$8,IF(I73='Emission Factors'!$B$9,'Emission Factors'!$C$9,IF(I73='Emission Factors'!$B$10,'Emission Factors'!$C$10,IF(I73='Emission Factors'!$B$11,'Emission Factors'!$C$11,IF(I73='Emission Factors'!$B$12,'Emission Factors'!$C$12,IF(I73='Emission Factors'!$B$13,'Emission Factors'!$C$13,IF(I73='Emission Factors'!$B$14,'Emission Factors'!$C$14,0))))))))))))</f>
         <v>0</v>
       </c>
-      <c r="AD73" s="287" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="AE73" s="285" t="str">
+      <c r="AD73" s="223" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="AF73" s="286">
+      <c r="AE73" s="221" t="str">
         <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="AF73" s="222">
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AG73" s="117" t="e">
-        <f t="shared" si="21"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AH73" s="117" t="e">
         <f t="shared" si="22"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AI73" s="117" t="e">
+      <c r="AH73" s="117" t="e">
         <f t="shared" si="23"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AJ73" s="117" t="e">
+      <c r="AI73" s="117" t="e">
         <f t="shared" si="24"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AK73" s="117" t="e">
+      <c r="AJ73" s="117" t="e">
         <f t="shared" si="25"/>
         <v>#VALUE!</v>
       </c>
+      <c r="AK73" s="117" t="e">
+        <f t="shared" si="26"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="AL73" s="117" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>#VALUE!</v>
       </c>
       <c r="AM73" s="117">
@@ -19713,10 +19755,10 @@
         <v>0</v>
       </c>
       <c r="AN73" s="117" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="AO73" s="299" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="AO73" s="235" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
@@ -19724,7 +19766,7 @@
         <f>IF('Inputs for Conserved Energy'!AB62&lt;&gt;"",'Inputs for Conserved Energy'!AB62,(IF(OR(J73&lt;&gt;"",K73&lt;&gt;"",L73&lt;&gt;"",M73&lt;&gt;""),((J73*0.00341214)+K73+L73-IF(I73="Electricity",M73*0.00341214,M73)),"")))</f>
         <v/>
       </c>
-      <c r="AQ73" s="299" t="str">
+      <c r="AQ73" s="235" t="str">
         <f>IF('Inputs for Conserved Energy'!AC62&lt;&gt;"",'Inputs for Conserved Energy'!AC62,IF(AND(AP73&lt;&gt;"",AP73&gt;0),AD73/AP73,""))</f>
         <v/>
       </c>
@@ -19738,10 +19780,10 @@
       </c>
     </row>
     <row r="74" spans="2:45" x14ac:dyDescent="0.35">
-      <c r="B74" s="219"/>
+      <c r="B74" s="243"/>
       <c r="C74" s="49"/>
       <c r="D74" s="146" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="E74" s="162" t="str">
@@ -19797,11 +19839,11 @@
         <f>IF('Inputs for Conserved Energy'!Q63&lt;&gt;"",'Inputs for Conserved Energy'!Q63,"")</f>
         <v/>
       </c>
-      <c r="S74" s="279" t="str">
+      <c r="S74" s="215" t="str">
         <f>IF('Inputs for Conserved Energy'!R63&lt;&gt;"",'Inputs for Conserved Energy'!R63,(IF(E74&lt;&gt;"",0.05,"")))</f>
         <v/>
       </c>
-      <c r="T74" s="281" t="str">
+      <c r="T74" s="217" t="str">
         <f>IF('Inputs for Conserved Energy'!S63&lt;&gt;"",'Inputs for Conserved Energy'!S63,(IF(E74&lt;&gt;"",10,"")))</f>
         <v/>
       </c>
@@ -19809,12 +19851,12 @@
         <f>IF('Inputs for Conserved Energy'!T63&lt;&gt;"",'Inputs for Conserved Energy'!T63,(IF(E74&lt;&gt;"",0.035,"")))</f>
         <v/>
       </c>
-      <c r="V74" s="280" t="str">
+      <c r="V74" s="216" t="str">
         <f>IF('Inputs for Conserved Energy'!U63&lt;&gt;"",'Inputs for Conserved Energy'!U63,(IF(E74&lt;&gt;"",0.035,"")))</f>
         <v/>
       </c>
       <c r="W74" s="177" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="X74" s="202">
@@ -19841,40 +19883,40 @@
         <f>IF(I74='Emission Factors'!$B$3,AB74,IF(I74='Emission Factors'!$B$4,'Emission Factors'!$C$4,IF(I74='Emission Factors'!$B$5,'Emission Factors'!$C$5,IF(I74='Emission Factors'!$B$6,'Emission Factors'!$C$6,IF(I74='Emission Factors'!$B$7,'Emission Factors'!$C$7,IF(I74='Emission Factors'!$B$8,'Emission Factors'!$C$8,IF(I74='Emission Factors'!$B$9,'Emission Factors'!$C$9,IF(I74='Emission Factors'!$B$10,'Emission Factors'!$C$10,IF(I74='Emission Factors'!$B$11,'Emission Factors'!$C$11,IF(I74='Emission Factors'!$B$12,'Emission Factors'!$C$12,IF(I74='Emission Factors'!$B$13,'Emission Factors'!$C$13,IF(I74='Emission Factors'!$B$14,'Emission Factors'!$C$14,0))))))))))))</f>
         <v>0</v>
       </c>
-      <c r="AD74" s="287" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="AE74" s="285" t="str">
+      <c r="AD74" s="223" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="AF74" s="286">
+      <c r="AE74" s="221" t="str">
         <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="AF74" s="222">
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AG74" s="117" t="e">
-        <f t="shared" si="21"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AH74" s="117" t="e">
         <f t="shared" si="22"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AI74" s="117" t="e">
+      <c r="AH74" s="117" t="e">
         <f t="shared" si="23"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AJ74" s="117" t="e">
+      <c r="AI74" s="117" t="e">
         <f t="shared" si="24"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AK74" s="117" t="e">
+      <c r="AJ74" s="117" t="e">
         <f t="shared" si="25"/>
         <v>#VALUE!</v>
       </c>
+      <c r="AK74" s="117" t="e">
+        <f t="shared" si="26"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="AL74" s="117" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>#VALUE!</v>
       </c>
       <c r="AM74" s="117">
@@ -19882,10 +19924,10 @@
         <v>0</v>
       </c>
       <c r="AN74" s="117" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="AO74" s="299" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="AO74" s="235" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
@@ -19893,7 +19935,7 @@
         <f>IF('Inputs for Conserved Energy'!AB63&lt;&gt;"",'Inputs for Conserved Energy'!AB63,(IF(OR(J74&lt;&gt;"",K74&lt;&gt;"",L74&lt;&gt;"",M74&lt;&gt;""),((J74*0.00341214)+K74+L74-IF(I74="Electricity",M74*0.00341214,M74)),"")))</f>
         <v/>
       </c>
-      <c r="AQ74" s="299" t="str">
+      <c r="AQ74" s="235" t="str">
         <f>IF('Inputs for Conserved Energy'!AC63&lt;&gt;"",'Inputs for Conserved Energy'!AC63,IF(AND(AP74&lt;&gt;"",AP74&gt;0),AD74/AP74,""))</f>
         <v/>
       </c>
@@ -19907,10 +19949,10 @@
       </c>
     </row>
     <row r="75" spans="2:45" x14ac:dyDescent="0.35">
-      <c r="B75" s="219"/>
+      <c r="B75" s="243"/>
       <c r="C75" s="49"/>
       <c r="D75" s="146" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="E75" s="162" t="str">
@@ -19966,11 +20008,11 @@
         <f>IF('Inputs for Conserved Energy'!Q64&lt;&gt;"",'Inputs for Conserved Energy'!Q64,"")</f>
         <v/>
       </c>
-      <c r="S75" s="279" t="str">
+      <c r="S75" s="215" t="str">
         <f>IF('Inputs for Conserved Energy'!R64&lt;&gt;"",'Inputs for Conserved Energy'!R64,(IF(E75&lt;&gt;"",0.05,"")))</f>
         <v/>
       </c>
-      <c r="T75" s="281" t="str">
+      <c r="T75" s="217" t="str">
         <f>IF('Inputs for Conserved Energy'!S64&lt;&gt;"",'Inputs for Conserved Energy'!S64,(IF(E75&lt;&gt;"",10,"")))</f>
         <v/>
       </c>
@@ -19978,12 +20020,12 @@
         <f>IF('Inputs for Conserved Energy'!T64&lt;&gt;"",'Inputs for Conserved Energy'!T64,(IF(E75&lt;&gt;"",0.035,"")))</f>
         <v/>
       </c>
-      <c r="V75" s="280" t="str">
+      <c r="V75" s="216" t="str">
         <f>IF('Inputs for Conserved Energy'!U64&lt;&gt;"",'Inputs for Conserved Energy'!U64,(IF(E75&lt;&gt;"",0.035,"")))</f>
         <v/>
       </c>
       <c r="W75" s="177" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="X75" s="202">
@@ -20010,40 +20052,40 @@
         <f>IF(I75='Emission Factors'!$B$3,AB75,IF(I75='Emission Factors'!$B$4,'Emission Factors'!$C$4,IF(I75='Emission Factors'!$B$5,'Emission Factors'!$C$5,IF(I75='Emission Factors'!$B$6,'Emission Factors'!$C$6,IF(I75='Emission Factors'!$B$7,'Emission Factors'!$C$7,IF(I75='Emission Factors'!$B$8,'Emission Factors'!$C$8,IF(I75='Emission Factors'!$B$9,'Emission Factors'!$C$9,IF(I75='Emission Factors'!$B$10,'Emission Factors'!$C$10,IF(I75='Emission Factors'!$B$11,'Emission Factors'!$C$11,IF(I75='Emission Factors'!$B$12,'Emission Factors'!$C$12,IF(I75='Emission Factors'!$B$13,'Emission Factors'!$C$13,IF(I75='Emission Factors'!$B$14,'Emission Factors'!$C$14,0))))))))))))</f>
         <v>0</v>
       </c>
-      <c r="AD75" s="287" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="AE75" s="285" t="str">
+      <c r="AD75" s="223" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="AF75" s="286">
+      <c r="AE75" s="221" t="str">
         <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="AF75" s="222">
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AG75" s="117" t="e">
-        <f t="shared" si="21"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AH75" s="117" t="e">
         <f t="shared" si="22"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AI75" s="117" t="e">
+      <c r="AH75" s="117" t="e">
         <f t="shared" si="23"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AJ75" s="117" t="e">
+      <c r="AI75" s="117" t="e">
         <f t="shared" si="24"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AK75" s="117" t="e">
+      <c r="AJ75" s="117" t="e">
         <f t="shared" si="25"/>
         <v>#VALUE!</v>
       </c>
+      <c r="AK75" s="117" t="e">
+        <f t="shared" si="26"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="AL75" s="117" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>#VALUE!</v>
       </c>
       <c r="AM75" s="117">
@@ -20051,10 +20093,10 @@
         <v>0</v>
       </c>
       <c r="AN75" s="117" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="AO75" s="299" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="AO75" s="235" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
@@ -20062,7 +20104,7 @@
         <f>IF('Inputs for Conserved Energy'!AB64&lt;&gt;"",'Inputs for Conserved Energy'!AB64,(IF(OR(J75&lt;&gt;"",K75&lt;&gt;"",L75&lt;&gt;"",M75&lt;&gt;""),((J75*0.00341214)+K75+L75-IF(I75="Electricity",M75*0.00341214,M75)),"")))</f>
         <v/>
       </c>
-      <c r="AQ75" s="299" t="str">
+      <c r="AQ75" s="235" t="str">
         <f>IF('Inputs for Conserved Energy'!AC64&lt;&gt;"",'Inputs for Conserved Energy'!AC64,IF(AND(AP75&lt;&gt;"",AP75&gt;0),AD75/AP75,""))</f>
         <v/>
       </c>
@@ -20076,10 +20118,10 @@
       </c>
     </row>
     <row r="76" spans="2:45" x14ac:dyDescent="0.35">
-      <c r="B76" s="219"/>
+      <c r="B76" s="243"/>
       <c r="C76" s="49"/>
       <c r="D76" s="146" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="E76" s="162" t="str">
@@ -20135,11 +20177,11 @@
         <f>IF('Inputs for Conserved Energy'!Q65&lt;&gt;"",'Inputs for Conserved Energy'!Q65,"")</f>
         <v/>
       </c>
-      <c r="S76" s="279" t="str">
+      <c r="S76" s="215" t="str">
         <f>IF('Inputs for Conserved Energy'!R65&lt;&gt;"",'Inputs for Conserved Energy'!R65,(IF(E76&lt;&gt;"",0.05,"")))</f>
         <v/>
       </c>
-      <c r="T76" s="281" t="str">
+      <c r="T76" s="217" t="str">
         <f>IF('Inputs for Conserved Energy'!S65&lt;&gt;"",'Inputs for Conserved Energy'!S65,(IF(E76&lt;&gt;"",10,"")))</f>
         <v/>
       </c>
@@ -20147,12 +20189,12 @@
         <f>IF('Inputs for Conserved Energy'!T65&lt;&gt;"",'Inputs for Conserved Energy'!T65,(IF(E76&lt;&gt;"",0.035,"")))</f>
         <v/>
       </c>
-      <c r="V76" s="280" t="str">
+      <c r="V76" s="216" t="str">
         <f>IF('Inputs for Conserved Energy'!U65&lt;&gt;"",'Inputs for Conserved Energy'!U65,(IF(E76&lt;&gt;"",0.035,"")))</f>
         <v/>
       </c>
       <c r="W76" s="177" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="X76" s="202">
@@ -20179,40 +20221,40 @@
         <f>IF(I76='Emission Factors'!$B$3,AB76,IF(I76='Emission Factors'!$B$4,'Emission Factors'!$C$4,IF(I76='Emission Factors'!$B$5,'Emission Factors'!$C$5,IF(I76='Emission Factors'!$B$6,'Emission Factors'!$C$6,IF(I76='Emission Factors'!$B$7,'Emission Factors'!$C$7,IF(I76='Emission Factors'!$B$8,'Emission Factors'!$C$8,IF(I76='Emission Factors'!$B$9,'Emission Factors'!$C$9,IF(I76='Emission Factors'!$B$10,'Emission Factors'!$C$10,IF(I76='Emission Factors'!$B$11,'Emission Factors'!$C$11,IF(I76='Emission Factors'!$B$12,'Emission Factors'!$C$12,IF(I76='Emission Factors'!$B$13,'Emission Factors'!$C$13,IF(I76='Emission Factors'!$B$14,'Emission Factors'!$C$14,0))))))))))))</f>
         <v>0</v>
       </c>
-      <c r="AD76" s="287" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="AE76" s="285" t="str">
+      <c r="AD76" s="223" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="AF76" s="286">
+      <c r="AE76" s="221" t="str">
         <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="AF76" s="222">
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AG76" s="117" t="e">
-        <f t="shared" si="21"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AH76" s="117" t="e">
         <f t="shared" si="22"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AI76" s="117" t="e">
+      <c r="AH76" s="117" t="e">
         <f t="shared" si="23"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AJ76" s="117" t="e">
+      <c r="AI76" s="117" t="e">
         <f t="shared" si="24"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AK76" s="117" t="e">
+      <c r="AJ76" s="117" t="e">
         <f t="shared" si="25"/>
         <v>#VALUE!</v>
       </c>
+      <c r="AK76" s="117" t="e">
+        <f t="shared" si="26"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="AL76" s="117" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>#VALUE!</v>
       </c>
       <c r="AM76" s="117">
@@ -20220,10 +20262,10 @@
         <v>0</v>
       </c>
       <c r="AN76" s="117" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="AO76" s="299" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="AO76" s="235" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
@@ -20231,7 +20273,7 @@
         <f>IF('Inputs for Conserved Energy'!AB65&lt;&gt;"",'Inputs for Conserved Energy'!AB65,(IF(OR(J76&lt;&gt;"",K76&lt;&gt;"",L76&lt;&gt;"",M76&lt;&gt;""),((J76*0.00341214)+K76+L76-IF(I76="Electricity",M76*0.00341214,M76)),"")))</f>
         <v/>
       </c>
-      <c r="AQ76" s="299" t="str">
+      <c r="AQ76" s="235" t="str">
         <f>IF('Inputs for Conserved Energy'!AC65&lt;&gt;"",'Inputs for Conserved Energy'!AC65,IF(AND(AP76&lt;&gt;"",AP76&gt;0),AD76/AP76,""))</f>
         <v/>
       </c>
@@ -20245,10 +20287,10 @@
       </c>
     </row>
     <row r="77" spans="2:45" x14ac:dyDescent="0.35">
-      <c r="B77" s="219"/>
+      <c r="B77" s="243"/>
       <c r="C77" s="49"/>
       <c r="D77" s="146" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="E77" s="162" t="str">
@@ -20304,11 +20346,11 @@
         <f>IF('Inputs for Conserved Energy'!Q66&lt;&gt;"",'Inputs for Conserved Energy'!Q66,"")</f>
         <v/>
       </c>
-      <c r="S77" s="279" t="str">
+      <c r="S77" s="215" t="str">
         <f>IF('Inputs for Conserved Energy'!R66&lt;&gt;"",'Inputs for Conserved Energy'!R66,(IF(E77&lt;&gt;"",0.05,"")))</f>
         <v/>
       </c>
-      <c r="T77" s="281" t="str">
+      <c r="T77" s="217" t="str">
         <f>IF('Inputs for Conserved Energy'!S66&lt;&gt;"",'Inputs for Conserved Energy'!S66,(IF(E77&lt;&gt;"",10,"")))</f>
         <v/>
       </c>
@@ -20316,12 +20358,12 @@
         <f>IF('Inputs for Conserved Energy'!T66&lt;&gt;"",'Inputs for Conserved Energy'!T66,(IF(E77&lt;&gt;"",0.035,"")))</f>
         <v/>
       </c>
-      <c r="V77" s="280" t="str">
+      <c r="V77" s="216" t="str">
         <f>IF('Inputs for Conserved Energy'!U66&lt;&gt;"",'Inputs for Conserved Energy'!U66,(IF(E77&lt;&gt;"",0.035,"")))</f>
         <v/>
       </c>
       <c r="W77" s="177" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="X77" s="202">
@@ -20348,40 +20390,40 @@
         <f>IF(I77='Emission Factors'!$B$3,AB77,IF(I77='Emission Factors'!$B$4,'Emission Factors'!$C$4,IF(I77='Emission Factors'!$B$5,'Emission Factors'!$C$5,IF(I77='Emission Factors'!$B$6,'Emission Factors'!$C$6,IF(I77='Emission Factors'!$B$7,'Emission Factors'!$C$7,IF(I77='Emission Factors'!$B$8,'Emission Factors'!$C$8,IF(I77='Emission Factors'!$B$9,'Emission Factors'!$C$9,IF(I77='Emission Factors'!$B$10,'Emission Factors'!$C$10,IF(I77='Emission Factors'!$B$11,'Emission Factors'!$C$11,IF(I77='Emission Factors'!$B$12,'Emission Factors'!$C$12,IF(I77='Emission Factors'!$B$13,'Emission Factors'!$C$13,IF(I77='Emission Factors'!$B$14,'Emission Factors'!$C$14,0))))))))))))</f>
         <v>0</v>
       </c>
-      <c r="AD77" s="287" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="AE77" s="285" t="str">
+      <c r="AD77" s="223" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="AF77" s="286">
+      <c r="AE77" s="221" t="str">
         <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="AF77" s="222">
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AG77" s="117" t="e">
-        <f t="shared" si="21"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AH77" s="117" t="e">
         <f t="shared" si="22"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AI77" s="117" t="e">
+      <c r="AH77" s="117" t="e">
         <f t="shared" si="23"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AJ77" s="117" t="e">
+      <c r="AI77" s="117" t="e">
         <f t="shared" si="24"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AK77" s="117" t="e">
+      <c r="AJ77" s="117" t="e">
         <f t="shared" si="25"/>
         <v>#VALUE!</v>
       </c>
+      <c r="AK77" s="117" t="e">
+        <f t="shared" si="26"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="AL77" s="117" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>#VALUE!</v>
       </c>
       <c r="AM77" s="117">
@@ -20389,10 +20431,10 @@
         <v>0</v>
       </c>
       <c r="AN77" s="117" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="AO77" s="299" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="AO77" s="235" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
@@ -20400,7 +20442,7 @@
         <f>IF('Inputs for Conserved Energy'!AB66&lt;&gt;"",'Inputs for Conserved Energy'!AB66,(IF(OR(J77&lt;&gt;"",K77&lt;&gt;"",L77&lt;&gt;"",M77&lt;&gt;""),((J77*0.00341214)+K77+L77-IF(I77="Electricity",M77*0.00341214,M77)),"")))</f>
         <v/>
       </c>
-      <c r="AQ77" s="299" t="str">
+      <c r="AQ77" s="235" t="str">
         <f>IF('Inputs for Conserved Energy'!AC66&lt;&gt;"",'Inputs for Conserved Energy'!AC66,IF(AND(AP77&lt;&gt;"",AP77&gt;0),AD77/AP77,""))</f>
         <v/>
       </c>
@@ -20414,10 +20456,10 @@
       </c>
     </row>
     <row r="78" spans="2:45" x14ac:dyDescent="0.35">
-      <c r="B78" s="219"/>
+      <c r="B78" s="243"/>
       <c r="C78" s="49"/>
       <c r="D78" s="146" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="E78" s="162" t="str">
@@ -20473,11 +20515,11 @@
         <f>IF('Inputs for Conserved Energy'!Q67&lt;&gt;"",'Inputs for Conserved Energy'!Q67,"")</f>
         <v/>
       </c>
-      <c r="S78" s="279" t="str">
+      <c r="S78" s="215" t="str">
         <f>IF('Inputs for Conserved Energy'!R67&lt;&gt;"",'Inputs for Conserved Energy'!R67,(IF(E78&lt;&gt;"",0.05,"")))</f>
         <v/>
       </c>
-      <c r="T78" s="281" t="str">
+      <c r="T78" s="217" t="str">
         <f>IF('Inputs for Conserved Energy'!S67&lt;&gt;"",'Inputs for Conserved Energy'!S67,(IF(E78&lt;&gt;"",10,"")))</f>
         <v/>
       </c>
@@ -20485,12 +20527,12 @@
         <f>IF('Inputs for Conserved Energy'!T67&lt;&gt;"",'Inputs for Conserved Energy'!T67,(IF(E78&lt;&gt;"",0.035,"")))</f>
         <v/>
       </c>
-      <c r="V78" s="280" t="str">
+      <c r="V78" s="216" t="str">
         <f>IF('Inputs for Conserved Energy'!U67&lt;&gt;"",'Inputs for Conserved Energy'!U67,(IF(E78&lt;&gt;"",0.035,"")))</f>
         <v/>
       </c>
       <c r="W78" s="177" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="X78" s="202">
@@ -20517,40 +20559,40 @@
         <f>IF(I78='Emission Factors'!$B$3,AB78,IF(I78='Emission Factors'!$B$4,'Emission Factors'!$C$4,IF(I78='Emission Factors'!$B$5,'Emission Factors'!$C$5,IF(I78='Emission Factors'!$B$6,'Emission Factors'!$C$6,IF(I78='Emission Factors'!$B$7,'Emission Factors'!$C$7,IF(I78='Emission Factors'!$B$8,'Emission Factors'!$C$8,IF(I78='Emission Factors'!$B$9,'Emission Factors'!$C$9,IF(I78='Emission Factors'!$B$10,'Emission Factors'!$C$10,IF(I78='Emission Factors'!$B$11,'Emission Factors'!$C$11,IF(I78='Emission Factors'!$B$12,'Emission Factors'!$C$12,IF(I78='Emission Factors'!$B$13,'Emission Factors'!$C$13,IF(I78='Emission Factors'!$B$14,'Emission Factors'!$C$14,0))))))))))))</f>
         <v>0</v>
       </c>
-      <c r="AD78" s="287" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="AE78" s="285" t="str">
+      <c r="AD78" s="223" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="AF78" s="286">
+      <c r="AE78" s="221" t="str">
         <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="AF78" s="222">
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AG78" s="117" t="e">
-        <f t="shared" si="21"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AH78" s="117" t="e">
         <f t="shared" si="22"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AI78" s="117" t="e">
+      <c r="AH78" s="117" t="e">
         <f t="shared" si="23"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AJ78" s="117" t="e">
+      <c r="AI78" s="117" t="e">
         <f t="shared" si="24"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AK78" s="117" t="e">
+      <c r="AJ78" s="117" t="e">
         <f t="shared" si="25"/>
         <v>#VALUE!</v>
       </c>
+      <c r="AK78" s="117" t="e">
+        <f t="shared" si="26"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="AL78" s="117" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>#VALUE!</v>
       </c>
       <c r="AM78" s="117">
@@ -20558,10 +20600,10 @@
         <v>0</v>
       </c>
       <c r="AN78" s="117" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="AO78" s="299" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="AO78" s="235" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
@@ -20569,7 +20611,7 @@
         <f>IF('Inputs for Conserved Energy'!AB67&lt;&gt;"",'Inputs for Conserved Energy'!AB67,(IF(OR(J78&lt;&gt;"",K78&lt;&gt;"",L78&lt;&gt;"",M78&lt;&gt;""),((J78*0.00341214)+K78+L78-IF(I78="Electricity",M78*0.00341214,M78)),"")))</f>
         <v/>
       </c>
-      <c r="AQ78" s="299" t="str">
+      <c r="AQ78" s="235" t="str">
         <f>IF('Inputs for Conserved Energy'!AC67&lt;&gt;"",'Inputs for Conserved Energy'!AC67,IF(AND(AP78&lt;&gt;"",AP78&gt;0),AD78/AP78,""))</f>
         <v/>
       </c>
@@ -20583,10 +20625,10 @@
       </c>
     </row>
     <row r="79" spans="2:45" x14ac:dyDescent="0.35">
-      <c r="B79" s="219"/>
+      <c r="B79" s="243"/>
       <c r="C79" s="49"/>
       <c r="D79" s="146" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="E79" s="162" t="str">
@@ -20642,11 +20684,11 @@
         <f>IF('Inputs for Conserved Energy'!Q68&lt;&gt;"",'Inputs for Conserved Energy'!Q68,"")</f>
         <v/>
       </c>
-      <c r="S79" s="279" t="str">
+      <c r="S79" s="215" t="str">
         <f>IF('Inputs for Conserved Energy'!R68&lt;&gt;"",'Inputs for Conserved Energy'!R68,(IF(E79&lt;&gt;"",0.05,"")))</f>
         <v/>
       </c>
-      <c r="T79" s="281" t="str">
+      <c r="T79" s="217" t="str">
         <f>IF('Inputs for Conserved Energy'!S68&lt;&gt;"",'Inputs for Conserved Energy'!S68,(IF(E79&lt;&gt;"",10,"")))</f>
         <v/>
       </c>
@@ -20654,12 +20696,12 @@
         <f>IF('Inputs for Conserved Energy'!T68&lt;&gt;"",'Inputs for Conserved Energy'!T68,(IF(E79&lt;&gt;"",0.035,"")))</f>
         <v/>
       </c>
-      <c r="V79" s="280" t="str">
+      <c r="V79" s="216" t="str">
         <f>IF('Inputs for Conserved Energy'!U68&lt;&gt;"",'Inputs for Conserved Energy'!U68,(IF(E79&lt;&gt;"",0.035,"")))</f>
         <v/>
       </c>
       <c r="W79" s="177" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="X79" s="202">
@@ -20686,40 +20728,40 @@
         <f>IF(I79='Emission Factors'!$B$3,AB79,IF(I79='Emission Factors'!$B$4,'Emission Factors'!$C$4,IF(I79='Emission Factors'!$B$5,'Emission Factors'!$C$5,IF(I79='Emission Factors'!$B$6,'Emission Factors'!$C$6,IF(I79='Emission Factors'!$B$7,'Emission Factors'!$C$7,IF(I79='Emission Factors'!$B$8,'Emission Factors'!$C$8,IF(I79='Emission Factors'!$B$9,'Emission Factors'!$C$9,IF(I79='Emission Factors'!$B$10,'Emission Factors'!$C$10,IF(I79='Emission Factors'!$B$11,'Emission Factors'!$C$11,IF(I79='Emission Factors'!$B$12,'Emission Factors'!$C$12,IF(I79='Emission Factors'!$B$13,'Emission Factors'!$C$13,IF(I79='Emission Factors'!$B$14,'Emission Factors'!$C$14,0))))))))))))</f>
         <v>0</v>
       </c>
-      <c r="AD79" s="287" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="AE79" s="285" t="str">
+      <c r="AD79" s="223" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="AF79" s="286">
+      <c r="AE79" s="221" t="str">
         <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="AF79" s="222">
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AG79" s="117" t="e">
-        <f t="shared" si="21"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AH79" s="117" t="e">
         <f t="shared" si="22"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AI79" s="117" t="e">
+      <c r="AH79" s="117" t="e">
         <f t="shared" si="23"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AJ79" s="117" t="e">
+      <c r="AI79" s="117" t="e">
         <f t="shared" si="24"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AK79" s="117" t="e">
+      <c r="AJ79" s="117" t="e">
         <f t="shared" si="25"/>
         <v>#VALUE!</v>
       </c>
+      <c r="AK79" s="117" t="e">
+        <f t="shared" si="26"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="AL79" s="117" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>#VALUE!</v>
       </c>
       <c r="AM79" s="117">
@@ -20727,10 +20769,10 @@
         <v>0</v>
       </c>
       <c r="AN79" s="117" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="AO79" s="299" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="AO79" s="235" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
@@ -20738,7 +20780,7 @@
         <f>IF('Inputs for Conserved Energy'!AB68&lt;&gt;"",'Inputs for Conserved Energy'!AB68,(IF(OR(J79&lt;&gt;"",K79&lt;&gt;"",L79&lt;&gt;"",M79&lt;&gt;""),((J79*0.00341214)+K79+L79-IF(I79="Electricity",M79*0.00341214,M79)),"")))</f>
         <v/>
       </c>
-      <c r="AQ79" s="299" t="str">
+      <c r="AQ79" s="235" t="str">
         <f>IF('Inputs for Conserved Energy'!AC68&lt;&gt;"",'Inputs for Conserved Energy'!AC68,IF(AND(AP79&lt;&gt;"",AP79&gt;0),AD79/AP79,""))</f>
         <v/>
       </c>
@@ -20752,10 +20794,10 @@
       </c>
     </row>
     <row r="80" spans="2:45" x14ac:dyDescent="0.35">
-      <c r="B80" s="219"/>
+      <c r="B80" s="243"/>
       <c r="C80" s="49"/>
       <c r="D80" s="146" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="E80" s="162" t="str">
@@ -20811,11 +20853,11 @@
         <f>IF('Inputs for Conserved Energy'!Q69&lt;&gt;"",'Inputs for Conserved Energy'!Q69,"")</f>
         <v/>
       </c>
-      <c r="S80" s="279" t="str">
+      <c r="S80" s="215" t="str">
         <f>IF('Inputs for Conserved Energy'!R69&lt;&gt;"",'Inputs for Conserved Energy'!R69,(IF(E80&lt;&gt;"",0.05,"")))</f>
         <v/>
       </c>
-      <c r="T80" s="281" t="str">
+      <c r="T80" s="217" t="str">
         <f>IF('Inputs for Conserved Energy'!S69&lt;&gt;"",'Inputs for Conserved Energy'!S69,(IF(E80&lt;&gt;"",10,"")))</f>
         <v/>
       </c>
@@ -20823,12 +20865,12 @@
         <f>IF('Inputs for Conserved Energy'!T69&lt;&gt;"",'Inputs for Conserved Energy'!T69,(IF(E80&lt;&gt;"",0.035,"")))</f>
         <v/>
       </c>
-      <c r="V80" s="280" t="str">
+      <c r="V80" s="216" t="str">
         <f>IF('Inputs for Conserved Energy'!U69&lt;&gt;"",'Inputs for Conserved Energy'!U69,(IF(E80&lt;&gt;"",0.035,"")))</f>
         <v/>
       </c>
       <c r="W80" s="177" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="X80" s="202">
@@ -20855,40 +20897,40 @@
         <f>IF(I80='Emission Factors'!$B$3,AB80,IF(I80='Emission Factors'!$B$4,'Emission Factors'!$C$4,IF(I80='Emission Factors'!$B$5,'Emission Factors'!$C$5,IF(I80='Emission Factors'!$B$6,'Emission Factors'!$C$6,IF(I80='Emission Factors'!$B$7,'Emission Factors'!$C$7,IF(I80='Emission Factors'!$B$8,'Emission Factors'!$C$8,IF(I80='Emission Factors'!$B$9,'Emission Factors'!$C$9,IF(I80='Emission Factors'!$B$10,'Emission Factors'!$C$10,IF(I80='Emission Factors'!$B$11,'Emission Factors'!$C$11,IF(I80='Emission Factors'!$B$12,'Emission Factors'!$C$12,IF(I80='Emission Factors'!$B$13,'Emission Factors'!$C$13,IF(I80='Emission Factors'!$B$14,'Emission Factors'!$C$14,0))))))))))))</f>
         <v>0</v>
       </c>
-      <c r="AD80" s="287" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="AE80" s="285" t="str">
+      <c r="AD80" s="223" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="AF80" s="286">
+      <c r="AE80" s="221" t="str">
         <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="AF80" s="222">
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AG80" s="117" t="e">
-        <f t="shared" si="21"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AH80" s="117" t="e">
         <f t="shared" si="22"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AI80" s="117" t="e">
+      <c r="AH80" s="117" t="e">
         <f t="shared" si="23"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AJ80" s="117" t="e">
+      <c r="AI80" s="117" t="e">
         <f t="shared" si="24"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AK80" s="117" t="e">
+      <c r="AJ80" s="117" t="e">
         <f t="shared" si="25"/>
         <v>#VALUE!</v>
       </c>
+      <c r="AK80" s="117" t="e">
+        <f t="shared" si="26"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="AL80" s="117" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>#VALUE!</v>
       </c>
       <c r="AM80" s="117">
@@ -20896,10 +20938,10 @@
         <v>0</v>
       </c>
       <c r="AN80" s="117" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="AO80" s="299" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="AO80" s="235" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
@@ -20907,7 +20949,7 @@
         <f>IF('Inputs for Conserved Energy'!AB69&lt;&gt;"",'Inputs for Conserved Energy'!AB69,(IF(OR(J80&lt;&gt;"",K80&lt;&gt;"",L80&lt;&gt;"",M80&lt;&gt;""),((J80*0.00341214)+K80+L80-IF(I80="Electricity",M80*0.00341214,M80)),"")))</f>
         <v/>
       </c>
-      <c r="AQ80" s="299" t="str">
+      <c r="AQ80" s="235" t="str">
         <f>IF('Inputs for Conserved Energy'!AC69&lt;&gt;"",'Inputs for Conserved Energy'!AC69,IF(AND(AP80&lt;&gt;"",AP80&gt;0),AD80/AP80,""))</f>
         <v/>
       </c>
@@ -20921,10 +20963,10 @@
       </c>
     </row>
     <row r="81" spans="2:45" x14ac:dyDescent="0.35">
-      <c r="B81" s="219"/>
+      <c r="B81" s="243"/>
       <c r="C81" s="49"/>
       <c r="D81" s="146" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="E81" s="162" t="str">
@@ -20980,11 +21022,11 @@
         <f>IF('Inputs for Conserved Energy'!Q70&lt;&gt;"",'Inputs for Conserved Energy'!Q70,"")</f>
         <v/>
       </c>
-      <c r="S81" s="279" t="str">
+      <c r="S81" s="215" t="str">
         <f>IF('Inputs for Conserved Energy'!R70&lt;&gt;"",'Inputs for Conserved Energy'!R70,(IF(E81&lt;&gt;"",0.05,"")))</f>
         <v/>
       </c>
-      <c r="T81" s="281" t="str">
+      <c r="T81" s="217" t="str">
         <f>IF('Inputs for Conserved Energy'!S70&lt;&gt;"",'Inputs for Conserved Energy'!S70,(IF(E81&lt;&gt;"",10,"")))</f>
         <v/>
       </c>
@@ -20992,12 +21034,12 @@
         <f>IF('Inputs for Conserved Energy'!T70&lt;&gt;"",'Inputs for Conserved Energy'!T70,(IF(E81&lt;&gt;"",0.035,"")))</f>
         <v/>
       </c>
-      <c r="V81" s="280" t="str">
+      <c r="V81" s="216" t="str">
         <f>IF('Inputs for Conserved Energy'!U70&lt;&gt;"",'Inputs for Conserved Energy'!U70,(IF(E81&lt;&gt;"",0.035,"")))</f>
         <v/>
       </c>
       <c r="W81" s="177" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="X81" s="202">
@@ -21024,40 +21066,40 @@
         <f>IF(I81='Emission Factors'!$B$3,AB81,IF(I81='Emission Factors'!$B$4,'Emission Factors'!$C$4,IF(I81='Emission Factors'!$B$5,'Emission Factors'!$C$5,IF(I81='Emission Factors'!$B$6,'Emission Factors'!$C$6,IF(I81='Emission Factors'!$B$7,'Emission Factors'!$C$7,IF(I81='Emission Factors'!$B$8,'Emission Factors'!$C$8,IF(I81='Emission Factors'!$B$9,'Emission Factors'!$C$9,IF(I81='Emission Factors'!$B$10,'Emission Factors'!$C$10,IF(I81='Emission Factors'!$B$11,'Emission Factors'!$C$11,IF(I81='Emission Factors'!$B$12,'Emission Factors'!$C$12,IF(I81='Emission Factors'!$B$13,'Emission Factors'!$C$13,IF(I81='Emission Factors'!$B$14,'Emission Factors'!$C$14,0))))))))))))</f>
         <v>0</v>
       </c>
-      <c r="AD81" s="287" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="AE81" s="285" t="str">
+      <c r="AD81" s="223" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="AF81" s="286">
+      <c r="AE81" s="221" t="str">
         <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="AF81" s="222">
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AG81" s="117" t="e">
-        <f t="shared" si="21"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AH81" s="117" t="e">
         <f t="shared" si="22"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AI81" s="117" t="e">
+      <c r="AH81" s="117" t="e">
         <f t="shared" si="23"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AJ81" s="117" t="e">
+      <c r="AI81" s="117" t="e">
         <f t="shared" si="24"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AK81" s="117" t="e">
+      <c r="AJ81" s="117" t="e">
         <f t="shared" si="25"/>
         <v>#VALUE!</v>
       </c>
+      <c r="AK81" s="117" t="e">
+        <f t="shared" si="26"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="AL81" s="117" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>#VALUE!</v>
       </c>
       <c r="AM81" s="117">
@@ -21065,10 +21107,10 @@
         <v>0</v>
       </c>
       <c r="AN81" s="117" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="AO81" s="299" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="AO81" s="235" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
@@ -21076,7 +21118,7 @@
         <f>IF('Inputs for Conserved Energy'!AB70&lt;&gt;"",'Inputs for Conserved Energy'!AB70,(IF(OR(J81&lt;&gt;"",K81&lt;&gt;"",L81&lt;&gt;"",M81&lt;&gt;""),((J81*0.00341214)+K81+L81-IF(I81="Electricity",M81*0.00341214,M81)),"")))</f>
         <v/>
       </c>
-      <c r="AQ81" s="299" t="str">
+      <c r="AQ81" s="235" t="str">
         <f>IF('Inputs for Conserved Energy'!AC70&lt;&gt;"",'Inputs for Conserved Energy'!AC70,IF(AND(AP81&lt;&gt;"",AP81&gt;0),AD81/AP81,""))</f>
         <v/>
       </c>
@@ -21090,10 +21132,10 @@
       </c>
     </row>
     <row r="82" spans="2:45" x14ac:dyDescent="0.35">
-      <c r="B82" s="219"/>
+      <c r="B82" s="243"/>
       <c r="C82" s="49"/>
       <c r="D82" s="146" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="E82" s="162" t="str">
@@ -21149,11 +21191,11 @@
         <f>IF('Inputs for Conserved Energy'!Q71&lt;&gt;"",'Inputs for Conserved Energy'!Q71,"")</f>
         <v/>
       </c>
-      <c r="S82" s="279" t="str">
+      <c r="S82" s="215" t="str">
         <f>IF('Inputs for Conserved Energy'!R71&lt;&gt;"",'Inputs for Conserved Energy'!R71,(IF(E82&lt;&gt;"",0.05,"")))</f>
         <v/>
       </c>
-      <c r="T82" s="281" t="str">
+      <c r="T82" s="217" t="str">
         <f>IF('Inputs for Conserved Energy'!S71&lt;&gt;"",'Inputs for Conserved Energy'!S71,(IF(E82&lt;&gt;"",10,"")))</f>
         <v/>
       </c>
@@ -21161,12 +21203,12 @@
         <f>IF('Inputs for Conserved Energy'!T71&lt;&gt;"",'Inputs for Conserved Energy'!T71,(IF(E82&lt;&gt;"",0.035,"")))</f>
         <v/>
       </c>
-      <c r="V82" s="280" t="str">
+      <c r="V82" s="216" t="str">
         <f>IF('Inputs for Conserved Energy'!U71&lt;&gt;"",'Inputs for Conserved Energy'!U71,(IF(E82&lt;&gt;"",0.035,"")))</f>
         <v/>
       </c>
       <c r="W82" s="177" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="X82" s="202">
@@ -21193,40 +21235,40 @@
         <f>IF(I82='Emission Factors'!$B$3,AB82,IF(I82='Emission Factors'!$B$4,'Emission Factors'!$C$4,IF(I82='Emission Factors'!$B$5,'Emission Factors'!$C$5,IF(I82='Emission Factors'!$B$6,'Emission Factors'!$C$6,IF(I82='Emission Factors'!$B$7,'Emission Factors'!$C$7,IF(I82='Emission Factors'!$B$8,'Emission Factors'!$C$8,IF(I82='Emission Factors'!$B$9,'Emission Factors'!$C$9,IF(I82='Emission Factors'!$B$10,'Emission Factors'!$C$10,IF(I82='Emission Factors'!$B$11,'Emission Factors'!$C$11,IF(I82='Emission Factors'!$B$12,'Emission Factors'!$C$12,IF(I82='Emission Factors'!$B$13,'Emission Factors'!$C$13,IF(I82='Emission Factors'!$B$14,'Emission Factors'!$C$14,0))))))))))))</f>
         <v>0</v>
       </c>
-      <c r="AD82" s="287" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="AE82" s="285" t="str">
+      <c r="AD82" s="223" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="AF82" s="286">
+      <c r="AE82" s="221" t="str">
         <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="AF82" s="222">
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AG82" s="117" t="e">
-        <f t="shared" si="21"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AH82" s="117" t="e">
         <f t="shared" si="22"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AI82" s="117" t="e">
+      <c r="AH82" s="117" t="e">
         <f t="shared" si="23"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AJ82" s="117" t="e">
+      <c r="AI82" s="117" t="e">
         <f t="shared" si="24"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AK82" s="117" t="e">
+      <c r="AJ82" s="117" t="e">
         <f t="shared" si="25"/>
         <v>#VALUE!</v>
       </c>
+      <c r="AK82" s="117" t="e">
+        <f t="shared" si="26"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="AL82" s="117" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>#VALUE!</v>
       </c>
       <c r="AM82" s="117">
@@ -21234,10 +21276,10 @@
         <v>0</v>
       </c>
       <c r="AN82" s="117" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="AO82" s="299" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="AO82" s="235" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
@@ -21245,7 +21287,7 @@
         <f>IF('Inputs for Conserved Energy'!AB71&lt;&gt;"",'Inputs for Conserved Energy'!AB71,(IF(OR(J82&lt;&gt;"",K82&lt;&gt;"",L82&lt;&gt;"",M82&lt;&gt;""),((J82*0.00341214)+K82+L82-IF(I82="Electricity",M82*0.00341214,M82)),"")))</f>
         <v/>
       </c>
-      <c r="AQ82" s="299" t="str">
+      <c r="AQ82" s="235" t="str">
         <f>IF('Inputs for Conserved Energy'!AC71&lt;&gt;"",'Inputs for Conserved Energy'!AC71,IF(AND(AP82&lt;&gt;"",AP82&gt;0),AD82/AP82,""))</f>
         <v/>
       </c>
@@ -21259,10 +21301,10 @@
       </c>
     </row>
     <row r="83" spans="2:45" x14ac:dyDescent="0.35">
-      <c r="B83" s="219"/>
+      <c r="B83" s="243"/>
       <c r="C83" s="49"/>
       <c r="D83" s="146" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="E83" s="162" t="str">
@@ -21318,11 +21360,11 @@
         <f>IF('Inputs for Conserved Energy'!Q72&lt;&gt;"",'Inputs for Conserved Energy'!Q72,"")</f>
         <v/>
       </c>
-      <c r="S83" s="279" t="str">
+      <c r="S83" s="215" t="str">
         <f>IF('Inputs for Conserved Energy'!R72&lt;&gt;"",'Inputs for Conserved Energy'!R72,(IF(E83&lt;&gt;"",0.05,"")))</f>
         <v/>
       </c>
-      <c r="T83" s="281" t="str">
+      <c r="T83" s="217" t="str">
         <f>IF('Inputs for Conserved Energy'!S72&lt;&gt;"",'Inputs for Conserved Energy'!S72,(IF(E83&lt;&gt;"",10,"")))</f>
         <v/>
       </c>
@@ -21330,12 +21372,12 @@
         <f>IF('Inputs for Conserved Energy'!T72&lt;&gt;"",'Inputs for Conserved Energy'!T72,(IF(E83&lt;&gt;"",0.035,"")))</f>
         <v/>
       </c>
-      <c r="V83" s="280" t="str">
+      <c r="V83" s="216" t="str">
         <f>IF('Inputs for Conserved Energy'!U72&lt;&gt;"",'Inputs for Conserved Energy'!U72,(IF(E83&lt;&gt;"",0.035,"")))</f>
         <v/>
       </c>
       <c r="W83" s="177" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="X83" s="202">
@@ -21362,40 +21404,40 @@
         <f>IF(I83='Emission Factors'!$B$3,AB83,IF(I83='Emission Factors'!$B$4,'Emission Factors'!$C$4,IF(I83='Emission Factors'!$B$5,'Emission Factors'!$C$5,IF(I83='Emission Factors'!$B$6,'Emission Factors'!$C$6,IF(I83='Emission Factors'!$B$7,'Emission Factors'!$C$7,IF(I83='Emission Factors'!$B$8,'Emission Factors'!$C$8,IF(I83='Emission Factors'!$B$9,'Emission Factors'!$C$9,IF(I83='Emission Factors'!$B$10,'Emission Factors'!$C$10,IF(I83='Emission Factors'!$B$11,'Emission Factors'!$C$11,IF(I83='Emission Factors'!$B$12,'Emission Factors'!$C$12,IF(I83='Emission Factors'!$B$13,'Emission Factors'!$C$13,IF(I83='Emission Factors'!$B$14,'Emission Factors'!$C$14,0))))))))))))</f>
         <v>0</v>
       </c>
-      <c r="AD83" s="287" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="AE83" s="285" t="str">
+      <c r="AD83" s="223" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="AF83" s="286">
+      <c r="AE83" s="221" t="str">
         <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="AF83" s="222">
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AG83" s="117" t="e">
-        <f t="shared" si="21"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AH83" s="117" t="e">
         <f t="shared" si="22"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AI83" s="117" t="e">
+      <c r="AH83" s="117" t="e">
         <f t="shared" si="23"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AJ83" s="117" t="e">
+      <c r="AI83" s="117" t="e">
         <f t="shared" si="24"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AK83" s="117" t="e">
+      <c r="AJ83" s="117" t="e">
         <f t="shared" si="25"/>
         <v>#VALUE!</v>
       </c>
+      <c r="AK83" s="117" t="e">
+        <f t="shared" si="26"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="AL83" s="117" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>#VALUE!</v>
       </c>
       <c r="AM83" s="117">
@@ -21403,10 +21445,10 @@
         <v>0</v>
       </c>
       <c r="AN83" s="117" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="AO83" s="299" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="AO83" s="235" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
@@ -21414,7 +21456,7 @@
         <f>IF('Inputs for Conserved Energy'!AB72&lt;&gt;"",'Inputs for Conserved Energy'!AB72,(IF(OR(J83&lt;&gt;"",K83&lt;&gt;"",L83&lt;&gt;"",M83&lt;&gt;""),((J83*0.00341214)+K83+L83-IF(I83="Electricity",M83*0.00341214,M83)),"")))</f>
         <v/>
       </c>
-      <c r="AQ83" s="299" t="str">
+      <c r="AQ83" s="235" t="str">
         <f>IF('Inputs for Conserved Energy'!AC72&lt;&gt;"",'Inputs for Conserved Energy'!AC72,IF(AND(AP83&lt;&gt;"",AP83&gt;0),AD83/AP83,""))</f>
         <v/>
       </c>
@@ -21428,10 +21470,10 @@
       </c>
     </row>
     <row r="84" spans="2:45" x14ac:dyDescent="0.35">
-      <c r="B84" s="219"/>
+      <c r="B84" s="243"/>
       <c r="C84" s="49"/>
       <c r="D84" s="146" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="E84" s="162" t="str">
@@ -21487,11 +21529,11 @@
         <f>IF('Inputs for Conserved Energy'!Q73&lt;&gt;"",'Inputs for Conserved Energy'!Q73,"")</f>
         <v/>
       </c>
-      <c r="S84" s="279" t="str">
+      <c r="S84" s="215" t="str">
         <f>IF('Inputs for Conserved Energy'!R73&lt;&gt;"",'Inputs for Conserved Energy'!R73,(IF(E84&lt;&gt;"",0.05,"")))</f>
         <v/>
       </c>
-      <c r="T84" s="281" t="str">
+      <c r="T84" s="217" t="str">
         <f>IF('Inputs for Conserved Energy'!S73&lt;&gt;"",'Inputs for Conserved Energy'!S73,(IF(E84&lt;&gt;"",10,"")))</f>
         <v/>
       </c>
@@ -21499,12 +21541,12 @@
         <f>IF('Inputs for Conserved Energy'!T73&lt;&gt;"",'Inputs for Conserved Energy'!T73,(IF(E84&lt;&gt;"",0.035,"")))</f>
         <v/>
       </c>
-      <c r="V84" s="280" t="str">
+      <c r="V84" s="216" t="str">
         <f>IF('Inputs for Conserved Energy'!U73&lt;&gt;"",'Inputs for Conserved Energy'!U73,(IF(E84&lt;&gt;"",0.035,"")))</f>
         <v/>
       </c>
       <c r="W84" s="177" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="X84" s="202">
@@ -21531,40 +21573,40 @@
         <f>IF(I84='Emission Factors'!$B$3,AB84,IF(I84='Emission Factors'!$B$4,'Emission Factors'!$C$4,IF(I84='Emission Factors'!$B$5,'Emission Factors'!$C$5,IF(I84='Emission Factors'!$B$6,'Emission Factors'!$C$6,IF(I84='Emission Factors'!$B$7,'Emission Factors'!$C$7,IF(I84='Emission Factors'!$B$8,'Emission Factors'!$C$8,IF(I84='Emission Factors'!$B$9,'Emission Factors'!$C$9,IF(I84='Emission Factors'!$B$10,'Emission Factors'!$C$10,IF(I84='Emission Factors'!$B$11,'Emission Factors'!$C$11,IF(I84='Emission Factors'!$B$12,'Emission Factors'!$C$12,IF(I84='Emission Factors'!$B$13,'Emission Factors'!$C$13,IF(I84='Emission Factors'!$B$14,'Emission Factors'!$C$14,0))))))))))))</f>
         <v>0</v>
       </c>
-      <c r="AD84" s="287" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="AE84" s="285" t="str">
+      <c r="AD84" s="223" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="AF84" s="286">
+      <c r="AE84" s="221" t="str">
         <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="AF84" s="222">
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AG84" s="117" t="e">
-        <f t="shared" si="21"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AH84" s="117" t="e">
         <f t="shared" si="22"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AI84" s="117" t="e">
+      <c r="AH84" s="117" t="e">
         <f t="shared" si="23"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AJ84" s="117" t="e">
+      <c r="AI84" s="117" t="e">
         <f t="shared" si="24"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AK84" s="117" t="e">
+      <c r="AJ84" s="117" t="e">
         <f t="shared" si="25"/>
         <v>#VALUE!</v>
       </c>
+      <c r="AK84" s="117" t="e">
+        <f t="shared" si="26"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="AL84" s="117" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>#VALUE!</v>
       </c>
       <c r="AM84" s="117">
@@ -21572,10 +21614,10 @@
         <v>0</v>
       </c>
       <c r="AN84" s="117" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="AO84" s="299" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="AO84" s="235" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
@@ -21583,7 +21625,7 @@
         <f>IF('Inputs for Conserved Energy'!AB73&lt;&gt;"",'Inputs for Conserved Energy'!AB73,(IF(OR(J84&lt;&gt;"",K84&lt;&gt;"",L84&lt;&gt;"",M84&lt;&gt;""),((J84*0.00341214)+K84+L84-IF(I84="Electricity",M84*0.00341214,M84)),"")))</f>
         <v/>
       </c>
-      <c r="AQ84" s="299" t="str">
+      <c r="AQ84" s="235" t="str">
         <f>IF('Inputs for Conserved Energy'!AC73&lt;&gt;"",'Inputs for Conserved Energy'!AC73,IF(AND(AP84&lt;&gt;"",AP84&gt;0),AD84/AP84,""))</f>
         <v/>
       </c>
@@ -21597,10 +21639,10 @@
       </c>
     </row>
     <row r="85" spans="2:45" x14ac:dyDescent="0.35">
-      <c r="B85" s="219"/>
+      <c r="B85" s="243"/>
       <c r="C85" s="49"/>
       <c r="D85" s="146" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="E85" s="162" t="str">
@@ -21656,11 +21698,11 @@
         <f>IF('Inputs for Conserved Energy'!Q74&lt;&gt;"",'Inputs for Conserved Energy'!Q74,"")</f>
         <v/>
       </c>
-      <c r="S85" s="279" t="str">
+      <c r="S85" s="215" t="str">
         <f>IF('Inputs for Conserved Energy'!R74&lt;&gt;"",'Inputs for Conserved Energy'!R74,(IF(E85&lt;&gt;"",0.05,"")))</f>
         <v/>
       </c>
-      <c r="T85" s="281" t="str">
+      <c r="T85" s="217" t="str">
         <f>IF('Inputs for Conserved Energy'!S74&lt;&gt;"",'Inputs for Conserved Energy'!S74,(IF(E85&lt;&gt;"",10,"")))</f>
         <v/>
       </c>
@@ -21668,12 +21710,12 @@
         <f>IF('Inputs for Conserved Energy'!T74&lt;&gt;"",'Inputs for Conserved Energy'!T74,(IF(E85&lt;&gt;"",0.035,"")))</f>
         <v/>
       </c>
-      <c r="V85" s="280" t="str">
+      <c r="V85" s="216" t="str">
         <f>IF('Inputs for Conserved Energy'!U74&lt;&gt;"",'Inputs for Conserved Energy'!U74,(IF(E85&lt;&gt;"",0.035,"")))</f>
         <v/>
       </c>
       <c r="W85" s="177" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="X85" s="202">
@@ -21700,40 +21742,40 @@
         <f>IF(I85='Emission Factors'!$B$3,AB85,IF(I85='Emission Factors'!$B$4,'Emission Factors'!$C$4,IF(I85='Emission Factors'!$B$5,'Emission Factors'!$C$5,IF(I85='Emission Factors'!$B$6,'Emission Factors'!$C$6,IF(I85='Emission Factors'!$B$7,'Emission Factors'!$C$7,IF(I85='Emission Factors'!$B$8,'Emission Factors'!$C$8,IF(I85='Emission Factors'!$B$9,'Emission Factors'!$C$9,IF(I85='Emission Factors'!$B$10,'Emission Factors'!$C$10,IF(I85='Emission Factors'!$B$11,'Emission Factors'!$C$11,IF(I85='Emission Factors'!$B$12,'Emission Factors'!$C$12,IF(I85='Emission Factors'!$B$13,'Emission Factors'!$C$13,IF(I85='Emission Factors'!$B$14,'Emission Factors'!$C$14,0))))))))))))</f>
         <v>0</v>
       </c>
-      <c r="AD85" s="287" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="AE85" s="285" t="str">
+      <c r="AD85" s="223" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="AF85" s="286">
+      <c r="AE85" s="221" t="str">
         <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="AF85" s="222">
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AG85" s="117" t="e">
-        <f t="shared" si="21"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AH85" s="117" t="e">
         <f t="shared" si="22"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AI85" s="117" t="e">
+      <c r="AH85" s="117" t="e">
         <f t="shared" si="23"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AJ85" s="117" t="e">
+      <c r="AI85" s="117" t="e">
         <f t="shared" si="24"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AK85" s="117" t="e">
+      <c r="AJ85" s="117" t="e">
         <f t="shared" si="25"/>
         <v>#VALUE!</v>
       </c>
+      <c r="AK85" s="117" t="e">
+        <f t="shared" si="26"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="AL85" s="117" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>#VALUE!</v>
       </c>
       <c r="AM85" s="117">
@@ -21741,10 +21783,10 @@
         <v>0</v>
       </c>
       <c r="AN85" s="117" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="AO85" s="299" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="AO85" s="235" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
@@ -21752,7 +21794,7 @@
         <f>IF('Inputs for Conserved Energy'!AB74&lt;&gt;"",'Inputs for Conserved Energy'!AB74,(IF(OR(J85&lt;&gt;"",K85&lt;&gt;"",L85&lt;&gt;"",M85&lt;&gt;""),((J85*0.00341214)+K85+L85-IF(I85="Electricity",M85*0.00341214,M85)),"")))</f>
         <v/>
       </c>
-      <c r="AQ85" s="299" t="str">
+      <c r="AQ85" s="235" t="str">
         <f>IF('Inputs for Conserved Energy'!AC74&lt;&gt;"",'Inputs for Conserved Energy'!AC74,IF(AND(AP85&lt;&gt;"",AP85&gt;0),AD85/AP85,""))</f>
         <v/>
       </c>
@@ -21766,10 +21808,10 @@
       </c>
     </row>
     <row r="86" spans="2:45" x14ac:dyDescent="0.35">
-      <c r="B86" s="219"/>
+      <c r="B86" s="243"/>
       <c r="C86" s="49"/>
       <c r="D86" s="146" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="E86" s="162" t="str">
@@ -21825,11 +21867,11 @@
         <f>IF('Inputs for Conserved Energy'!Q75&lt;&gt;"",'Inputs for Conserved Energy'!Q75,"")</f>
         <v/>
       </c>
-      <c r="S86" s="279" t="str">
+      <c r="S86" s="215" t="str">
         <f>IF('Inputs for Conserved Energy'!R75&lt;&gt;"",'Inputs for Conserved Energy'!R75,(IF(E86&lt;&gt;"",0.05,"")))</f>
         <v/>
       </c>
-      <c r="T86" s="281" t="str">
+      <c r="T86" s="217" t="str">
         <f>IF('Inputs for Conserved Energy'!S75&lt;&gt;"",'Inputs for Conserved Energy'!S75,(IF(E86&lt;&gt;"",10,"")))</f>
         <v/>
       </c>
@@ -21837,12 +21879,12 @@
         <f>IF('Inputs for Conserved Energy'!T75&lt;&gt;"",'Inputs for Conserved Energy'!T75,(IF(E86&lt;&gt;"",0.035,"")))</f>
         <v/>
       </c>
-      <c r="V86" s="280" t="str">
+      <c r="V86" s="216" t="str">
         <f>IF('Inputs for Conserved Energy'!U75&lt;&gt;"",'Inputs for Conserved Energy'!U75,(IF(E86&lt;&gt;"",0.035,"")))</f>
         <v/>
       </c>
       <c r="W86" s="177" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="X86" s="202">
@@ -21869,40 +21911,40 @@
         <f>IF(I86='Emission Factors'!$B$3,AB86,IF(I86='Emission Factors'!$B$4,'Emission Factors'!$C$4,IF(I86='Emission Factors'!$B$5,'Emission Factors'!$C$5,IF(I86='Emission Factors'!$B$6,'Emission Factors'!$C$6,IF(I86='Emission Factors'!$B$7,'Emission Factors'!$C$7,IF(I86='Emission Factors'!$B$8,'Emission Factors'!$C$8,IF(I86='Emission Factors'!$B$9,'Emission Factors'!$C$9,IF(I86='Emission Factors'!$B$10,'Emission Factors'!$C$10,IF(I86='Emission Factors'!$B$11,'Emission Factors'!$C$11,IF(I86='Emission Factors'!$B$12,'Emission Factors'!$C$12,IF(I86='Emission Factors'!$B$13,'Emission Factors'!$C$13,IF(I86='Emission Factors'!$B$14,'Emission Factors'!$C$14,0))))))))))))</f>
         <v>0</v>
       </c>
-      <c r="AD86" s="287" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="AE86" s="285" t="str">
+      <c r="AD86" s="223" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="AF86" s="286">
+      <c r="AE86" s="221" t="str">
         <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="AF86" s="222">
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AG86" s="117" t="e">
-        <f t="shared" si="21"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AH86" s="117" t="e">
         <f t="shared" si="22"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AI86" s="117" t="e">
+      <c r="AH86" s="117" t="e">
         <f t="shared" si="23"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AJ86" s="117" t="e">
+      <c r="AI86" s="117" t="e">
         <f t="shared" si="24"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AK86" s="117" t="e">
+      <c r="AJ86" s="117" t="e">
         <f t="shared" si="25"/>
         <v>#VALUE!</v>
       </c>
+      <c r="AK86" s="117" t="e">
+        <f t="shared" si="26"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="AL86" s="117" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>#VALUE!</v>
       </c>
       <c r="AM86" s="117">
@@ -21910,10 +21952,10 @@
         <v>0</v>
       </c>
       <c r="AN86" s="117" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="AO86" s="299" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="AO86" s="235" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
@@ -21921,7 +21963,7 @@
         <f>IF('Inputs for Conserved Energy'!AB75&lt;&gt;"",'Inputs for Conserved Energy'!AB75,(IF(OR(J86&lt;&gt;"",K86&lt;&gt;"",L86&lt;&gt;"",M86&lt;&gt;""),((J86*0.00341214)+K86+L86-IF(I86="Electricity",M86*0.00341214,M86)),"")))</f>
         <v/>
       </c>
-      <c r="AQ86" s="299" t="str">
+      <c r="AQ86" s="235" t="str">
         <f>IF('Inputs for Conserved Energy'!AC75&lt;&gt;"",'Inputs for Conserved Energy'!AC75,IF(AND(AP86&lt;&gt;"",AP86&gt;0),AD86/AP86,""))</f>
         <v/>
       </c>
@@ -21935,10 +21977,10 @@
       </c>
     </row>
     <row r="87" spans="2:45" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B87" s="219"/>
+      <c r="B87" s="243"/>
       <c r="C87" s="49"/>
       <c r="D87" s="147" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="E87" s="164" t="str">
@@ -21994,11 +22036,11 @@
         <f>IF('Inputs for Conserved Energy'!Q76&lt;&gt;"",'Inputs for Conserved Energy'!Q76,"")</f>
         <v/>
       </c>
-      <c r="S87" s="282" t="str">
+      <c r="S87" s="218" t="str">
         <f>IF('Inputs for Conserved Energy'!R76&lt;&gt;"",'Inputs for Conserved Energy'!R76,(IF(E87&lt;&gt;"",0.05,"")))</f>
         <v/>
       </c>
-      <c r="T87" s="283" t="str">
+      <c r="T87" s="219" t="str">
         <f>IF('Inputs for Conserved Energy'!S76&lt;&gt;"",'Inputs for Conserved Energy'!S76,(IF(E87&lt;&gt;"",10,"")))</f>
         <v/>
       </c>
@@ -22006,12 +22048,12 @@
         <f>IF('Inputs for Conserved Energy'!T76&lt;&gt;"",'Inputs for Conserved Energy'!T76,(IF(E87&lt;&gt;"",0.035,"")))</f>
         <v/>
       </c>
-      <c r="V87" s="284" t="str">
+      <c r="V87" s="220" t="str">
         <f>IF('Inputs for Conserved Energy'!U76&lt;&gt;"",'Inputs for Conserved Energy'!U76,(IF(E87&lt;&gt;"",0.035,"")))</f>
         <v/>
       </c>
       <c r="W87" s="178" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="X87" s="202">
@@ -22038,40 +22080,40 @@
         <f>IF(I87='Emission Factors'!$B$3,AB87,IF(I87='Emission Factors'!$B$4,'Emission Factors'!$C$4,IF(I87='Emission Factors'!$B$5,'Emission Factors'!$C$5,IF(I87='Emission Factors'!$B$6,'Emission Factors'!$C$6,IF(I87='Emission Factors'!$B$7,'Emission Factors'!$C$7,IF(I87='Emission Factors'!$B$8,'Emission Factors'!$C$8,IF(I87='Emission Factors'!$B$9,'Emission Factors'!$C$9,IF(I87='Emission Factors'!$B$10,'Emission Factors'!$C$10,IF(I87='Emission Factors'!$B$11,'Emission Factors'!$C$11,IF(I87='Emission Factors'!$B$12,'Emission Factors'!$C$12,IF(I87='Emission Factors'!$B$13,'Emission Factors'!$C$13,IF(I87='Emission Factors'!$B$14,'Emission Factors'!$C$14,0))))))))))))</f>
         <v>0</v>
       </c>
-      <c r="AD87" s="288" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="AE87" s="289" t="str">
+      <c r="AD87" s="224" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="AF87" s="290">
+      <c r="AE87" s="225" t="str">
         <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="AF87" s="226">
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AG87" s="180" t="e">
-        <f t="shared" si="21"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AH87" s="180" t="e">
         <f t="shared" si="22"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AI87" s="180" t="e">
+      <c r="AH87" s="180" t="e">
         <f t="shared" si="23"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AJ87" s="180" t="e">
+      <c r="AI87" s="180" t="e">
         <f t="shared" si="24"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AK87" s="180" t="e">
+      <c r="AJ87" s="180" t="e">
         <f t="shared" si="25"/>
         <v>#VALUE!</v>
       </c>
+      <c r="AK87" s="180" t="e">
+        <f t="shared" si="26"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="AL87" s="180" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>#VALUE!</v>
       </c>
       <c r="AM87" s="180">
@@ -22079,10 +22121,10 @@
         <v>0</v>
       </c>
       <c r="AN87" s="180" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="AO87" s="300" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="AO87" s="236" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
@@ -22090,7 +22132,7 @@
         <f>IF('Inputs for Conserved Energy'!AB76&lt;&gt;"",'Inputs for Conserved Energy'!AB76,(IF(OR(J87&lt;&gt;"",K87&lt;&gt;"",L87&lt;&gt;"",M87&lt;&gt;""),((J87*0.00341214)+K87+L87-IF(I87="Electricity",M87*0.00341214,M87)),"")))</f>
         <v/>
       </c>
-      <c r="AQ87" s="300" t="str">
+      <c r="AQ87" s="236" t="str">
         <f>IF('Inputs for Conserved Energy'!AC76&lt;&gt;"",'Inputs for Conserved Energy'!AC76,IF(AND(AP87&lt;&gt;"",AP87&gt;0),AD87/AP87,""))</f>
         <v/>
       </c>
@@ -22392,11 +22434,11 @@
       </c>
     </row>
     <row r="15" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="271" t="s">
+      <c r="B15" s="295" t="s">
         <v>139</v>
       </c>
-      <c r="C15" s="272"/>
-      <c r="D15" s="273"/>
+      <c r="C15" s="296"/>
+      <c r="D15" s="297"/>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B18" s="50" t="s">
@@ -23338,18 +23380,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="C1" s="274" t="s">
+      <c r="C1" s="298" t="s">
         <v>74</v>
       </c>
-      <c r="D1" s="274"/>
-      <c r="E1" s="274"/>
-      <c r="F1" s="274"/>
-      <c r="G1" s="274"/>
-      <c r="H1" s="274"/>
-      <c r="I1" s="274"/>
-      <c r="J1" s="274"/>
-      <c r="K1" s="274"/>
-      <c r="L1" s="274"/>
+      <c r="D1" s="298"/>
+      <c r="E1" s="298"/>
+      <c r="F1" s="298"/>
+      <c r="G1" s="298"/>
+      <c r="H1" s="298"/>
+      <c r="I1" s="298"/>
+      <c r="J1" s="298"/>
+      <c r="K1" s="298"/>
+      <c r="L1" s="298"/>
     </row>
     <row r="2" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C2" s="53" t="s">
@@ -23358,16 +23400,16 @@
       <c r="D2" s="82" t="s">
         <v>75</v>
       </c>
-      <c r="E2" s="275" t="s">
+      <c r="E2" s="299" t="s">
         <v>76</v>
       </c>
-      <c r="F2" s="276"/>
-      <c r="G2" s="276"/>
-      <c r="H2" s="276"/>
-      <c r="I2" s="276"/>
-      <c r="J2" s="276"/>
-      <c r="K2" s="276"/>
-      <c r="L2" s="277"/>
+      <c r="F2" s="300"/>
+      <c r="G2" s="300"/>
+      <c r="H2" s="300"/>
+      <c r="I2" s="300"/>
+      <c r="J2" s="300"/>
+      <c r="K2" s="300"/>
+      <c r="L2" s="301"/>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B3" s="11" t="s">
@@ -25186,136 +25228,136 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:66" x14ac:dyDescent="0.35">
-      <c r="B2" s="278" t="s">
+      <c r="B2" s="302" t="s">
         <v>175</v>
       </c>
-      <c r="C2" s="278"/>
-      <c r="D2" s="278"/>
-      <c r="E2" s="278"/>
-      <c r="F2" s="278"/>
-      <c r="G2" s="278"/>
-      <c r="H2" s="278"/>
-      <c r="I2" s="278"/>
-      <c r="J2" s="278"/>
-      <c r="K2" s="278"/>
-      <c r="L2" s="278"/>
-      <c r="M2" s="278"/>
-      <c r="N2" s="278"/>
-      <c r="O2" s="278"/>
-      <c r="P2" s="278"/>
-      <c r="Q2" s="278"/>
-      <c r="R2" s="278"/>
-      <c r="S2" s="278"/>
-      <c r="T2" s="278"/>
-      <c r="U2" s="278"/>
-      <c r="V2" s="278"/>
-      <c r="W2" s="278"/>
-      <c r="X2" s="278"/>
-      <c r="Y2" s="278"/>
-      <c r="Z2" s="278"/>
-      <c r="AA2" s="278"/>
-      <c r="AB2" s="278"/>
-      <c r="AC2" s="278"/>
-      <c r="AD2" s="278"/>
-      <c r="AE2" s="278"/>
-      <c r="AF2" s="278"/>
-      <c r="AJ2" s="278" t="s">
+      <c r="C2" s="302"/>
+      <c r="D2" s="302"/>
+      <c r="E2" s="302"/>
+      <c r="F2" s="302"/>
+      <c r="G2" s="302"/>
+      <c r="H2" s="302"/>
+      <c r="I2" s="302"/>
+      <c r="J2" s="302"/>
+      <c r="K2" s="302"/>
+      <c r="L2" s="302"/>
+      <c r="M2" s="302"/>
+      <c r="N2" s="302"/>
+      <c r="O2" s="302"/>
+      <c r="P2" s="302"/>
+      <c r="Q2" s="302"/>
+      <c r="R2" s="302"/>
+      <c r="S2" s="302"/>
+      <c r="T2" s="302"/>
+      <c r="U2" s="302"/>
+      <c r="V2" s="302"/>
+      <c r="W2" s="302"/>
+      <c r="X2" s="302"/>
+      <c r="Y2" s="302"/>
+      <c r="Z2" s="302"/>
+      <c r="AA2" s="302"/>
+      <c r="AB2" s="302"/>
+      <c r="AC2" s="302"/>
+      <c r="AD2" s="302"/>
+      <c r="AE2" s="302"/>
+      <c r="AF2" s="302"/>
+      <c r="AJ2" s="302" t="s">
         <v>177</v>
       </c>
-      <c r="AK2" s="278"/>
-      <c r="AL2" s="278"/>
-      <c r="AM2" s="278"/>
-      <c r="AN2" s="278"/>
-      <c r="AO2" s="278"/>
-      <c r="AP2" s="278"/>
-      <c r="AQ2" s="278"/>
-      <c r="AR2" s="278"/>
-      <c r="AS2" s="278"/>
-      <c r="AT2" s="278"/>
-      <c r="AU2" s="278"/>
-      <c r="AV2" s="278"/>
-      <c r="AW2" s="278"/>
-      <c r="AX2" s="278"/>
-      <c r="AY2" s="278"/>
-      <c r="AZ2" s="278"/>
-      <c r="BA2" s="278"/>
-      <c r="BB2" s="278"/>
-      <c r="BC2" s="278"/>
-      <c r="BD2" s="278"/>
-      <c r="BE2" s="278"/>
-      <c r="BF2" s="278"/>
-      <c r="BG2" s="278"/>
-      <c r="BH2" s="278"/>
-      <c r="BI2" s="278"/>
-      <c r="BJ2" s="278"/>
-      <c r="BK2" s="278"/>
-      <c r="BL2" s="278"/>
-      <c r="BM2" s="278"/>
-      <c r="BN2" s="278"/>
+      <c r="AK2" s="302"/>
+      <c r="AL2" s="302"/>
+      <c r="AM2" s="302"/>
+      <c r="AN2" s="302"/>
+      <c r="AO2" s="302"/>
+      <c r="AP2" s="302"/>
+      <c r="AQ2" s="302"/>
+      <c r="AR2" s="302"/>
+      <c r="AS2" s="302"/>
+      <c r="AT2" s="302"/>
+      <c r="AU2" s="302"/>
+      <c r="AV2" s="302"/>
+      <c r="AW2" s="302"/>
+      <c r="AX2" s="302"/>
+      <c r="AY2" s="302"/>
+      <c r="AZ2" s="302"/>
+      <c r="BA2" s="302"/>
+      <c r="BB2" s="302"/>
+      <c r="BC2" s="302"/>
+      <c r="BD2" s="302"/>
+      <c r="BE2" s="302"/>
+      <c r="BF2" s="302"/>
+      <c r="BG2" s="302"/>
+      <c r="BH2" s="302"/>
+      <c r="BI2" s="302"/>
+      <c r="BJ2" s="302"/>
+      <c r="BK2" s="302"/>
+      <c r="BL2" s="302"/>
+      <c r="BM2" s="302"/>
+      <c r="BN2" s="302"/>
     </row>
     <row r="3" spans="2:66" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="278"/>
-      <c r="C3" s="278"/>
-      <c r="D3" s="278"/>
-      <c r="E3" s="278"/>
-      <c r="F3" s="278"/>
-      <c r="G3" s="278"/>
-      <c r="H3" s="278"/>
-      <c r="I3" s="278"/>
-      <c r="J3" s="278"/>
-      <c r="K3" s="278"/>
-      <c r="L3" s="278"/>
-      <c r="M3" s="278"/>
-      <c r="N3" s="278"/>
-      <c r="O3" s="278"/>
-      <c r="P3" s="278"/>
-      <c r="Q3" s="278"/>
-      <c r="R3" s="278"/>
-      <c r="S3" s="278"/>
-      <c r="T3" s="278"/>
-      <c r="U3" s="278"/>
-      <c r="V3" s="278"/>
-      <c r="W3" s="278"/>
-      <c r="X3" s="278"/>
-      <c r="Y3" s="278"/>
-      <c r="Z3" s="278"/>
-      <c r="AA3" s="278"/>
-      <c r="AB3" s="278"/>
-      <c r="AC3" s="278"/>
-      <c r="AD3" s="278"/>
-      <c r="AE3" s="278"/>
-      <c r="AF3" s="278"/>
-      <c r="AJ3" s="278"/>
-      <c r="AK3" s="278"/>
-      <c r="AL3" s="278"/>
-      <c r="AM3" s="278"/>
-      <c r="AN3" s="278"/>
-      <c r="AO3" s="278"/>
-      <c r="AP3" s="278"/>
-      <c r="AQ3" s="278"/>
-      <c r="AR3" s="278"/>
-      <c r="AS3" s="278"/>
-      <c r="AT3" s="278"/>
-      <c r="AU3" s="278"/>
-      <c r="AV3" s="278"/>
-      <c r="AW3" s="278"/>
-      <c r="AX3" s="278"/>
-      <c r="AY3" s="278"/>
-      <c r="AZ3" s="278"/>
-      <c r="BA3" s="278"/>
-      <c r="BB3" s="278"/>
-      <c r="BC3" s="278"/>
-      <c r="BD3" s="278"/>
-      <c r="BE3" s="278"/>
-      <c r="BF3" s="278"/>
-      <c r="BG3" s="278"/>
-      <c r="BH3" s="278"/>
-      <c r="BI3" s="278"/>
-      <c r="BJ3" s="278"/>
-      <c r="BK3" s="278"/>
-      <c r="BL3" s="278"/>
-      <c r="BM3" s="278"/>
-      <c r="BN3" s="278"/>
+      <c r="B3" s="302"/>
+      <c r="C3" s="302"/>
+      <c r="D3" s="302"/>
+      <c r="E3" s="302"/>
+      <c r="F3" s="302"/>
+      <c r="G3" s="302"/>
+      <c r="H3" s="302"/>
+      <c r="I3" s="302"/>
+      <c r="J3" s="302"/>
+      <c r="K3" s="302"/>
+      <c r="L3" s="302"/>
+      <c r="M3" s="302"/>
+      <c r="N3" s="302"/>
+      <c r="O3" s="302"/>
+      <c r="P3" s="302"/>
+      <c r="Q3" s="302"/>
+      <c r="R3" s="302"/>
+      <c r="S3" s="302"/>
+      <c r="T3" s="302"/>
+      <c r="U3" s="302"/>
+      <c r="V3" s="302"/>
+      <c r="W3" s="302"/>
+      <c r="X3" s="302"/>
+      <c r="Y3" s="302"/>
+      <c r="Z3" s="302"/>
+      <c r="AA3" s="302"/>
+      <c r="AB3" s="302"/>
+      <c r="AC3" s="302"/>
+      <c r="AD3" s="302"/>
+      <c r="AE3" s="302"/>
+      <c r="AF3" s="302"/>
+      <c r="AJ3" s="302"/>
+      <c r="AK3" s="302"/>
+      <c r="AL3" s="302"/>
+      <c r="AM3" s="302"/>
+      <c r="AN3" s="302"/>
+      <c r="AO3" s="302"/>
+      <c r="AP3" s="302"/>
+      <c r="AQ3" s="302"/>
+      <c r="AR3" s="302"/>
+      <c r="AS3" s="302"/>
+      <c r="AT3" s="302"/>
+      <c r="AU3" s="302"/>
+      <c r="AV3" s="302"/>
+      <c r="AW3" s="302"/>
+      <c r="AX3" s="302"/>
+      <c r="AY3" s="302"/>
+      <c r="AZ3" s="302"/>
+      <c r="BA3" s="302"/>
+      <c r="BB3" s="302"/>
+      <c r="BC3" s="302"/>
+      <c r="BD3" s="302"/>
+      <c r="BE3" s="302"/>
+      <c r="BF3" s="302"/>
+      <c r="BG3" s="302"/>
+      <c r="BH3" s="302"/>
+      <c r="BI3" s="302"/>
+      <c r="BJ3" s="302"/>
+      <c r="BK3" s="302"/>
+      <c r="BL3" s="302"/>
+      <c r="BM3" s="302"/>
+      <c r="BN3" s="302"/>
     </row>
     <row r="4" spans="2:66" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B4" s="56" t="s">
@@ -35919,136 +35961,136 @@
       </c>
     </row>
     <row r="55" spans="2:66" x14ac:dyDescent="0.35">
-      <c r="B55" s="278" t="s">
+      <c r="B55" s="302" t="s">
         <v>176</v>
       </c>
-      <c r="C55" s="278"/>
-      <c r="D55" s="278"/>
-      <c r="E55" s="278"/>
-      <c r="F55" s="278"/>
-      <c r="G55" s="278"/>
-      <c r="H55" s="278"/>
-      <c r="I55" s="278"/>
-      <c r="J55" s="278"/>
-      <c r="K55" s="278"/>
-      <c r="L55" s="278"/>
-      <c r="M55" s="278"/>
-      <c r="N55" s="278"/>
-      <c r="O55" s="278"/>
-      <c r="P55" s="278"/>
-      <c r="Q55" s="278"/>
-      <c r="R55" s="278"/>
-      <c r="S55" s="278"/>
-      <c r="T55" s="278"/>
-      <c r="U55" s="278"/>
-      <c r="V55" s="278"/>
-      <c r="W55" s="278"/>
-      <c r="X55" s="278"/>
-      <c r="Y55" s="278"/>
-      <c r="Z55" s="278"/>
-      <c r="AA55" s="278"/>
-      <c r="AB55" s="278"/>
-      <c r="AC55" s="278"/>
-      <c r="AD55" s="278"/>
-      <c r="AE55" s="278"/>
-      <c r="AF55" s="278"/>
-      <c r="AJ55" s="278" t="s">
+      <c r="C55" s="302"/>
+      <c r="D55" s="302"/>
+      <c r="E55" s="302"/>
+      <c r="F55" s="302"/>
+      <c r="G55" s="302"/>
+      <c r="H55" s="302"/>
+      <c r="I55" s="302"/>
+      <c r="J55" s="302"/>
+      <c r="K55" s="302"/>
+      <c r="L55" s="302"/>
+      <c r="M55" s="302"/>
+      <c r="N55" s="302"/>
+      <c r="O55" s="302"/>
+      <c r="P55" s="302"/>
+      <c r="Q55" s="302"/>
+      <c r="R55" s="302"/>
+      <c r="S55" s="302"/>
+      <c r="T55" s="302"/>
+      <c r="U55" s="302"/>
+      <c r="V55" s="302"/>
+      <c r="W55" s="302"/>
+      <c r="X55" s="302"/>
+      <c r="Y55" s="302"/>
+      <c r="Z55" s="302"/>
+      <c r="AA55" s="302"/>
+      <c r="AB55" s="302"/>
+      <c r="AC55" s="302"/>
+      <c r="AD55" s="302"/>
+      <c r="AE55" s="302"/>
+      <c r="AF55" s="302"/>
+      <c r="AJ55" s="302" t="s">
         <v>178</v>
       </c>
-      <c r="AK55" s="278"/>
-      <c r="AL55" s="278"/>
-      <c r="AM55" s="278"/>
-      <c r="AN55" s="278"/>
-      <c r="AO55" s="278"/>
-      <c r="AP55" s="278"/>
-      <c r="AQ55" s="278"/>
-      <c r="AR55" s="278"/>
-      <c r="AS55" s="278"/>
-      <c r="AT55" s="278"/>
-      <c r="AU55" s="278"/>
-      <c r="AV55" s="278"/>
-      <c r="AW55" s="278"/>
-      <c r="AX55" s="278"/>
-      <c r="AY55" s="278"/>
-      <c r="AZ55" s="278"/>
-      <c r="BA55" s="278"/>
-      <c r="BB55" s="278"/>
-      <c r="BC55" s="278"/>
-      <c r="BD55" s="278"/>
-      <c r="BE55" s="278"/>
-      <c r="BF55" s="278"/>
-      <c r="BG55" s="278"/>
-      <c r="BH55" s="278"/>
-      <c r="BI55" s="278"/>
-      <c r="BJ55" s="278"/>
-      <c r="BK55" s="278"/>
-      <c r="BL55" s="278"/>
-      <c r="BM55" s="278"/>
-      <c r="BN55" s="278"/>
+      <c r="AK55" s="302"/>
+      <c r="AL55" s="302"/>
+      <c r="AM55" s="302"/>
+      <c r="AN55" s="302"/>
+      <c r="AO55" s="302"/>
+      <c r="AP55" s="302"/>
+      <c r="AQ55" s="302"/>
+      <c r="AR55" s="302"/>
+      <c r="AS55" s="302"/>
+      <c r="AT55" s="302"/>
+      <c r="AU55" s="302"/>
+      <c r="AV55" s="302"/>
+      <c r="AW55" s="302"/>
+      <c r="AX55" s="302"/>
+      <c r="AY55" s="302"/>
+      <c r="AZ55" s="302"/>
+      <c r="BA55" s="302"/>
+      <c r="BB55" s="302"/>
+      <c r="BC55" s="302"/>
+      <c r="BD55" s="302"/>
+      <c r="BE55" s="302"/>
+      <c r="BF55" s="302"/>
+      <c r="BG55" s="302"/>
+      <c r="BH55" s="302"/>
+      <c r="BI55" s="302"/>
+      <c r="BJ55" s="302"/>
+      <c r="BK55" s="302"/>
+      <c r="BL55" s="302"/>
+      <c r="BM55" s="302"/>
+      <c r="BN55" s="302"/>
     </row>
     <row r="56" spans="2:66" x14ac:dyDescent="0.35">
-      <c r="B56" s="278"/>
-      <c r="C56" s="278"/>
-      <c r="D56" s="278"/>
-      <c r="E56" s="278"/>
-      <c r="F56" s="278"/>
-      <c r="G56" s="278"/>
-      <c r="H56" s="278"/>
-      <c r="I56" s="278"/>
-      <c r="J56" s="278"/>
-      <c r="K56" s="278"/>
-      <c r="L56" s="278"/>
-      <c r="M56" s="278"/>
-      <c r="N56" s="278"/>
-      <c r="O56" s="278"/>
-      <c r="P56" s="278"/>
-      <c r="Q56" s="278"/>
-      <c r="R56" s="278"/>
-      <c r="S56" s="278"/>
-      <c r="T56" s="278"/>
-      <c r="U56" s="278"/>
-      <c r="V56" s="278"/>
-      <c r="W56" s="278"/>
-      <c r="X56" s="278"/>
-      <c r="Y56" s="278"/>
-      <c r="Z56" s="278"/>
-      <c r="AA56" s="278"/>
-      <c r="AB56" s="278"/>
-      <c r="AC56" s="278"/>
-      <c r="AD56" s="278"/>
-      <c r="AE56" s="278"/>
-      <c r="AF56" s="278"/>
-      <c r="AJ56" s="278"/>
-      <c r="AK56" s="278"/>
-      <c r="AL56" s="278"/>
-      <c r="AM56" s="278"/>
-      <c r="AN56" s="278"/>
-      <c r="AO56" s="278"/>
-      <c r="AP56" s="278"/>
-      <c r="AQ56" s="278"/>
-      <c r="AR56" s="278"/>
-      <c r="AS56" s="278"/>
-      <c r="AT56" s="278"/>
-      <c r="AU56" s="278"/>
-      <c r="AV56" s="278"/>
-      <c r="AW56" s="278"/>
-      <c r="AX56" s="278"/>
-      <c r="AY56" s="278"/>
-      <c r="AZ56" s="278"/>
-      <c r="BA56" s="278"/>
-      <c r="BB56" s="278"/>
-      <c r="BC56" s="278"/>
-      <c r="BD56" s="278"/>
-      <c r="BE56" s="278"/>
-      <c r="BF56" s="278"/>
-      <c r="BG56" s="278"/>
-      <c r="BH56" s="278"/>
-      <c r="BI56" s="278"/>
-      <c r="BJ56" s="278"/>
-      <c r="BK56" s="278"/>
-      <c r="BL56" s="278"/>
-      <c r="BM56" s="278"/>
-      <c r="BN56" s="278"/>
+      <c r="B56" s="302"/>
+      <c r="C56" s="302"/>
+      <c r="D56" s="302"/>
+      <c r="E56" s="302"/>
+      <c r="F56" s="302"/>
+      <c r="G56" s="302"/>
+      <c r="H56" s="302"/>
+      <c r="I56" s="302"/>
+      <c r="J56" s="302"/>
+      <c r="K56" s="302"/>
+      <c r="L56" s="302"/>
+      <c r="M56" s="302"/>
+      <c r="N56" s="302"/>
+      <c r="O56" s="302"/>
+      <c r="P56" s="302"/>
+      <c r="Q56" s="302"/>
+      <c r="R56" s="302"/>
+      <c r="S56" s="302"/>
+      <c r="T56" s="302"/>
+      <c r="U56" s="302"/>
+      <c r="V56" s="302"/>
+      <c r="W56" s="302"/>
+      <c r="X56" s="302"/>
+      <c r="Y56" s="302"/>
+      <c r="Z56" s="302"/>
+      <c r="AA56" s="302"/>
+      <c r="AB56" s="302"/>
+      <c r="AC56" s="302"/>
+      <c r="AD56" s="302"/>
+      <c r="AE56" s="302"/>
+      <c r="AF56" s="302"/>
+      <c r="AJ56" s="302"/>
+      <c r="AK56" s="302"/>
+      <c r="AL56" s="302"/>
+      <c r="AM56" s="302"/>
+      <c r="AN56" s="302"/>
+      <c r="AO56" s="302"/>
+      <c r="AP56" s="302"/>
+      <c r="AQ56" s="302"/>
+      <c r="AR56" s="302"/>
+      <c r="AS56" s="302"/>
+      <c r="AT56" s="302"/>
+      <c r="AU56" s="302"/>
+      <c r="AV56" s="302"/>
+      <c r="AW56" s="302"/>
+      <c r="AX56" s="302"/>
+      <c r="AY56" s="302"/>
+      <c r="AZ56" s="302"/>
+      <c r="BA56" s="302"/>
+      <c r="BB56" s="302"/>
+      <c r="BC56" s="302"/>
+      <c r="BD56" s="302"/>
+      <c r="BE56" s="302"/>
+      <c r="BF56" s="302"/>
+      <c r="BG56" s="302"/>
+      <c r="BH56" s="302"/>
+      <c r="BI56" s="302"/>
+      <c r="BJ56" s="302"/>
+      <c r="BK56" s="302"/>
+      <c r="BL56" s="302"/>
+      <c r="BM56" s="302"/>
+      <c r="BN56" s="302"/>
     </row>
     <row r="57" spans="2:66" x14ac:dyDescent="0.35">
       <c r="C57" s="39">
